--- a/JupyterNotebooks/AvgHW/BrassA-HW15.xlsx
+++ b/JupyterNotebooks/AvgHW/BrassA-HW15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,24 +82,30 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
     <t>[3, 3, 3]</t>
   </si>
   <si>
@@ -95,12 +113,6 @@
   </si>
   <si>
     <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +500,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,38 +573,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,100 +582,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -701,13 +653,13 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>1.005076639192307</v>
+      </c>
+      <c r="D3">
+        <v>0.9969267494003855</v>
+      </c>
+      <c r="E3">
         <v>1.034184780817442</v>
-      </c>
-      <c r="D3">
-        <v>1.009782547159598</v>
-      </c>
-      <c r="E3">
-        <v>0.9930400826136377</v>
       </c>
       <c r="F3">
         <v>1.034184780817442</v>
@@ -719,19 +671,19 @@
         <v>1.002189213657766</v>
       </c>
       <c r="I3">
-        <v>1.034184780817442</v>
+        <v>0.9930400826136377</v>
       </c>
       <c r="J3">
         <v>1.009782547159598</v>
       </c>
       <c r="K3">
+        <v>1.034184780817442</v>
+      </c>
+      <c r="L3">
+        <v>1.009782547159598</v>
+      </c>
+      <c r="M3">
         <v>0.9856143457672772</v>
-      </c>
-      <c r="L3">
-        <v>1.005076639192307</v>
-      </c>
-      <c r="M3">
-        <v>0.9969267494003855</v>
       </c>
       <c r="N3">
         <v>1.034184780817442</v>
@@ -764,7 +716,7 @@
         <v>1.002574604017262</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -772,13 +724,13 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>1.010230300882503</v>
+      </c>
+      <c r="D4">
+        <v>0.9937739662542305</v>
+      </c>
+      <c r="E4">
         <v>1.064648805751204</v>
-      </c>
-      <c r="D4">
-        <v>1.016575168863032</v>
-      </c>
-      <c r="E4">
-        <v>0.9858652682460139</v>
       </c>
       <c r="F4">
         <v>1.064648805751204</v>
@@ -790,19 +742,19 @@
         <v>1.003798082228807</v>
       </c>
       <c r="I4">
-        <v>1.064648805751204</v>
+        <v>0.9858652682460139</v>
       </c>
       <c r="J4">
         <v>1.016575168863032</v>
       </c>
       <c r="K4">
+        <v>1.064648805751204</v>
+      </c>
+      <c r="L4">
+        <v>1.016575168863032</v>
+      </c>
+      <c r="M4">
         <v>0.9732293911935003</v>
-      </c>
-      <c r="L4">
-        <v>1.010230300882503</v>
-      </c>
-      <c r="M4">
-        <v>0.9937739662542305</v>
       </c>
       <c r="N4">
         <v>1.064648805751204</v>
@@ -835,7 +787,7 @@
         <v>1.004607267123429</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -843,13 +795,13 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>1.017829260983971</v>
+      </c>
+      <c r="D5">
+        <v>0.9878219964337852</v>
+      </c>
+      <c r="E5">
         <v>1.123475943952965</v>
-      </c>
-      <c r="D5">
-        <v>1.033446632919825</v>
-      </c>
-      <c r="E5">
-        <v>0.9774775849464683</v>
       </c>
       <c r="F5">
         <v>1.123475943952965</v>
@@ -861,19 +813,19 @@
         <v>1.008645229380277</v>
       </c>
       <c r="I5">
-        <v>1.123475943952965</v>
+        <v>0.9774775849464683</v>
       </c>
       <c r="J5">
         <v>1.033446632919825</v>
       </c>
       <c r="K5">
+        <v>1.123475943952965</v>
+      </c>
+      <c r="L5">
+        <v>1.033446632919825</v>
+      </c>
+      <c r="M5">
         <v>0.9484618857258231</v>
-      </c>
-      <c r="L5">
-        <v>1.017829260983971</v>
-      </c>
-      <c r="M5">
-        <v>0.9878219964337852</v>
       </c>
       <c r="N5">
         <v>1.123475943952965</v>
@@ -906,7 +858,7 @@
         <v>1.009288053923048</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -914,13 +866,13 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>1.025956378605659</v>
+      </c>
+      <c r="D6">
+        <v>0.9837915024782443</v>
+      </c>
+      <c r="E6">
         <v>1.185230857356069</v>
-      </c>
-      <c r="D6">
-        <v>1.052271550796229</v>
-      </c>
-      <c r="E6">
-        <v>0.9753329499587549</v>
       </c>
       <c r="F6">
         <v>1.185230857356069</v>
@@ -932,25 +884,25 @@
         <v>1.012551251230057</v>
       </c>
       <c r="I6">
-        <v>1.185230857356069</v>
+        <v>0.9753329499587547</v>
       </c>
       <c r="J6">
         <v>1.052271550796229</v>
       </c>
       <c r="K6">
+        <v>1.185230857356069</v>
+      </c>
+      <c r="L6">
+        <v>1.052271550796229</v>
+      </c>
+      <c r="M6">
         <v>0.9194209674196385</v>
-      </c>
-      <c r="L6">
-        <v>1.025956378605659</v>
-      </c>
-      <c r="M6">
-        <v>0.9837915024782443</v>
       </c>
       <c r="N6">
         <v>1.185230857356069</v>
       </c>
       <c r="O6">
-        <v>0.9753329499587549</v>
+        <v>0.9753329499587547</v>
       </c>
       <c r="P6">
         <v>1.013802250377492</v>
@@ -977,7 +929,7 @@
         <v>1.015747646452288</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,46 +937,46 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9993000401394641</v>
+        <v>0.999555789855198</v>
       </c>
       <c r="D7">
-        <v>0.9987886192712012</v>
+        <v>0.999022137664182</v>
       </c>
       <c r="E7">
+        <v>0.9993000401394633</v>
+      </c>
+      <c r="F7">
+        <v>0.9993000401394633</v>
+      </c>
+      <c r="G7">
+        <v>0.9993535721654289</v>
+      </c>
+      <c r="H7">
+        <v>1.001049139524324</v>
+      </c>
+      <c r="I7">
         <v>1.002408384155498</v>
       </c>
-      <c r="F7">
-        <v>0.9993000401394641</v>
-      </c>
-      <c r="G7">
-        <v>0.999353572165429</v>
-      </c>
-      <c r="H7">
-        <v>1.001049139524325</v>
-      </c>
-      <c r="I7">
-        <v>0.9993000401394641</v>
-      </c>
       <c r="J7">
-        <v>0.9987886192712012</v>
+        <v>0.998788619271201</v>
       </c>
       <c r="K7">
+        <v>0.9993000401394633</v>
+      </c>
+      <c r="L7">
+        <v>0.998788619271201</v>
+      </c>
+      <c r="M7">
         <v>1.000139451642618</v>
       </c>
-      <c r="L7">
-        <v>0.9995557898551972</v>
-      </c>
-      <c r="M7">
-        <v>0.999022137664182</v>
-      </c>
       <c r="N7">
-        <v>0.9993000401394641</v>
+        <v>0.9993000401394633</v>
       </c>
       <c r="O7">
         <v>1.002408384155498</v>
       </c>
       <c r="P7">
-        <v>1.00059850171335</v>
+        <v>1.000598501713349</v>
       </c>
       <c r="Q7">
         <v>1.000880978160463</v>
@@ -1039,16 +991,16 @@
         <v>1.000165681188721</v>
       </c>
       <c r="U7">
-        <v>0.9999626539328981</v>
+        <v>0.9999626539328978</v>
       </c>
       <c r="V7">
-        <v>0.9998301311742113</v>
+        <v>0.9998301311742109</v>
       </c>
       <c r="W7">
         <v>0.9999521418022391</v>
       </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1056,49 +1008,49 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9986121978214065</v>
+        <v>0.9991176947924765</v>
       </c>
       <c r="D8">
-        <v>0.9966353316291208</v>
+        <v>0.9972617752057799</v>
       </c>
       <c r="E8">
-        <v>1.005589384869922</v>
+        <v>0.9986121978214063</v>
       </c>
       <c r="F8">
-        <v>0.9986121978214065</v>
+        <v>0.9986121978214063</v>
       </c>
       <c r="G8">
-        <v>0.9982868807539825</v>
+        <v>0.9982868807539823</v>
       </c>
       <c r="H8">
         <v>1.002660429363951</v>
       </c>
       <c r="I8">
-        <v>0.9986121978214065</v>
+        <v>1.005589384869923</v>
       </c>
       <c r="J8">
-        <v>0.9966353316291208</v>
+        <v>0.9966353316291197</v>
       </c>
       <c r="K8">
+        <v>0.9986121978214063</v>
+      </c>
+      <c r="L8">
+        <v>0.9966353316291197</v>
+      </c>
+      <c r="M8">
         <v>1.000330135556602</v>
       </c>
-      <c r="L8">
-        <v>0.9991176947924764</v>
-      </c>
-      <c r="M8">
-        <v>0.9972617752057797</v>
-      </c>
       <c r="N8">
-        <v>0.9986121978214065</v>
+        <v>0.9986121978214063</v>
       </c>
       <c r="O8">
-        <v>1.005589384869922</v>
+        <v>1.005589384869923</v>
       </c>
       <c r="P8">
-        <v>1.001112358249522</v>
+        <v>1.001112358249521</v>
       </c>
       <c r="Q8">
-        <v>1.001938132811952</v>
+        <v>1.001938132811953</v>
       </c>
       <c r="R8">
         <v>1.00027897144015</v>
@@ -1110,16 +1062,16 @@
         <v>1.00027897144015</v>
       </c>
       <c r="U8">
-        <v>0.999780948768608</v>
+        <v>0.9997809487686078</v>
       </c>
       <c r="V8">
-        <v>0.9995471985791677</v>
+        <v>0.9995471985791674</v>
       </c>
       <c r="W8">
         <v>0.999811728749155</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1127,16 +1079,16 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9982572635879725</v>
+        <v>0.9994912862884442</v>
       </c>
       <c r="D9">
-        <v>0.9951639654324528</v>
+        <v>0.9964165383512523</v>
       </c>
       <c r="E9">
-        <v>1.006751626341229</v>
+        <v>0.9982572635879723</v>
       </c>
       <c r="F9">
-        <v>0.9982572635879725</v>
+        <v>0.9982572635879723</v>
       </c>
       <c r="G9">
         <v>0.9982741490395067</v>
@@ -1145,22 +1097,22 @@
         <v>1.003282713502156</v>
       </c>
       <c r="I9">
-        <v>0.9982572635879725</v>
+        <v>1.006751626341229</v>
       </c>
       <c r="J9">
-        <v>0.9951639654324528</v>
+        <v>0.995163965432453</v>
       </c>
       <c r="K9">
+        <v>0.9982572635879723</v>
+      </c>
+      <c r="L9">
+        <v>0.995163965432453</v>
+      </c>
+      <c r="M9">
         <v>1.000098393470194</v>
       </c>
-      <c r="L9">
-        <v>0.999491286288444</v>
-      </c>
-      <c r="M9">
-        <v>0.9964165383512523</v>
-      </c>
       <c r="N9">
-        <v>0.9982572635879725</v>
+        <v>0.9982572635879723</v>
       </c>
       <c r="O9">
         <v>1.006751626341229</v>
@@ -1184,13 +1136,13 @@
         <v>0.9996117511002903</v>
       </c>
       <c r="V9">
-        <v>0.9993408535978269</v>
+        <v>0.9993408535978267</v>
       </c>
       <c r="W9">
         <v>0.9997169920016509</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1198,37 +1150,37 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>0.9982637661936909</v>
+      </c>
+      <c r="D10">
+        <v>0.9921153458270253</v>
+      </c>
+      <c r="E10">
         <v>0.9960206291820484</v>
-      </c>
-      <c r="D10">
-        <v>0.9896957661279998</v>
-      </c>
-      <c r="E10">
-        <v>1.015795417883973</v>
       </c>
       <c r="F10">
         <v>0.9960206291820484</v>
       </c>
       <c r="G10">
-        <v>0.9957385993562856</v>
+        <v>0.9957385993562855</v>
       </c>
       <c r="H10">
         <v>1.00748624948551</v>
       </c>
       <c r="I10">
+        <v>1.015795417883973</v>
+      </c>
+      <c r="J10">
+        <v>0.9896957661279996</v>
+      </c>
+      <c r="K10">
         <v>0.9960206291820484</v>
       </c>
-      <c r="J10">
-        <v>0.9896957661279998</v>
-      </c>
-      <c r="K10">
-        <v>1.000437595087534</v>
-      </c>
       <c r="L10">
-        <v>0.9982637661936912</v>
+        <v>0.9896957661279996</v>
       </c>
       <c r="M10">
-        <v>0.9921153458270253</v>
+        <v>1.000437595087533</v>
       </c>
       <c r="N10">
         <v>0.9960206291820484</v>
@@ -1252,16 +1204,16 @@
         <v>1.00050393773134</v>
       </c>
       <c r="U10">
-        <v>0.9993126031375766</v>
+        <v>0.9993126031375765</v>
       </c>
       <c r="V10">
         <v>0.9986542083464709</v>
       </c>
       <c r="W10">
-        <v>0.9994441711430084</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33">
+        <v>0.9994441711430082</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1269,13 +1221,13 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>0.9985596438922864</v>
+      </c>
+      <c r="D11">
+        <v>0.9871307092222511</v>
+      </c>
+      <c r="E11">
         <v>0.994714247401444</v>
-      </c>
-      <c r="D11">
-        <v>0.9828778802514809</v>
-      </c>
-      <c r="E11">
-        <v>1.022844243876272</v>
       </c>
       <c r="F11">
         <v>0.994714247401444</v>
@@ -1287,19 +1239,19 @@
         <v>1.011435627854949</v>
       </c>
       <c r="I11">
-        <v>0.994714247401444</v>
+        <v>1.022844243876272</v>
       </c>
       <c r="J11">
         <v>0.9828778802514809</v>
       </c>
       <c r="K11">
+        <v>0.994714247401444</v>
+      </c>
+      <c r="L11">
+        <v>0.9828778802514809</v>
+      </c>
+      <c r="M11">
         <v>1.000287697082143</v>
-      </c>
-      <c r="L11">
-        <v>0.9985596438922864</v>
-      </c>
-      <c r="M11">
-        <v>0.9871307092222511</v>
       </c>
       <c r="N11">
         <v>0.994714247401444</v>
@@ -1332,7 +1284,7 @@
         <v>0.9989398181650931</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1340,49 +1292,49 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.570472381390284</v>
+        <v>1.066535999356658</v>
       </c>
       <c r="D12">
-        <v>1.712027806894615</v>
+        <v>1.281828405173791</v>
       </c>
       <c r="E12">
-        <v>0.434572478115562</v>
+        <v>1.570472381390285</v>
       </c>
       <c r="F12">
-        <v>1.570472381390284</v>
+        <v>1.570472381390285</v>
       </c>
       <c r="G12">
         <v>0.9972596984654541</v>
       </c>
       <c r="H12">
-        <v>0.7820284194240963</v>
+        <v>0.7820284194240961</v>
       </c>
       <c r="I12">
-        <v>1.570472381390284</v>
+        <v>0.4345724781155619</v>
       </c>
       <c r="J12">
         <v>1.712027806894615</v>
       </c>
       <c r="K12">
-        <v>0.7748624597106963</v>
+        <v>1.570472381390285</v>
       </c>
       <c r="L12">
-        <v>1.066535999356658</v>
+        <v>1.712027806894615</v>
       </c>
       <c r="M12">
-        <v>1.281828405173791</v>
+        <v>0.774862459710696</v>
       </c>
       <c r="N12">
-        <v>1.570472381390284</v>
+        <v>1.570472381390285</v>
       </c>
       <c r="O12">
-        <v>0.434572478115562</v>
+        <v>0.4345724781155619</v>
       </c>
       <c r="P12">
         <v>1.073300142505088</v>
       </c>
       <c r="Q12">
-        <v>0.7159160882905081</v>
+        <v>0.715916088290508</v>
       </c>
       <c r="R12">
         <v>1.239024222133487</v>
@@ -1403,7 +1355,7 @@
         <v>1.077448456066395</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1411,16 +1363,16 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.5878682905610632</v>
+        <v>1.005941962080059</v>
       </c>
       <c r="D13">
-        <v>0.7468720463360872</v>
+        <v>0.9729919748266307</v>
       </c>
       <c r="E13">
-        <v>1.135409884884489</v>
+        <v>0.5878682905610633</v>
       </c>
       <c r="F13">
-        <v>0.5878682905610632</v>
+        <v>0.5878682905610633</v>
       </c>
       <c r="G13">
         <v>1.111690867589363</v>
@@ -1429,52 +1381,52 @@
         <v>1.013773015973161</v>
       </c>
       <c r="I13">
-        <v>0.5878682905610632</v>
+        <v>1.135409884884489</v>
       </c>
       <c r="J13">
         <v>0.7468720463360872</v>
       </c>
       <c r="K13">
+        <v>0.5878682905610633</v>
+      </c>
+      <c r="L13">
+        <v>0.7468720463360872</v>
+      </c>
+      <c r="M13">
         <v>1.121567671481623</v>
       </c>
-      <c r="L13">
-        <v>1.005941962080059</v>
-      </c>
-      <c r="M13">
-        <v>0.9729919748266308</v>
-      </c>
       <c r="N13">
-        <v>0.5878682905610632</v>
+        <v>0.5878682905610633</v>
       </c>
       <c r="O13">
         <v>1.135409884884489</v>
       </c>
       <c r="P13">
-        <v>0.9411409656102879</v>
+        <v>0.941140965610288</v>
       </c>
       <c r="Q13">
         <v>1.123550376236926</v>
       </c>
       <c r="R13">
-        <v>0.8233834072605464</v>
+        <v>0.8233834072605465</v>
       </c>
       <c r="S13">
         <v>0.9979909329366462</v>
       </c>
       <c r="T13">
-        <v>0.8233834072605463</v>
+        <v>0.8233834072605465</v>
       </c>
       <c r="U13">
-        <v>0.8954602723427503</v>
+        <v>0.8954602723427505</v>
       </c>
       <c r="V13">
-        <v>0.8339418759864129</v>
+        <v>0.8339418759864131</v>
       </c>
       <c r="W13">
         <v>0.9620144642165596</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1482,61 +1434,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.5180737303226072</v>
+        <v>0.9666321048364052</v>
       </c>
       <c r="D14">
-        <v>1.414592299260681</v>
+        <v>1.424708597885408</v>
       </c>
       <c r="E14">
-        <v>0.6412291295253981</v>
+        <v>0.5180737303226071</v>
       </c>
       <c r="F14">
-        <v>0.5180737303226072</v>
+        <v>0.5180737303226071</v>
       </c>
       <c r="G14">
-        <v>1.283954946091435</v>
+        <v>1.283954946091436</v>
       </c>
       <c r="H14">
         <v>0.6607143973049976</v>
       </c>
       <c r="I14">
-        <v>0.5180737303226072</v>
+        <v>0.641229129525398</v>
       </c>
       <c r="J14">
         <v>1.414592299260681</v>
       </c>
       <c r="K14">
+        <v>0.5180737303226071</v>
+      </c>
+      <c r="L14">
+        <v>1.414592299260681</v>
+      </c>
+      <c r="M14">
         <v>1.170067800750828</v>
       </c>
-      <c r="L14">
-        <v>0.9666321048364052</v>
-      </c>
-      <c r="M14">
-        <v>1.424708597885408</v>
-      </c>
       <c r="N14">
-        <v>0.5180737303226072</v>
+        <v>0.5180737303226071</v>
       </c>
       <c r="O14">
-        <v>0.6412291295253981</v>
+        <v>0.641229129525398</v>
       </c>
       <c r="P14">
         <v>1.02791071439304</v>
       </c>
       <c r="Q14">
-        <v>0.9625920378084167</v>
+        <v>0.962592037808417</v>
       </c>
       <c r="R14">
         <v>0.8579650530362288</v>
       </c>
       <c r="S14">
-        <v>1.113258791625838</v>
+        <v>1.113258791625839</v>
       </c>
       <c r="T14">
         <v>0.8579650530362288</v>
       </c>
       <c r="U14">
-        <v>0.9644625263000305</v>
+        <v>0.9644625263000306</v>
       </c>
       <c r="V14">
         <v>0.8751847671045458</v>
@@ -1545,7 +1497,7 @@
         <v>1.00999662574722</v>
       </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1553,37 +1505,37 @@
         <v>13</v>
       </c>
       <c r="C15">
+        <v>0.8046703395088916</v>
+      </c>
+      <c r="D15">
+        <v>1.10612888525521</v>
+      </c>
+      <c r="E15">
         <v>0.988250631918999</v>
-      </c>
-      <c r="D15">
-        <v>1.4684885838724</v>
-      </c>
-      <c r="E15">
-        <v>1.160614125541454</v>
       </c>
       <c r="F15">
         <v>0.988250631918999</v>
       </c>
       <c r="G15">
-        <v>0.8493945629815767</v>
+        <v>0.8493945629815766</v>
       </c>
       <c r="H15">
         <v>1.045033107348854</v>
       </c>
       <c r="I15">
-        <v>0.988250631918999</v>
+        <v>1.160614125541454</v>
       </c>
       <c r="J15">
         <v>1.4684885838724</v>
       </c>
       <c r="K15">
+        <v>0.988250631918999</v>
+      </c>
+      <c r="L15">
+        <v>1.4684885838724</v>
+      </c>
+      <c r="M15">
         <v>0.9866067471742133</v>
-      </c>
-      <c r="L15">
-        <v>0.8046703395088916</v>
-      </c>
-      <c r="M15">
-        <v>1.10612888525521</v>
       </c>
       <c r="N15">
         <v>0.988250631918999</v>
@@ -1616,7 +1568,7 @@
         <v>1.0511483729502</v>
       </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1624,67 +1576,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.002568196549281</v>
+        <v>1.095395853468927</v>
       </c>
       <c r="D16">
-        <v>1.002569372817762</v>
+        <v>0.9267185849760597</v>
       </c>
       <c r="E16">
-        <v>0.9999549673962461</v>
+        <v>1.607380769529047</v>
       </c>
       <c r="F16">
-        <v>1.002568196549281</v>
+        <v>1.607380769529047</v>
       </c>
       <c r="G16">
-        <v>0.9986582262901917</v>
+        <v>0.886268531564064</v>
       </c>
       <c r="H16">
-        <v>1.000081394997881</v>
+        <v>1.047515841555828</v>
       </c>
       <c r="I16">
-        <v>1.002568196549281</v>
+        <v>0.8803973812733048</v>
       </c>
       <c r="J16">
-        <v>1.002569372817762</v>
+        <v>1.132046531309966</v>
       </c>
       <c r="K16">
-        <v>0.9995401597421818</v>
+        <v>1.607380769529047</v>
       </c>
       <c r="L16">
-        <v>0.9992547141338782</v>
+        <v>1.132046531309966</v>
       </c>
       <c r="M16">
-        <v>1.000132505570221</v>
+        <v>0.7505425659479638</v>
       </c>
       <c r="N16">
-        <v>1.002568196549281</v>
+        <v>1.607380769529047</v>
       </c>
       <c r="O16">
-        <v>0.9999549673962461</v>
+        <v>0.8803973812733048</v>
       </c>
       <c r="P16">
-        <v>1.001262170107004</v>
+        <v>1.006221956291635</v>
       </c>
       <c r="Q16">
-        <v>0.9993065968432189</v>
+        <v>0.8833329564186845</v>
       </c>
       <c r="R16">
-        <v>1.001697512254429</v>
+        <v>1.206608227370772</v>
       </c>
       <c r="S16">
-        <v>1.000394188834733</v>
+        <v>0.9662374813824449</v>
       </c>
       <c r="T16">
-        <v>1.001697512254429</v>
+        <v>1.206608227370772</v>
       </c>
       <c r="U16">
-        <v>1.00093769076337</v>
+        <v>1.126523303419095</v>
       </c>
       <c r="V16">
-        <v>1.001263791920552</v>
+        <v>1.222694796641086</v>
       </c>
       <c r="W16">
-        <v>1.000344942187205</v>
+        <v>1.040783257453145</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1695,67 +1647,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.994227840479083</v>
+        <v>1.04939499379682</v>
       </c>
       <c r="D17">
-        <v>0.9950098964396709</v>
+        <v>0.9139651357303178</v>
       </c>
       <c r="E17">
-        <v>1.004865952439825</v>
+        <v>1.384002564150074</v>
       </c>
       <c r="F17">
-        <v>0.994227840479083</v>
+        <v>1.384002564150074</v>
       </c>
       <c r="G17">
-        <v>1.000481183881084</v>
+        <v>0.9009733523180713</v>
       </c>
       <c r="H17">
-        <v>1.001945830769981</v>
+        <v>1.068432715859124</v>
       </c>
       <c r="I17">
-        <v>0.994227840479083</v>
+        <v>0.9969722428616853</v>
       </c>
       <c r="J17">
-        <v>0.9950098964396709</v>
+        <v>1.038642178246333</v>
       </c>
       <c r="K17">
-        <v>1.000998830602612</v>
+        <v>1.384002564150074</v>
       </c>
       <c r="L17">
-        <v>0.9998519917486244</v>
+        <v>1.038642178246333</v>
       </c>
       <c r="M17">
-        <v>0.998358653397906</v>
+        <v>0.8406626486211798</v>
       </c>
       <c r="N17">
-        <v>0.994227840479083</v>
+        <v>1.384002564150074</v>
       </c>
       <c r="O17">
-        <v>1.004865952439825</v>
+        <v>0.9969722428616853</v>
       </c>
       <c r="P17">
-        <v>0.9999379244397482</v>
+        <v>1.017807210554009</v>
       </c>
       <c r="Q17">
-        <v>1.002673568160455</v>
+        <v>0.9489727975898783</v>
       </c>
       <c r="R17">
-        <v>0.9980345631195263</v>
+        <v>1.139872328419364</v>
       </c>
       <c r="S17">
-        <v>1.000119010920194</v>
+        <v>0.9788625911420298</v>
       </c>
       <c r="T17">
-        <v>0.9980345631195263</v>
+        <v>1.139872328419364</v>
       </c>
       <c r="U17">
-        <v>0.9986462183099158</v>
+        <v>1.080147584394041</v>
       </c>
       <c r="V17">
-        <v>0.9977625427437493</v>
+        <v>1.140918580345248</v>
       </c>
       <c r="W17">
-        <v>0.9994675224698483</v>
+        <v>1.024130728947951</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1766,67 +1718,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.021388714643141</v>
+        <v>0.9589234373903868</v>
       </c>
       <c r="D18">
-        <v>1.011349260273075</v>
+        <v>0.8893641333513446</v>
       </c>
       <c r="E18">
-        <v>0.9932278240663961</v>
+        <v>0.9401392737998856</v>
       </c>
       <c r="F18">
-        <v>1.021388714643141</v>
+        <v>0.9401392737998856</v>
       </c>
       <c r="G18">
-        <v>0.9952341454814503</v>
+        <v>0.9313067237159558</v>
       </c>
       <c r="H18">
-        <v>0.998775332533642</v>
+        <v>1.10883482857339</v>
       </c>
       <c r="I18">
-        <v>1.021388714643141</v>
+        <v>1.225893733087902</v>
       </c>
       <c r="J18">
-        <v>1.011349260273075</v>
+        <v>0.853185443528036</v>
       </c>
       <c r="K18">
-        <v>0.9939094335057166</v>
+        <v>0.9401392737998856</v>
       </c>
       <c r="L18">
-        <v>1.001003044900531</v>
+        <v>0.853185443528036</v>
       </c>
       <c r="M18">
-        <v>0.999960224929614</v>
+        <v>1.019775381564142</v>
       </c>
       <c r="N18">
-        <v>1.021388714643141</v>
+        <v>0.9401392737998856</v>
       </c>
       <c r="O18">
-        <v>0.9932278240663961</v>
+        <v>1.225893733087902</v>
       </c>
       <c r="P18">
-        <v>1.002288542169735</v>
+        <v>1.039539588307969</v>
       </c>
       <c r="Q18">
-        <v>0.9942309847739232</v>
+        <v>1.078600228401929</v>
       </c>
       <c r="R18">
-        <v>1.008655266327537</v>
+        <v>1.006406150138608</v>
       </c>
       <c r="S18">
-        <v>0.9999370766069737</v>
+        <v>1.003461966777298</v>
       </c>
       <c r="T18">
-        <v>1.008655266327537</v>
+        <v>1.006406150138608</v>
       </c>
       <c r="U18">
-        <v>1.005299986116015</v>
+        <v>0.9876312935329449</v>
       </c>
       <c r="V18">
-        <v>1.008517731821441</v>
+        <v>0.978132889586333</v>
       </c>
       <c r="W18">
-        <v>1.001855997541696</v>
+        <v>0.9909278693763803</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1837,66 +1789,350 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.9183528702525887</v>
+      </c>
+      <c r="D19">
+        <v>0.8653232325986508</v>
+      </c>
+      <c r="E19">
+        <v>0.8979799362199007</v>
+      </c>
+      <c r="F19">
+        <v>0.8979799362199007</v>
+      </c>
+      <c r="G19">
+        <v>0.8905407949374713</v>
+      </c>
+      <c r="H19">
+        <v>1.153290655466831</v>
+      </c>
+      <c r="I19">
+        <v>1.334800385754743</v>
+      </c>
+      <c r="J19">
+        <v>0.8575054371784405</v>
+      </c>
+      <c r="K19">
+        <v>0.8979799362199007</v>
+      </c>
+      <c r="L19">
+        <v>0.8575054371784405</v>
+      </c>
+      <c r="M19">
+        <v>1.029486154084811</v>
+      </c>
+      <c r="N19">
+        <v>0.8979799362199007</v>
+      </c>
+      <c r="O19">
+        <v>1.334800385754743</v>
+      </c>
+      <c r="P19">
+        <v>1.096152911466592</v>
+      </c>
+      <c r="Q19">
+        <v>1.112670590346107</v>
+      </c>
+      <c r="R19">
+        <v>1.030095253051028</v>
+      </c>
+      <c r="S19">
+        <v>1.027615539290218</v>
+      </c>
+      <c r="T19">
+        <v>1.030095253051028</v>
+      </c>
+      <c r="U19">
+        <v>0.9952066385226388</v>
+      </c>
+      <c r="V19">
+        <v>0.9757612980620912</v>
+      </c>
+      <c r="W19">
+        <v>0.9934099333116797</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9992547141338782</v>
+      </c>
+      <c r="D20">
+        <v>1.000132505570221</v>
+      </c>
+      <c r="E20">
+        <v>1.002568196549281</v>
+      </c>
+      <c r="F20">
+        <v>1.002568196549281</v>
+      </c>
+      <c r="G20">
+        <v>0.9986582262901917</v>
+      </c>
+      <c r="H20">
+        <v>1.000081394997881</v>
+      </c>
+      <c r="I20">
+        <v>0.9999549673962463</v>
+      </c>
+      <c r="J20">
+        <v>1.002569372817762</v>
+      </c>
+      <c r="K20">
+        <v>1.002568196549281</v>
+      </c>
+      <c r="L20">
+        <v>1.002569372817762</v>
+      </c>
+      <c r="M20">
+        <v>0.9995401597421819</v>
+      </c>
+      <c r="N20">
+        <v>1.002568196549281</v>
+      </c>
+      <c r="O20">
+        <v>0.9999549673962463</v>
+      </c>
+      <c r="P20">
+        <v>1.001262170107004</v>
+      </c>
+      <c r="Q20">
+        <v>0.9993065968432191</v>
+      </c>
+      <c r="R20">
+        <v>1.00169751225443</v>
+      </c>
+      <c r="S20">
+        <v>1.000394188834733</v>
+      </c>
+      <c r="T20">
+        <v>1.00169751225443</v>
+      </c>
+      <c r="U20">
+        <v>1.00093769076337</v>
+      </c>
+      <c r="V20">
+        <v>1.001263791920552</v>
+      </c>
+      <c r="W20">
+        <v>1.000344942187205</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9998519917486244</v>
+      </c>
+      <c r="D21">
+        <v>0.998358653397906</v>
+      </c>
+      <c r="E21">
+        <v>0.9942278404790827</v>
+      </c>
+      <c r="F21">
+        <v>0.9942278404790827</v>
+      </c>
+      <c r="G21">
+        <v>1.000481183881084</v>
+      </c>
+      <c r="H21">
+        <v>1.001945830769981</v>
+      </c>
+      <c r="I21">
+        <v>1.004865952439826</v>
+      </c>
+      <c r="J21">
+        <v>0.9950098964396714</v>
+      </c>
+      <c r="K21">
+        <v>0.9942278404790827</v>
+      </c>
+      <c r="L21">
+        <v>0.9950098964396714</v>
+      </c>
+      <c r="M21">
+        <v>1.000998830602612</v>
+      </c>
+      <c r="N21">
+        <v>0.9942278404790827</v>
+      </c>
+      <c r="O21">
+        <v>1.004865952439826</v>
+      </c>
+      <c r="P21">
+        <v>0.9999379244397486</v>
+      </c>
+      <c r="Q21">
+        <v>1.002673568160455</v>
+      </c>
+      <c r="R21">
+        <v>0.9980345631195267</v>
+      </c>
+      <c r="S21">
+        <v>1.000119010920194</v>
+      </c>
+      <c r="T21">
+        <v>0.9980345631195267</v>
+      </c>
+      <c r="U21">
+        <v>0.9986462183099161</v>
+      </c>
+      <c r="V21">
+        <v>0.9977625427437495</v>
+      </c>
+      <c r="W21">
+        <v>0.9994675224698484</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.001003044900531</v>
+      </c>
+      <c r="D22">
+        <v>0.9999602249296138</v>
+      </c>
+      <c r="E22">
+        <v>1.021388714643142</v>
+      </c>
+      <c r="F22">
+        <v>1.021388714643142</v>
+      </c>
+      <c r="G22">
+        <v>0.9952341454814504</v>
+      </c>
+      <c r="H22">
+        <v>0.9987753325336417</v>
+      </c>
+      <c r="I22">
+        <v>0.9932278240663959</v>
+      </c>
+      <c r="J22">
+        <v>1.011349260273075</v>
+      </c>
+      <c r="K22">
+        <v>1.021388714643142</v>
+      </c>
+      <c r="L22">
+        <v>1.011349260273075</v>
+      </c>
+      <c r="M22">
+        <v>0.9939094335057164</v>
+      </c>
+      <c r="N22">
+        <v>1.021388714643142</v>
+      </c>
+      <c r="O22">
+        <v>0.9932278240663959</v>
+      </c>
+      <c r="P22">
+        <v>1.002288542169735</v>
+      </c>
+      <c r="Q22">
+        <v>0.9942309847739231</v>
+      </c>
+      <c r="R22">
+        <v>1.008655266327537</v>
+      </c>
+      <c r="S22">
+        <v>0.9999370766069737</v>
+      </c>
+      <c r="T22">
+        <v>1.008655266327538</v>
+      </c>
+      <c r="U22">
+        <v>1.005299986116016</v>
+      </c>
+      <c r="V22">
+        <v>1.008517731821441</v>
+      </c>
+      <c r="W22">
+        <v>1.001855997541696</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.000944606784274</v>
+      </c>
+      <c r="D23">
+        <v>1.004683622371274</v>
+      </c>
+      <c r="E23">
         <v>1.07842615036152</v>
       </c>
-      <c r="D19">
+      <c r="F23">
+        <v>1.07842615036152</v>
+      </c>
+      <c r="G23">
+        <v>0.9823431695876897</v>
+      </c>
+      <c r="H23">
+        <v>0.9948352657538432</v>
+      </c>
+      <c r="I23">
+        <v>0.969647771447771</v>
+      </c>
+      <c r="J23">
         <v>1.04871228485737</v>
       </c>
-      <c r="E19">
+      <c r="K23">
+        <v>1.07842615036152</v>
+      </c>
+      <c r="L23">
+        <v>1.04871228485737</v>
+      </c>
+      <c r="M23">
+        <v>0.9774084313688234</v>
+      </c>
+      <c r="N23">
+        <v>1.07842615036152</v>
+      </c>
+      <c r="O23">
         <v>0.969647771447771</v>
       </c>
-      <c r="F19">
-        <v>1.07842615036152</v>
-      </c>
-      <c r="G19">
-        <v>0.9823431695876897</v>
-      </c>
-      <c r="H19">
-        <v>0.9948352657538432</v>
-      </c>
-      <c r="I19">
-        <v>1.07842615036152</v>
-      </c>
-      <c r="J19">
-        <v>1.04871228485737</v>
-      </c>
-      <c r="K19">
-        <v>0.9774084313688234</v>
-      </c>
-      <c r="L19">
-        <v>1.000944606784274</v>
-      </c>
-      <c r="M19">
-        <v>1.004683622371274</v>
-      </c>
-      <c r="N19">
-        <v>1.07842615036152</v>
-      </c>
-      <c r="O19">
-        <v>0.969647771447771</v>
-      </c>
-      <c r="P19">
+      <c r="P23">
         <v>1.009180028152571</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>0.9759954705177304</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>1.032262068888887</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>1.000234408630944</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.032262068888887</v>
       </c>
-      <c r="U19">
+      <c r="U23">
         <v>1.019782344063588</v>
       </c>
-      <c r="V19">
+      <c r="V23">
         <v>1.031511105323174</v>
       </c>
-      <c r="W19">
+      <c r="W23">
         <v>1.007125162816571</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/BrassA-HW15.xlsx
+++ b/JupyterNotebooks/AvgHW/BrassA-HW15.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[4, 2, 2]</t>
@@ -500,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,67 +639,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="V2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="W2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -653,67 +710,67 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.005076639192307</v>
+        <v>0.9496240810951007</v>
       </c>
       <c r="D3">
-        <v>0.9969267494003855</v>
+        <v>0.8645862032824198</v>
       </c>
       <c r="E3">
-        <v>1.034184780817442</v>
+        <v>0.9385587097305502</v>
       </c>
       <c r="F3">
-        <v>1.034184780817442</v>
+        <v>0.9385587097305502</v>
       </c>
       <c r="G3">
-        <v>0.9937824735296786</v>
+        <v>0.9117540568443765</v>
       </c>
       <c r="H3">
-        <v>1.002189213657766</v>
+        <v>1.135859038919303</v>
       </c>
       <c r="I3">
-        <v>0.9930400826136377</v>
+        <v>1.281581986397696</v>
       </c>
       <c r="J3">
-        <v>1.009782547159598</v>
+        <v>0.8304988063151272</v>
       </c>
       <c r="K3">
-        <v>1.034184780817442</v>
+        <v>0.9385587097305502</v>
       </c>
       <c r="L3">
-        <v>1.009782547159598</v>
+        <v>0.8304988063151272</v>
       </c>
       <c r="M3">
-        <v>0.9856143457672772</v>
+        <v>1.016373610005765</v>
       </c>
       <c r="N3">
-        <v>1.034184780817442</v>
+        <v>0.9385587097305502</v>
       </c>
       <c r="O3">
-        <v>0.9930400826136377</v>
+        <v>1.281581986397696</v>
       </c>
       <c r="P3">
-        <v>1.001411314886618</v>
+        <v>1.056040396356412</v>
       </c>
       <c r="Q3">
-        <v>0.9934112780716582</v>
+        <v>1.096668021621036</v>
       </c>
       <c r="R3">
-        <v>1.012335803530226</v>
+        <v>1.016879834147791</v>
       </c>
       <c r="S3">
-        <v>0.9988683677676381</v>
+        <v>1.0079449498524</v>
       </c>
       <c r="T3">
-        <v>1.012335803530226</v>
+        <v>1.016879834147791</v>
       </c>
       <c r="U3">
-        <v>1.007697471030089</v>
+        <v>0.9905983898219376</v>
       </c>
       <c r="V3">
-        <v>1.01299493298756</v>
+        <v>0.9801904538036601</v>
       </c>
       <c r="W3">
-        <v>1.002574604017262</v>
+        <v>0.9911045615737925</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -724,67 +781,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.010230300882503</v>
+        <v>0.9534761811666105</v>
       </c>
       <c r="D4">
-        <v>0.9937739662542305</v>
+        <v>0.877460256580142</v>
       </c>
       <c r="E4">
-        <v>1.064648805751204</v>
+        <v>0.9372340730290664</v>
       </c>
       <c r="F4">
-        <v>1.064648805751204</v>
+        <v>0.9372340730290664</v>
       </c>
       <c r="G4">
-        <v>0.988737153568139</v>
+        <v>0.9216872769399894</v>
       </c>
       <c r="H4">
-        <v>1.003798082228807</v>
+        <v>1.122213458723444</v>
       </c>
       <c r="I4">
-        <v>0.9858652682460139</v>
+        <v>1.254259871366933</v>
       </c>
       <c r="J4">
-        <v>1.016575168863032</v>
+        <v>0.8419471906185216</v>
       </c>
       <c r="K4">
-        <v>1.064648805751204</v>
+        <v>0.9372340730290664</v>
       </c>
       <c r="L4">
-        <v>1.016575168863032</v>
+        <v>0.8419471906185216</v>
       </c>
       <c r="M4">
-        <v>0.9732293911935003</v>
+        <v>1.019108946166416</v>
       </c>
       <c r="N4">
-        <v>1.064648805751204</v>
+        <v>0.9372340730290664</v>
       </c>
       <c r="O4">
-        <v>0.9858652682460139</v>
+        <v>1.254259871366933</v>
       </c>
       <c r="P4">
-        <v>1.001220218554523</v>
+        <v>1.048103530992727</v>
       </c>
       <c r="Q4">
-        <v>0.9873012109070765</v>
+        <v>1.087973574153461</v>
       </c>
       <c r="R4">
-        <v>1.022363080953417</v>
+        <v>1.01114704500484</v>
       </c>
       <c r="S4">
-        <v>0.997059196892395</v>
+        <v>1.005964779641815</v>
       </c>
       <c r="T4">
-        <v>1.022363080953417</v>
+        <v>1.01114704500484</v>
       </c>
       <c r="U4">
-        <v>1.013956599107097</v>
+        <v>0.9887821029886277</v>
       </c>
       <c r="V4">
-        <v>1.024095040435919</v>
+        <v>0.9784724969967155</v>
       </c>
       <c r="W4">
-        <v>1.004607267123429</v>
+        <v>0.9909234068238904</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -795,67 +852,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.017829260983971</v>
+        <v>0.9423024374123995</v>
       </c>
       <c r="D5">
-        <v>0.9878219964337852</v>
+        <v>0.8400673220323447</v>
       </c>
       <c r="E5">
-        <v>1.123475943952965</v>
+        <v>0.9401902785390832</v>
       </c>
       <c r="F5">
-        <v>1.123475943952965</v>
+        <v>0.9401902785390832</v>
       </c>
       <c r="G5">
-        <v>0.9771458970412681</v>
+        <v>0.8930825742048532</v>
       </c>
       <c r="H5">
-        <v>1.008645229380277</v>
+        <v>1.16176479277628</v>
       </c>
       <c r="I5">
-        <v>0.9774775849464683</v>
+        <v>1.333821292964956</v>
       </c>
       <c r="J5">
-        <v>1.033446632919825</v>
+        <v>0.8082290315622639</v>
       </c>
       <c r="K5">
-        <v>1.123475943952965</v>
+        <v>0.9401902785390832</v>
       </c>
       <c r="L5">
-        <v>1.033446632919825</v>
+        <v>0.8082290315622639</v>
       </c>
       <c r="M5">
-        <v>0.9484618857258231</v>
+        <v>1.011501727946091</v>
       </c>
       <c r="N5">
-        <v>1.123475943952965</v>
+        <v>0.9401902785390832</v>
       </c>
       <c r="O5">
-        <v>0.9774775849464683</v>
+        <v>1.333821292964956</v>
       </c>
       <c r="P5">
-        <v>1.005462108933147</v>
+        <v>1.07102516226361</v>
       </c>
       <c r="Q5">
-        <v>0.9773117409938682</v>
+        <v>1.113451933584904</v>
       </c>
       <c r="R5">
-        <v>1.044800053939753</v>
+        <v>1.027413534355434</v>
       </c>
       <c r="S5">
-        <v>0.9960233716358537</v>
+        <v>1.011710966244024</v>
       </c>
       <c r="T5">
-        <v>1.044800053939753</v>
+        <v>1.027413534355434</v>
       </c>
       <c r="U5">
-        <v>1.027886514715132</v>
+        <v>0.993830794317789</v>
       </c>
       <c r="V5">
-        <v>1.047004400562698</v>
+        <v>0.9831026911620478</v>
       </c>
       <c r="W5">
-        <v>1.009288053923048</v>
+        <v>0.9913699321797839</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -866,67 +923,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.025956378605659</v>
+        <v>0.9354590029545451</v>
       </c>
       <c r="D6">
-        <v>0.9837915024782443</v>
+        <v>0.8170912878068181</v>
       </c>
       <c r="E6">
-        <v>1.185230857356069</v>
+        <v>0.9406623477840909</v>
       </c>
       <c r="F6">
-        <v>1.185230857356069</v>
+        <v>0.9406623477840909</v>
       </c>
       <c r="G6">
-        <v>0.9714257137736538</v>
+        <v>0.875878323125</v>
       </c>
       <c r="H6">
-        <v>1.012551251230057</v>
+        <v>1.185942580227274</v>
       </c>
       <c r="I6">
-        <v>0.9753329499587547</v>
+        <v>1.383015148693182</v>
       </c>
       <c r="J6">
-        <v>1.052271550796229</v>
+        <v>0.7868078541454547</v>
       </c>
       <c r="K6">
-        <v>1.185230857356069</v>
+        <v>0.9406623477840909</v>
       </c>
       <c r="L6">
-        <v>1.052271550796229</v>
+        <v>0.7868078541454547</v>
       </c>
       <c r="M6">
-        <v>0.9194209674196385</v>
+        <v>1.007336773795453</v>
       </c>
       <c r="N6">
-        <v>1.185230857356069</v>
+        <v>0.9406623477840909</v>
       </c>
       <c r="O6">
-        <v>0.9753329499587547</v>
+        <v>1.383015148693182</v>
       </c>
       <c r="P6">
-        <v>1.013802250377492</v>
+        <v>1.084911501419318</v>
       </c>
       <c r="Q6">
-        <v>0.9733793318662043</v>
+        <v>1.129446735909091</v>
       </c>
       <c r="R6">
-        <v>1.070945119370351</v>
+        <v>1.036828450207576</v>
       </c>
       <c r="S6">
-        <v>0.9996767381762125</v>
+        <v>1.015233775321212</v>
       </c>
       <c r="T6">
-        <v>1.070945119370351</v>
+        <v>1.036828450207576</v>
       </c>
       <c r="U6">
-        <v>1.046065267971176</v>
+        <v>0.9965909184369317</v>
       </c>
       <c r="V6">
-        <v>1.073898385848155</v>
+        <v>0.9854052043063636</v>
       </c>
       <c r="W6">
-        <v>1.015747646452288</v>
+        <v>0.9915241648164772</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -937,67 +994,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.999555789855198</v>
+        <v>1.113710383387247</v>
       </c>
       <c r="D7">
-        <v>0.999022137664182</v>
+        <v>0.3547224956248219</v>
       </c>
       <c r="E7">
-        <v>0.9993000401394633</v>
+        <v>0.9006049149738622</v>
       </c>
       <c r="F7">
-        <v>0.9993000401394633</v>
+        <v>0.9006049149738622</v>
       </c>
       <c r="G7">
-        <v>0.9993535721654289</v>
+        <v>0.7865402860997722</v>
       </c>
       <c r="H7">
-        <v>1.001049139524324</v>
+        <v>1.513796190137545</v>
       </c>
       <c r="I7">
-        <v>1.002408384155498</v>
+        <v>1.745232395137048</v>
       </c>
       <c r="J7">
-        <v>0.998788619271201</v>
+        <v>0.08256559783785797</v>
       </c>
       <c r="K7">
-        <v>0.9993000401394633</v>
+        <v>0.9006049149738622</v>
       </c>
       <c r="L7">
-        <v>0.998788619271201</v>
+        <v>0.08256559783785797</v>
       </c>
       <c r="M7">
-        <v>1.000139451642618</v>
+        <v>0.9113951137539371</v>
       </c>
       <c r="N7">
-        <v>0.9993000401394633</v>
+        <v>0.9006049149738622</v>
       </c>
       <c r="O7">
-        <v>1.002408384155498</v>
+        <v>1.745232395137048</v>
       </c>
       <c r="P7">
-        <v>1.000598501713349</v>
+        <v>0.913898996487453</v>
       </c>
       <c r="Q7">
-        <v>1.000880978160463</v>
+        <v>1.26588634061841</v>
       </c>
       <c r="R7">
-        <v>1.000165681188721</v>
+        <v>0.9094676359829227</v>
       </c>
       <c r="S7">
-        <v>1.000183525197376</v>
+        <v>0.8714460930248927</v>
       </c>
       <c r="T7">
-        <v>1.000165681188721</v>
+        <v>0.9094676359829227</v>
       </c>
       <c r="U7">
-        <v>0.9999626539328978</v>
+        <v>0.8787357985121351</v>
       </c>
       <c r="V7">
-        <v>0.9998301311742109</v>
+        <v>0.8831096218044806</v>
       </c>
       <c r="W7">
-        <v>0.9999521418022391</v>
+        <v>0.9260709221190115</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1008,67 +1065,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9991176947924765</v>
+        <v>1.112301569619424</v>
       </c>
       <c r="D8">
-        <v>0.9972617752057799</v>
+        <v>0.3542867342258888</v>
       </c>
       <c r="E8">
-        <v>0.9986121978214063</v>
+        <v>0.8991977359961684</v>
       </c>
       <c r="F8">
-        <v>0.9986121978214063</v>
+        <v>0.8991977359961684</v>
       </c>
       <c r="G8">
-        <v>0.9982868807539823</v>
+        <v>0.7856098455972622</v>
       </c>
       <c r="H8">
-        <v>1.002660429363951</v>
+        <v>1.514736521595773</v>
       </c>
       <c r="I8">
-        <v>1.005589384869923</v>
+        <v>1.749360039300939</v>
       </c>
       <c r="J8">
-        <v>0.9966353316291197</v>
+        <v>0.08244289652139057</v>
       </c>
       <c r="K8">
-        <v>0.9986121978214063</v>
+        <v>0.8991977359961684</v>
       </c>
       <c r="L8">
-        <v>0.9966353316291197</v>
+        <v>0.08244289652139057</v>
       </c>
       <c r="M8">
-        <v>1.000330135556602</v>
+        <v>0.9119668882074533</v>
       </c>
       <c r="N8">
-        <v>0.9986121978214063</v>
+        <v>0.8991977359961684</v>
       </c>
       <c r="O8">
-        <v>1.005589384869923</v>
+        <v>1.749360039300939</v>
       </c>
       <c r="P8">
-        <v>1.001112358249521</v>
+        <v>0.9159014679111647</v>
       </c>
       <c r="Q8">
-        <v>1.001938132811953</v>
+        <v>1.267484942449101</v>
       </c>
       <c r="R8">
-        <v>1.00027897144015</v>
+        <v>0.9103335572728325</v>
       </c>
       <c r="S8">
-        <v>1.000170532417675</v>
+        <v>0.8724709271398638</v>
       </c>
       <c r="T8">
-        <v>1.00027897144015</v>
+        <v>0.9103335572728325</v>
       </c>
       <c r="U8">
-        <v>0.9997809487686078</v>
+        <v>0.87915262935394</v>
       </c>
       <c r="V8">
-        <v>0.9995471985791674</v>
+        <v>0.8831616506823856</v>
       </c>
       <c r="W8">
-        <v>0.999811728749155</v>
+        <v>0.9262377788830374</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1079,67 +1136,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9994912862884442</v>
+        <v>1.109358102599965</v>
       </c>
       <c r="D9">
-        <v>0.9964165383512523</v>
+        <v>0.3533830955920053</v>
       </c>
       <c r="E9">
-        <v>0.9982572635879723</v>
+        <v>0.8962749612250188</v>
       </c>
       <c r="F9">
-        <v>0.9982572635879723</v>
+        <v>0.8962749612250188</v>
       </c>
       <c r="G9">
-        <v>0.9982741490395067</v>
+        <v>0.7836149594904103</v>
       </c>
       <c r="H9">
-        <v>1.003282713502156</v>
+        <v>1.51682764279641</v>
       </c>
       <c r="I9">
-        <v>1.006751626341229</v>
+        <v>1.756716092618839</v>
       </c>
       <c r="J9">
-        <v>0.995163965432453</v>
+        <v>0.08219043539693009</v>
       </c>
       <c r="K9">
-        <v>0.9982572635879723</v>
+        <v>0.8962749612250188</v>
       </c>
       <c r="L9">
-        <v>0.995163965432453</v>
+        <v>0.08219043539693009</v>
       </c>
       <c r="M9">
-        <v>1.000098393470194</v>
+        <v>0.9132295016766243</v>
       </c>
       <c r="N9">
-        <v>0.9982572635879723</v>
+        <v>0.8962749612250188</v>
       </c>
       <c r="O9">
-        <v>1.006751626341229</v>
+        <v>1.756716092618839</v>
       </c>
       <c r="P9">
-        <v>1.000957795886841</v>
+        <v>0.9194532640078847</v>
       </c>
       <c r="Q9">
-        <v>1.002512887690368</v>
+        <v>1.270165526054625</v>
       </c>
       <c r="R9">
-        <v>1.000057618453885</v>
+        <v>0.9117271630802627</v>
       </c>
       <c r="S9">
-        <v>1.00006324693773</v>
+        <v>0.8741738291687265</v>
       </c>
       <c r="T9">
-        <v>1.000057618453885</v>
+        <v>0.9117271630802627</v>
       </c>
       <c r="U9">
-        <v>0.9996117511002903</v>
+        <v>0.8796991121827996</v>
       </c>
       <c r="V9">
-        <v>0.9993408535978267</v>
+        <v>0.8830142819912435</v>
       </c>
       <c r="W9">
-        <v>0.9997169920016509</v>
+        <v>0.9264493489245254</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1150,67 +1207,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9982637661936909</v>
+        <v>1.11048964605361</v>
       </c>
       <c r="D10">
-        <v>0.9921153458270253</v>
+        <v>0.3537075849430785</v>
       </c>
       <c r="E10">
-        <v>0.9960206291820484</v>
+        <v>0.8973406616132403</v>
       </c>
       <c r="F10">
-        <v>0.9960206291820484</v>
+        <v>0.8973406616132403</v>
       </c>
       <c r="G10">
-        <v>0.9957385993562855</v>
+        <v>0.7845526617942585</v>
       </c>
       <c r="H10">
-        <v>1.00748624948551</v>
+        <v>1.51559920035533</v>
       </c>
       <c r="I10">
-        <v>1.015795417883973</v>
+        <v>1.758144864638961</v>
       </c>
       <c r="J10">
-        <v>0.9896957661279996</v>
+        <v>0.08227437167009892</v>
       </c>
       <c r="K10">
-        <v>0.9960206291820484</v>
+        <v>0.8973406616132403</v>
       </c>
       <c r="L10">
-        <v>0.9896957661279996</v>
+        <v>0.08227437167009892</v>
       </c>
       <c r="M10">
-        <v>1.000437595087533</v>
+        <v>0.9125158635201129</v>
       </c>
       <c r="N10">
-        <v>0.9960206291820484</v>
+        <v>0.8973406616132403</v>
       </c>
       <c r="O10">
-        <v>1.015795417883973</v>
+        <v>1.758144864638961</v>
       </c>
       <c r="P10">
-        <v>1.002745592005986</v>
+        <v>0.9202096181545302</v>
       </c>
       <c r="Q10">
-        <v>1.005767008620129</v>
+        <v>1.27134876321661</v>
       </c>
       <c r="R10">
-        <v>1.00050393773134</v>
+        <v>0.9125866326407669</v>
       </c>
       <c r="S10">
-        <v>1.000409927789419</v>
+        <v>0.8749906327011062</v>
       </c>
       <c r="T10">
-        <v>1.00050393773134</v>
+        <v>0.9125866326407669</v>
       </c>
       <c r="U10">
-        <v>0.9993126031375765</v>
+        <v>0.8805781399291398</v>
       </c>
       <c r="V10">
-        <v>0.9986542083464709</v>
+        <v>0.8839306442659598</v>
       </c>
       <c r="W10">
-        <v>0.9994441711430082</v>
+        <v>0.9268281068235862</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1221,67 +1278,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9985596438922864</v>
+        <v>1.007805160458022</v>
       </c>
       <c r="D11">
-        <v>0.9871307092222511</v>
+        <v>0.9942583551128454</v>
       </c>
       <c r="E11">
-        <v>0.994714247401444</v>
+        <v>1.035452976207047</v>
       </c>
       <c r="F11">
-        <v>0.994714247401444</v>
+        <v>1.035452976207047</v>
       </c>
       <c r="G11">
-        <v>0.9936684957399184</v>
+        <v>0.9942887051879248</v>
       </c>
       <c r="H11">
-        <v>1.011435627854949</v>
+        <v>1.003158958140791</v>
       </c>
       <c r="I11">
-        <v>1.022844243876272</v>
+        <v>0.9913944059004934</v>
       </c>
       <c r="J11">
-        <v>0.9828778802514809</v>
+        <v>1.004371510512359</v>
       </c>
       <c r="K11">
-        <v>0.994714247401444</v>
+        <v>1.035452976207047</v>
       </c>
       <c r="L11">
-        <v>0.9828778802514809</v>
+        <v>1.004371510512359</v>
       </c>
       <c r="M11">
-        <v>1.000287697082143</v>
+        <v>0.9846619795854696</v>
       </c>
       <c r="N11">
-        <v>0.994714247401444</v>
+        <v>1.035452976207047</v>
       </c>
       <c r="O11">
-        <v>1.022844243876272</v>
+        <v>0.9913944059004934</v>
       </c>
       <c r="P11">
-        <v>1.002861062063876</v>
+        <v>0.9978829582064259</v>
       </c>
       <c r="Q11">
-        <v>1.008256369808095</v>
+        <v>0.9928415555442092</v>
       </c>
       <c r="R11">
-        <v>1.000145457176399</v>
+        <v>1.010406297539966</v>
       </c>
       <c r="S11">
-        <v>0.9997968732892238</v>
+        <v>0.9966848738669256</v>
       </c>
       <c r="T11">
-        <v>1.000145457176399</v>
+        <v>1.010406297539966</v>
       </c>
       <c r="U11">
-        <v>0.9985262168172789</v>
+        <v>1.006376899451956</v>
       </c>
       <c r="V11">
-        <v>0.9977638229341119</v>
+        <v>1.012192114802974</v>
       </c>
       <c r="W11">
-        <v>0.9989398181650931</v>
+        <v>1.001924006388119</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1292,67 +1349,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.066535999356658</v>
+        <v>1.002857250096939</v>
       </c>
       <c r="D12">
-        <v>1.281828405173791</v>
+        <v>0.9952790508128985</v>
       </c>
       <c r="E12">
-        <v>1.570472381390285</v>
+        <v>1.016447101154726</v>
       </c>
       <c r="F12">
-        <v>1.570472381390285</v>
+        <v>1.016447101154726</v>
       </c>
       <c r="G12">
-        <v>0.9972596984654541</v>
+        <v>0.9956962009216678</v>
       </c>
       <c r="H12">
-        <v>0.7820284194240961</v>
+        <v>1.003687487558174</v>
       </c>
       <c r="I12">
-        <v>0.4345724781155619</v>
+        <v>1.000366878370775</v>
       </c>
       <c r="J12">
-        <v>1.712027806894615</v>
+        <v>1.000233190667379</v>
       </c>
       <c r="K12">
-        <v>1.570472381390285</v>
+        <v>1.016447101154726</v>
       </c>
       <c r="L12">
-        <v>1.712027806894615</v>
+        <v>1.000233190667379</v>
       </c>
       <c r="M12">
-        <v>0.774862459710696</v>
+        <v>0.9926029954824008</v>
       </c>
       <c r="N12">
-        <v>1.570472381390285</v>
+        <v>1.016447101154726</v>
       </c>
       <c r="O12">
-        <v>0.4345724781155619</v>
+        <v>1.000366878370775</v>
       </c>
       <c r="P12">
-        <v>1.073300142505088</v>
+        <v>1.000300034519077</v>
       </c>
       <c r="Q12">
-        <v>0.715916088290508</v>
+        <v>0.9980315396462214</v>
       </c>
       <c r="R12">
-        <v>1.239024222133487</v>
+        <v>1.005682390064293</v>
       </c>
       <c r="S12">
-        <v>1.04795332782521</v>
+        <v>0.9987654233199406</v>
       </c>
       <c r="T12">
-        <v>1.239024222133487</v>
+        <v>1.005682390064293</v>
       </c>
       <c r="U12">
-        <v>1.178583091216479</v>
+        <v>1.003185842778637</v>
       </c>
       <c r="V12">
-        <v>1.25696094925124</v>
+        <v>1.005838094453855</v>
       </c>
       <c r="W12">
-        <v>1.077448456066395</v>
+        <v>1.00089626938312</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1363,67 +1420,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.005941962080059</v>
+        <v>1.009104572942291</v>
       </c>
       <c r="D13">
-        <v>0.9729919748266307</v>
+        <v>0.9853167266946884</v>
       </c>
       <c r="E13">
-        <v>0.5878682905610633</v>
+        <v>1.05999339868583</v>
       </c>
       <c r="F13">
-        <v>0.5878682905610633</v>
+        <v>1.05999339868583</v>
       </c>
       <c r="G13">
-        <v>1.111690867589363</v>
+        <v>0.9843913918125322</v>
       </c>
       <c r="H13">
-        <v>1.013773015973161</v>
+        <v>1.01235654497118</v>
       </c>
       <c r="I13">
-        <v>1.135409884884489</v>
+        <v>0.9995852463482969</v>
       </c>
       <c r="J13">
-        <v>0.7468720463360872</v>
+        <v>1.005412228079654</v>
       </c>
       <c r="K13">
-        <v>0.5878682905610633</v>
+        <v>1.05999339868583</v>
       </c>
       <c r="L13">
-        <v>0.7468720463360872</v>
+        <v>1.005412228079654</v>
       </c>
       <c r="M13">
-        <v>1.121567671481623</v>
+        <v>0.9731403753379685</v>
       </c>
       <c r="N13">
-        <v>0.5878682905610633</v>
+        <v>1.05999339868583</v>
       </c>
       <c r="O13">
-        <v>1.135409884884489</v>
+        <v>0.9995852463482969</v>
       </c>
       <c r="P13">
-        <v>0.941140965610288</v>
+        <v>1.002498737213975</v>
       </c>
       <c r="Q13">
-        <v>1.123550376236926</v>
+        <v>0.9919883190804146</v>
       </c>
       <c r="R13">
-        <v>0.8233834072605465</v>
+        <v>1.02166362437126</v>
       </c>
       <c r="S13">
-        <v>0.9979909329366462</v>
+        <v>0.9964629554134943</v>
       </c>
       <c r="T13">
-        <v>0.8233834072605465</v>
+        <v>1.02166362437126</v>
       </c>
       <c r="U13">
-        <v>0.8954602723427505</v>
+        <v>1.012345566231578</v>
       </c>
       <c r="V13">
-        <v>0.8339418759864131</v>
+        <v>1.021875132722429</v>
       </c>
       <c r="W13">
-        <v>0.9620144642165596</v>
+        <v>1.003662560609055</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1434,67 +1491,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9666321048364052</v>
+        <v>1.013618724286347</v>
       </c>
       <c r="D14">
-        <v>1.424708597885408</v>
+        <v>0.9901992608213229</v>
       </c>
       <c r="E14">
-        <v>0.5180737303226071</v>
+        <v>1.090826925329375</v>
       </c>
       <c r="F14">
-        <v>0.5180737303226071</v>
+        <v>1.090826925329375</v>
       </c>
       <c r="G14">
-        <v>1.283954946091436</v>
+        <v>0.9825820885254763</v>
       </c>
       <c r="H14">
-        <v>0.6607143973049976</v>
+        <v>1.00678088163711</v>
       </c>
       <c r="I14">
-        <v>0.641229129525398</v>
+        <v>0.982833375760237</v>
       </c>
       <c r="J14">
-        <v>1.414592299260681</v>
+        <v>1.023106307352998</v>
       </c>
       <c r="K14">
-        <v>0.5180737303226071</v>
+        <v>1.090826925329375</v>
       </c>
       <c r="L14">
-        <v>1.414592299260681</v>
+        <v>1.023106307352998</v>
       </c>
       <c r="M14">
-        <v>1.170067800750828</v>
+        <v>0.9622337945958374</v>
       </c>
       <c r="N14">
-        <v>0.5180737303226071</v>
+        <v>1.090826925329375</v>
       </c>
       <c r="O14">
-        <v>0.641229129525398</v>
+        <v>0.982833375760237</v>
       </c>
       <c r="P14">
-        <v>1.02791071439304</v>
+        <v>1.002969841556618</v>
       </c>
       <c r="Q14">
-        <v>0.962592037808417</v>
+        <v>0.9827077321428567</v>
       </c>
       <c r="R14">
-        <v>0.8579650530362288</v>
+        <v>1.032255536147537</v>
       </c>
       <c r="S14">
-        <v>1.113258791625839</v>
+        <v>0.9961739238795705</v>
       </c>
       <c r="T14">
-        <v>0.8579650530362288</v>
+        <v>1.032255536147537</v>
       </c>
       <c r="U14">
-        <v>0.9644625263000306</v>
+        <v>1.019837174242022</v>
       </c>
       <c r="V14">
-        <v>0.8751847671045458</v>
+        <v>1.034035124459492</v>
       </c>
       <c r="W14">
-        <v>1.00999662574722</v>
+        <v>1.006522669788588</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1505,67 +1562,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.8046703395088916</v>
+        <v>1.005076639192307</v>
       </c>
       <c r="D15">
-        <v>1.10612888525521</v>
+        <v>0.9969267494003855</v>
       </c>
       <c r="E15">
-        <v>0.988250631918999</v>
+        <v>1.034184780817442</v>
       </c>
       <c r="F15">
-        <v>0.988250631918999</v>
+        <v>1.034184780817442</v>
       </c>
       <c r="G15">
-        <v>0.8493945629815766</v>
+        <v>0.9937824735296786</v>
       </c>
       <c r="H15">
-        <v>1.045033107348854</v>
+        <v>1.002189213657766</v>
       </c>
       <c r="I15">
-        <v>1.160614125541454</v>
+        <v>0.9930400826136377</v>
       </c>
       <c r="J15">
-        <v>1.4684885838724</v>
+        <v>1.009782547159598</v>
       </c>
       <c r="K15">
-        <v>0.988250631918999</v>
+        <v>1.034184780817442</v>
       </c>
       <c r="L15">
-        <v>1.4684885838724</v>
+        <v>1.009782547159598</v>
       </c>
       <c r="M15">
-        <v>0.9866067471742133</v>
+        <v>0.9856143457672772</v>
       </c>
       <c r="N15">
-        <v>0.988250631918999</v>
+        <v>1.034184780817442</v>
       </c>
       <c r="O15">
-        <v>1.160614125541454</v>
+        <v>0.9930400826136377</v>
       </c>
       <c r="P15">
-        <v>1.314551354706927</v>
+        <v>1.001411314886618</v>
       </c>
       <c r="Q15">
-        <v>1.005004344261515</v>
+        <v>0.9934112780716582</v>
       </c>
       <c r="R15">
-        <v>1.205784447110951</v>
+        <v>1.012335803530226</v>
       </c>
       <c r="S15">
-        <v>1.159499090798477</v>
+        <v>0.9988683677676381</v>
       </c>
       <c r="T15">
-        <v>1.205784447110951</v>
+        <v>1.012335803530226</v>
       </c>
       <c r="U15">
-        <v>1.116686976078607</v>
+        <v>1.007697471030089</v>
       </c>
       <c r="V15">
-        <v>1.090999707246686</v>
+        <v>1.01299493298756</v>
       </c>
       <c r="W15">
-        <v>1.0511483729502</v>
+        <v>1.002574604017262</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1576,67 +1633,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.095395853468927</v>
+        <v>1.010230300882503</v>
       </c>
       <c r="D16">
-        <v>0.9267185849760597</v>
+        <v>0.9937739662542305</v>
       </c>
       <c r="E16">
-        <v>1.607380769529047</v>
+        <v>1.064648805751204</v>
       </c>
       <c r="F16">
-        <v>1.607380769529047</v>
+        <v>1.064648805751204</v>
       </c>
       <c r="G16">
-        <v>0.886268531564064</v>
+        <v>0.988737153568139</v>
       </c>
       <c r="H16">
-        <v>1.047515841555828</v>
+        <v>1.003798082228807</v>
       </c>
       <c r="I16">
-        <v>0.8803973812733048</v>
+        <v>0.9858652682460139</v>
       </c>
       <c r="J16">
-        <v>1.132046531309966</v>
+        <v>1.016575168863032</v>
       </c>
       <c r="K16">
-        <v>1.607380769529047</v>
+        <v>1.064648805751204</v>
       </c>
       <c r="L16">
-        <v>1.132046531309966</v>
+        <v>1.016575168863032</v>
       </c>
       <c r="M16">
-        <v>0.7505425659479638</v>
+        <v>0.9732293911935003</v>
       </c>
       <c r="N16">
-        <v>1.607380769529047</v>
+        <v>1.064648805751204</v>
       </c>
       <c r="O16">
-        <v>0.8803973812733048</v>
+        <v>0.9858652682460139</v>
       </c>
       <c r="P16">
-        <v>1.006221956291635</v>
+        <v>1.001220218554523</v>
       </c>
       <c r="Q16">
-        <v>0.8833329564186845</v>
+        <v>0.9873012109070765</v>
       </c>
       <c r="R16">
-        <v>1.206608227370772</v>
+        <v>1.022363080953417</v>
       </c>
       <c r="S16">
-        <v>0.9662374813824449</v>
+        <v>0.997059196892395</v>
       </c>
       <c r="T16">
-        <v>1.206608227370772</v>
+        <v>1.022363080953417</v>
       </c>
       <c r="U16">
-        <v>1.126523303419095</v>
+        <v>1.013956599107097</v>
       </c>
       <c r="V16">
-        <v>1.222694796641086</v>
+        <v>1.024095040435919</v>
       </c>
       <c r="W16">
-        <v>1.040783257453145</v>
+        <v>1.004607267123429</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1647,67 +1704,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.04939499379682</v>
+        <v>1.017829260983971</v>
       </c>
       <c r="D17">
-        <v>0.9139651357303178</v>
+        <v>0.9878219964337852</v>
       </c>
       <c r="E17">
-        <v>1.384002564150074</v>
+        <v>1.123475943952965</v>
       </c>
       <c r="F17">
-        <v>1.384002564150074</v>
+        <v>1.123475943952965</v>
       </c>
       <c r="G17">
-        <v>0.9009733523180713</v>
+        <v>0.9771458970412681</v>
       </c>
       <c r="H17">
-        <v>1.068432715859124</v>
+        <v>1.008645229380277</v>
       </c>
       <c r="I17">
-        <v>0.9969722428616853</v>
+        <v>0.9774775849464683</v>
       </c>
       <c r="J17">
-        <v>1.038642178246333</v>
+        <v>1.033446632919825</v>
       </c>
       <c r="K17">
-        <v>1.384002564150074</v>
+        <v>1.123475943952965</v>
       </c>
       <c r="L17">
-        <v>1.038642178246333</v>
+        <v>1.033446632919825</v>
       </c>
       <c r="M17">
-        <v>0.8406626486211798</v>
+        <v>0.9484618857258231</v>
       </c>
       <c r="N17">
-        <v>1.384002564150074</v>
+        <v>1.123475943952965</v>
       </c>
       <c r="O17">
-        <v>0.9969722428616853</v>
+        <v>0.9774775849464683</v>
       </c>
       <c r="P17">
-        <v>1.017807210554009</v>
+        <v>1.005462108933147</v>
       </c>
       <c r="Q17">
-        <v>0.9489727975898783</v>
+        <v>0.9773117409938682</v>
       </c>
       <c r="R17">
-        <v>1.139872328419364</v>
+        <v>1.044800053939753</v>
       </c>
       <c r="S17">
-        <v>0.9788625911420298</v>
+        <v>0.9960233716358537</v>
       </c>
       <c r="T17">
-        <v>1.139872328419364</v>
+        <v>1.044800053939753</v>
       </c>
       <c r="U17">
-        <v>1.080147584394041</v>
+        <v>1.027886514715132</v>
       </c>
       <c r="V17">
-        <v>1.140918580345248</v>
+        <v>1.047004400562698</v>
       </c>
       <c r="W17">
-        <v>1.024130728947951</v>
+        <v>1.009288053923048</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1718,67 +1775,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9589234373903868</v>
+        <v>1.025956378605659</v>
       </c>
       <c r="D18">
-        <v>0.8893641333513446</v>
+        <v>0.9837915024782443</v>
       </c>
       <c r="E18">
-        <v>0.9401392737998856</v>
+        <v>1.185230857356069</v>
       </c>
       <c r="F18">
-        <v>0.9401392737998856</v>
+        <v>1.185230857356069</v>
       </c>
       <c r="G18">
-        <v>0.9313067237159558</v>
+        <v>0.9714257137736538</v>
       </c>
       <c r="H18">
-        <v>1.10883482857339</v>
+        <v>1.012551251230057</v>
       </c>
       <c r="I18">
-        <v>1.225893733087902</v>
+        <v>0.9753329499587547</v>
       </c>
       <c r="J18">
-        <v>0.853185443528036</v>
+        <v>1.052271550796229</v>
       </c>
       <c r="K18">
-        <v>0.9401392737998856</v>
+        <v>1.185230857356069</v>
       </c>
       <c r="L18">
-        <v>0.853185443528036</v>
+        <v>1.052271550796229</v>
       </c>
       <c r="M18">
-        <v>1.019775381564142</v>
+        <v>0.9194209674196385</v>
       </c>
       <c r="N18">
-        <v>0.9401392737998856</v>
+        <v>1.185230857356069</v>
       </c>
       <c r="O18">
-        <v>1.225893733087902</v>
+        <v>0.9753329499587547</v>
       </c>
       <c r="P18">
-        <v>1.039539588307969</v>
+        <v>1.013802250377492</v>
       </c>
       <c r="Q18">
-        <v>1.078600228401929</v>
+        <v>0.9733793318662043</v>
       </c>
       <c r="R18">
-        <v>1.006406150138608</v>
+        <v>1.070945119370351</v>
       </c>
       <c r="S18">
-        <v>1.003461966777298</v>
+        <v>0.9996767381762125</v>
       </c>
       <c r="T18">
-        <v>1.006406150138608</v>
+        <v>1.070945119370351</v>
       </c>
       <c r="U18">
-        <v>0.9876312935329449</v>
+        <v>1.046065267971176</v>
       </c>
       <c r="V18">
-        <v>0.978132889586333</v>
+        <v>1.073898385848155</v>
       </c>
       <c r="W18">
-        <v>0.9909278693763803</v>
+        <v>1.015747646452288</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1789,67 +1846,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9183528702525887</v>
+        <v>0.999555789855198</v>
       </c>
       <c r="D19">
-        <v>0.8653232325986508</v>
+        <v>0.999022137664182</v>
       </c>
       <c r="E19">
-        <v>0.8979799362199007</v>
+        <v>0.9993000401394633</v>
       </c>
       <c r="F19">
-        <v>0.8979799362199007</v>
+        <v>0.9993000401394633</v>
       </c>
       <c r="G19">
-        <v>0.8905407949374713</v>
+        <v>0.9993535721654289</v>
       </c>
       <c r="H19">
-        <v>1.153290655466831</v>
+        <v>1.001049139524324</v>
       </c>
       <c r="I19">
-        <v>1.334800385754743</v>
+        <v>1.002408384155498</v>
       </c>
       <c r="J19">
-        <v>0.8575054371784405</v>
+        <v>0.998788619271201</v>
       </c>
       <c r="K19">
-        <v>0.8979799362199007</v>
+        <v>0.9993000401394633</v>
       </c>
       <c r="L19">
-        <v>0.8575054371784405</v>
+        <v>0.998788619271201</v>
       </c>
       <c r="M19">
-        <v>1.029486154084811</v>
+        <v>1.000139451642618</v>
       </c>
       <c r="N19">
-        <v>0.8979799362199007</v>
+        <v>0.9993000401394633</v>
       </c>
       <c r="O19">
-        <v>1.334800385754743</v>
+        <v>1.002408384155498</v>
       </c>
       <c r="P19">
-        <v>1.096152911466592</v>
+        <v>1.000598501713349</v>
       </c>
       <c r="Q19">
-        <v>1.112670590346107</v>
+        <v>1.000880978160463</v>
       </c>
       <c r="R19">
-        <v>1.030095253051028</v>
+        <v>1.000165681188721</v>
       </c>
       <c r="S19">
-        <v>1.027615539290218</v>
+        <v>1.000183525197376</v>
       </c>
       <c r="T19">
-        <v>1.030095253051028</v>
+        <v>1.000165681188721</v>
       </c>
       <c r="U19">
-        <v>0.9952066385226388</v>
+        <v>0.9999626539328978</v>
       </c>
       <c r="V19">
-        <v>0.9757612980620912</v>
+        <v>0.9998301311742109</v>
       </c>
       <c r="W19">
-        <v>0.9934099333116797</v>
+        <v>0.9999521418022391</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1860,67 +1917,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9992547141338782</v>
+        <v>0.9991176947924765</v>
       </c>
       <c r="D20">
-        <v>1.000132505570221</v>
+        <v>0.9972617752057799</v>
       </c>
       <c r="E20">
-        <v>1.002568196549281</v>
+        <v>0.9986121978214063</v>
       </c>
       <c r="F20">
-        <v>1.002568196549281</v>
+        <v>0.9986121978214063</v>
       </c>
       <c r="G20">
-        <v>0.9986582262901917</v>
+        <v>0.9982868807539823</v>
       </c>
       <c r="H20">
-        <v>1.000081394997881</v>
+        <v>1.002660429363951</v>
       </c>
       <c r="I20">
-        <v>0.9999549673962463</v>
+        <v>1.005589384869923</v>
       </c>
       <c r="J20">
-        <v>1.002569372817762</v>
+        <v>0.9966353316291197</v>
       </c>
       <c r="K20">
-        <v>1.002568196549281</v>
+        <v>0.9986121978214063</v>
       </c>
       <c r="L20">
-        <v>1.002569372817762</v>
+        <v>0.9966353316291197</v>
       </c>
       <c r="M20">
-        <v>0.9995401597421819</v>
+        <v>1.000330135556602</v>
       </c>
       <c r="N20">
-        <v>1.002568196549281</v>
+        <v>0.9986121978214063</v>
       </c>
       <c r="O20">
-        <v>0.9999549673962463</v>
+        <v>1.005589384869923</v>
       </c>
       <c r="P20">
-        <v>1.001262170107004</v>
+        <v>1.001112358249521</v>
       </c>
       <c r="Q20">
-        <v>0.9993065968432191</v>
+        <v>1.001938132811953</v>
       </c>
       <c r="R20">
-        <v>1.00169751225443</v>
+        <v>1.00027897144015</v>
       </c>
       <c r="S20">
-        <v>1.000394188834733</v>
+        <v>1.000170532417675</v>
       </c>
       <c r="T20">
-        <v>1.00169751225443</v>
+        <v>1.00027897144015</v>
       </c>
       <c r="U20">
-        <v>1.00093769076337</v>
+        <v>0.9997809487686078</v>
       </c>
       <c r="V20">
-        <v>1.001263791920552</v>
+        <v>0.9995471985791674</v>
       </c>
       <c r="W20">
-        <v>1.000344942187205</v>
+        <v>0.999811728749155</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1931,67 +1988,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9998519917486244</v>
+        <v>0.9994912862884442</v>
       </c>
       <c r="D21">
-        <v>0.998358653397906</v>
+        <v>0.9964165383512523</v>
       </c>
       <c r="E21">
-        <v>0.9942278404790827</v>
+        <v>0.9982572635879723</v>
       </c>
       <c r="F21">
-        <v>0.9942278404790827</v>
+        <v>0.9982572635879723</v>
       </c>
       <c r="G21">
-        <v>1.000481183881084</v>
+        <v>0.9982741490395067</v>
       </c>
       <c r="H21">
-        <v>1.001945830769981</v>
+        <v>1.003282713502156</v>
       </c>
       <c r="I21">
-        <v>1.004865952439826</v>
+        <v>1.006751626341229</v>
       </c>
       <c r="J21">
-        <v>0.9950098964396714</v>
+        <v>0.995163965432453</v>
       </c>
       <c r="K21">
-        <v>0.9942278404790827</v>
+        <v>0.9982572635879723</v>
       </c>
       <c r="L21">
-        <v>0.9950098964396714</v>
+        <v>0.995163965432453</v>
       </c>
       <c r="M21">
-        <v>1.000998830602612</v>
+        <v>1.000098393470194</v>
       </c>
       <c r="N21">
-        <v>0.9942278404790827</v>
+        <v>0.9982572635879723</v>
       </c>
       <c r="O21">
-        <v>1.004865952439826</v>
+        <v>1.006751626341229</v>
       </c>
       <c r="P21">
-        <v>0.9999379244397486</v>
+        <v>1.000957795886841</v>
       </c>
       <c r="Q21">
-        <v>1.002673568160455</v>
+        <v>1.002512887690368</v>
       </c>
       <c r="R21">
-        <v>0.9980345631195267</v>
+        <v>1.000057618453885</v>
       </c>
       <c r="S21">
-        <v>1.000119010920194</v>
+        <v>1.00006324693773</v>
       </c>
       <c r="T21">
-        <v>0.9980345631195267</v>
+        <v>1.000057618453885</v>
       </c>
       <c r="U21">
-        <v>0.9986462183099161</v>
+        <v>0.9996117511002903</v>
       </c>
       <c r="V21">
-        <v>0.9977625427437495</v>
+        <v>0.9993408535978267</v>
       </c>
       <c r="W21">
-        <v>0.9994675224698484</v>
+        <v>0.9997169920016509</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2002,67 +2059,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.001003044900531</v>
+        <v>0.9982637661936909</v>
       </c>
       <c r="D22">
-        <v>0.9999602249296138</v>
+        <v>0.9921153458270253</v>
       </c>
       <c r="E22">
-        <v>1.021388714643142</v>
+        <v>0.9960206291820484</v>
       </c>
       <c r="F22">
-        <v>1.021388714643142</v>
+        <v>0.9960206291820484</v>
       </c>
       <c r="G22">
-        <v>0.9952341454814504</v>
+        <v>0.9957385993562855</v>
       </c>
       <c r="H22">
-        <v>0.9987753325336417</v>
+        <v>1.00748624948551</v>
       </c>
       <c r="I22">
-        <v>0.9932278240663959</v>
+        <v>1.015795417883973</v>
       </c>
       <c r="J22">
-        <v>1.011349260273075</v>
+        <v>0.9896957661279996</v>
       </c>
       <c r="K22">
-        <v>1.021388714643142</v>
+        <v>0.9960206291820484</v>
       </c>
       <c r="L22">
-        <v>1.011349260273075</v>
+        <v>0.9896957661279996</v>
       </c>
       <c r="M22">
-        <v>0.9939094335057164</v>
+        <v>1.000437595087533</v>
       </c>
       <c r="N22">
-        <v>1.021388714643142</v>
+        <v>0.9960206291820484</v>
       </c>
       <c r="O22">
-        <v>0.9932278240663959</v>
+        <v>1.015795417883973</v>
       </c>
       <c r="P22">
-        <v>1.002288542169735</v>
+        <v>1.002745592005986</v>
       </c>
       <c r="Q22">
-        <v>0.9942309847739231</v>
+        <v>1.005767008620129</v>
       </c>
       <c r="R22">
-        <v>1.008655266327537</v>
+        <v>1.00050393773134</v>
       </c>
       <c r="S22">
-        <v>0.9999370766069737</v>
+        <v>1.000409927789419</v>
       </c>
       <c r="T22">
-        <v>1.008655266327538</v>
+        <v>1.00050393773134</v>
       </c>
       <c r="U22">
-        <v>1.005299986116016</v>
+        <v>0.9993126031375765</v>
       </c>
       <c r="V22">
-        <v>1.008517731821441</v>
+        <v>0.9986542083464709</v>
       </c>
       <c r="W22">
-        <v>1.001855997541696</v>
+        <v>0.9994441711430082</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2073,67 +2130,1416 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.9985596438922864</v>
+      </c>
+      <c r="D23">
+        <v>0.9871307092222511</v>
+      </c>
+      <c r="E23">
+        <v>0.994714247401444</v>
+      </c>
+      <c r="F23">
+        <v>0.994714247401444</v>
+      </c>
+      <c r="G23">
+        <v>0.9936684957399184</v>
+      </c>
+      <c r="H23">
+        <v>1.011435627854949</v>
+      </c>
+      <c r="I23">
+        <v>1.022844243876272</v>
+      </c>
+      <c r="J23">
+        <v>0.9828778802514809</v>
+      </c>
+      <c r="K23">
+        <v>0.994714247401444</v>
+      </c>
+      <c r="L23">
+        <v>0.9828778802514809</v>
+      </c>
+      <c r="M23">
+        <v>1.000287697082143</v>
+      </c>
+      <c r="N23">
+        <v>0.994714247401444</v>
+      </c>
+      <c r="O23">
+        <v>1.022844243876272</v>
+      </c>
+      <c r="P23">
+        <v>1.002861062063876</v>
+      </c>
+      <c r="Q23">
+        <v>1.008256369808095</v>
+      </c>
+      <c r="R23">
+        <v>1.000145457176399</v>
+      </c>
+      <c r="S23">
+        <v>0.9997968732892238</v>
+      </c>
+      <c r="T23">
+        <v>1.000145457176399</v>
+      </c>
+      <c r="U23">
+        <v>0.9985262168172789</v>
+      </c>
+      <c r="V23">
+        <v>0.9977638229341119</v>
+      </c>
+      <c r="W23">
+        <v>0.9989398181650931</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.066535999356658</v>
+      </c>
+      <c r="D24">
+        <v>1.281828405173791</v>
+      </c>
+      <c r="E24">
+        <v>1.570472381390285</v>
+      </c>
+      <c r="F24">
+        <v>1.570472381390285</v>
+      </c>
+      <c r="G24">
+        <v>0.9972596984654541</v>
+      </c>
+      <c r="H24">
+        <v>0.7820284194240961</v>
+      </c>
+      <c r="I24">
+        <v>0.4345724781155619</v>
+      </c>
+      <c r="J24">
+        <v>1.712027806894615</v>
+      </c>
+      <c r="K24">
+        <v>1.570472381390285</v>
+      </c>
+      <c r="L24">
+        <v>1.712027806894615</v>
+      </c>
+      <c r="M24">
+        <v>0.774862459710696</v>
+      </c>
+      <c r="N24">
+        <v>1.570472381390285</v>
+      </c>
+      <c r="O24">
+        <v>0.4345724781155619</v>
+      </c>
+      <c r="P24">
+        <v>1.073300142505088</v>
+      </c>
+      <c r="Q24">
+        <v>0.715916088290508</v>
+      </c>
+      <c r="R24">
+        <v>1.239024222133487</v>
+      </c>
+      <c r="S24">
+        <v>1.04795332782521</v>
+      </c>
+      <c r="T24">
+        <v>1.239024222133487</v>
+      </c>
+      <c r="U24">
+        <v>1.178583091216479</v>
+      </c>
+      <c r="V24">
+        <v>1.25696094925124</v>
+      </c>
+      <c r="W24">
+        <v>1.077448456066395</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.005941962080059</v>
+      </c>
+      <c r="D25">
+        <v>0.9729919748266307</v>
+      </c>
+      <c r="E25">
+        <v>0.5878682905610633</v>
+      </c>
+      <c r="F25">
+        <v>0.5878682905610633</v>
+      </c>
+      <c r="G25">
+        <v>1.111690867589363</v>
+      </c>
+      <c r="H25">
+        <v>1.013773015973161</v>
+      </c>
+      <c r="I25">
+        <v>1.135409884884489</v>
+      </c>
+      <c r="J25">
+        <v>0.7468720463360872</v>
+      </c>
+      <c r="K25">
+        <v>0.5878682905610633</v>
+      </c>
+      <c r="L25">
+        <v>0.7468720463360872</v>
+      </c>
+      <c r="M25">
+        <v>1.121567671481623</v>
+      </c>
+      <c r="N25">
+        <v>0.5878682905610633</v>
+      </c>
+      <c r="O25">
+        <v>1.135409884884489</v>
+      </c>
+      <c r="P25">
+        <v>0.941140965610288</v>
+      </c>
+      <c r="Q25">
+        <v>1.123550376236926</v>
+      </c>
+      <c r="R25">
+        <v>0.8233834072605465</v>
+      </c>
+      <c r="S25">
+        <v>0.9979909329366462</v>
+      </c>
+      <c r="T25">
+        <v>0.8233834072605465</v>
+      </c>
+      <c r="U25">
+        <v>0.8954602723427505</v>
+      </c>
+      <c r="V25">
+        <v>0.8339418759864131</v>
+      </c>
+      <c r="W25">
+        <v>0.9620144642165596</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9666321048364052</v>
+      </c>
+      <c r="D26">
+        <v>1.424708597885408</v>
+      </c>
+      <c r="E26">
+        <v>0.5180737303226071</v>
+      </c>
+      <c r="F26">
+        <v>0.5180737303226071</v>
+      </c>
+      <c r="G26">
+        <v>1.283954946091436</v>
+      </c>
+      <c r="H26">
+        <v>0.6607143973049976</v>
+      </c>
+      <c r="I26">
+        <v>0.641229129525398</v>
+      </c>
+      <c r="J26">
+        <v>1.414592299260681</v>
+      </c>
+      <c r="K26">
+        <v>0.5180737303226071</v>
+      </c>
+      <c r="L26">
+        <v>1.414592299260681</v>
+      </c>
+      <c r="M26">
+        <v>1.170067800750828</v>
+      </c>
+      <c r="N26">
+        <v>0.5180737303226071</v>
+      </c>
+      <c r="O26">
+        <v>0.641229129525398</v>
+      </c>
+      <c r="P26">
+        <v>1.02791071439304</v>
+      </c>
+      <c r="Q26">
+        <v>0.962592037808417</v>
+      </c>
+      <c r="R26">
+        <v>0.8579650530362288</v>
+      </c>
+      <c r="S26">
+        <v>1.113258791625839</v>
+      </c>
+      <c r="T26">
+        <v>0.8579650530362288</v>
+      </c>
+      <c r="U26">
+        <v>0.9644625263000306</v>
+      </c>
+      <c r="V26">
+        <v>0.8751847671045458</v>
+      </c>
+      <c r="W26">
+        <v>1.00999662574722</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.8046703395088916</v>
+      </c>
+      <c r="D27">
+        <v>1.10612888525521</v>
+      </c>
+      <c r="E27">
+        <v>0.988250631918999</v>
+      </c>
+      <c r="F27">
+        <v>0.988250631918999</v>
+      </c>
+      <c r="G27">
+        <v>0.8493945629815766</v>
+      </c>
+      <c r="H27">
+        <v>1.045033107348854</v>
+      </c>
+      <c r="I27">
+        <v>1.160614125541454</v>
+      </c>
+      <c r="J27">
+        <v>1.4684885838724</v>
+      </c>
+      <c r="K27">
+        <v>0.988250631918999</v>
+      </c>
+      <c r="L27">
+        <v>1.4684885838724</v>
+      </c>
+      <c r="M27">
+        <v>0.9866067471742133</v>
+      </c>
+      <c r="N27">
+        <v>0.988250631918999</v>
+      </c>
+      <c r="O27">
+        <v>1.160614125541454</v>
+      </c>
+      <c r="P27">
+        <v>1.314551354706927</v>
+      </c>
+      <c r="Q27">
+        <v>1.005004344261515</v>
+      </c>
+      <c r="R27">
+        <v>1.205784447110951</v>
+      </c>
+      <c r="S27">
+        <v>1.159499090798477</v>
+      </c>
+      <c r="T27">
+        <v>1.205784447110951</v>
+      </c>
+      <c r="U27">
+        <v>1.116686976078607</v>
+      </c>
+      <c r="V27">
+        <v>1.090999707246686</v>
+      </c>
+      <c r="W27">
+        <v>1.0511483729502</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.095395853468927</v>
+      </c>
+      <c r="D28">
+        <v>0.9267185849760597</v>
+      </c>
+      <c r="E28">
+        <v>1.607380769529047</v>
+      </c>
+      <c r="F28">
+        <v>1.607380769529047</v>
+      </c>
+      <c r="G28">
+        <v>0.886268531564064</v>
+      </c>
+      <c r="H28">
+        <v>1.047515841555828</v>
+      </c>
+      <c r="I28">
+        <v>0.8803973812733048</v>
+      </c>
+      <c r="J28">
+        <v>1.132046531309966</v>
+      </c>
+      <c r="K28">
+        <v>1.607380769529047</v>
+      </c>
+      <c r="L28">
+        <v>1.132046531309966</v>
+      </c>
+      <c r="M28">
+        <v>0.7505425659479638</v>
+      </c>
+      <c r="N28">
+        <v>1.607380769529047</v>
+      </c>
+      <c r="O28">
+        <v>0.8803973812733048</v>
+      </c>
+      <c r="P28">
+        <v>1.006221956291635</v>
+      </c>
+      <c r="Q28">
+        <v>0.8833329564186845</v>
+      </c>
+      <c r="R28">
+        <v>1.206608227370772</v>
+      </c>
+      <c r="S28">
+        <v>0.9662374813824449</v>
+      </c>
+      <c r="T28">
+        <v>1.206608227370772</v>
+      </c>
+      <c r="U28">
+        <v>1.126523303419095</v>
+      </c>
+      <c r="V28">
+        <v>1.222694796641086</v>
+      </c>
+      <c r="W28">
+        <v>1.040783257453145</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.04939499379682</v>
+      </c>
+      <c r="D29">
+        <v>0.9139651357303178</v>
+      </c>
+      <c r="E29">
+        <v>1.384002564150074</v>
+      </c>
+      <c r="F29">
+        <v>1.384002564150074</v>
+      </c>
+      <c r="G29">
+        <v>0.9009733523180713</v>
+      </c>
+      <c r="H29">
+        <v>1.068432715859124</v>
+      </c>
+      <c r="I29">
+        <v>0.9969722428616853</v>
+      </c>
+      <c r="J29">
+        <v>1.038642178246333</v>
+      </c>
+      <c r="K29">
+        <v>1.384002564150074</v>
+      </c>
+      <c r="L29">
+        <v>1.038642178246333</v>
+      </c>
+      <c r="M29">
+        <v>0.8406626486211798</v>
+      </c>
+      <c r="N29">
+        <v>1.384002564150074</v>
+      </c>
+      <c r="O29">
+        <v>0.9969722428616853</v>
+      </c>
+      <c r="P29">
+        <v>1.017807210554009</v>
+      </c>
+      <c r="Q29">
+        <v>0.9489727975898783</v>
+      </c>
+      <c r="R29">
+        <v>1.139872328419364</v>
+      </c>
+      <c r="S29">
+        <v>0.9788625911420298</v>
+      </c>
+      <c r="T29">
+        <v>1.139872328419364</v>
+      </c>
+      <c r="U29">
+        <v>1.080147584394041</v>
+      </c>
+      <c r="V29">
+        <v>1.140918580345248</v>
+      </c>
+      <c r="W29">
+        <v>1.024130728947951</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9589234373903868</v>
+      </c>
+      <c r="D30">
+        <v>0.8893641333513446</v>
+      </c>
+      <c r="E30">
+        <v>0.9401392737998856</v>
+      </c>
+      <c r="F30">
+        <v>0.9401392737998856</v>
+      </c>
+      <c r="G30">
+        <v>0.9313067237159558</v>
+      </c>
+      <c r="H30">
+        <v>1.10883482857339</v>
+      </c>
+      <c r="I30">
+        <v>1.225893733087902</v>
+      </c>
+      <c r="J30">
+        <v>0.853185443528036</v>
+      </c>
+      <c r="K30">
+        <v>0.9401392737998856</v>
+      </c>
+      <c r="L30">
+        <v>0.853185443528036</v>
+      </c>
+      <c r="M30">
+        <v>1.019775381564142</v>
+      </c>
+      <c r="N30">
+        <v>0.9401392737998856</v>
+      </c>
+      <c r="O30">
+        <v>1.225893733087902</v>
+      </c>
+      <c r="P30">
+        <v>1.039539588307969</v>
+      </c>
+      <c r="Q30">
+        <v>1.078600228401929</v>
+      </c>
+      <c r="R30">
+        <v>1.006406150138608</v>
+      </c>
+      <c r="S30">
+        <v>1.003461966777298</v>
+      </c>
+      <c r="T30">
+        <v>1.006406150138608</v>
+      </c>
+      <c r="U30">
+        <v>0.9876312935329449</v>
+      </c>
+      <c r="V30">
+        <v>0.978132889586333</v>
+      </c>
+      <c r="W30">
+        <v>0.9909278693763803</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.9183528702525887</v>
+      </c>
+      <c r="D31">
+        <v>0.8653232325986508</v>
+      </c>
+      <c r="E31">
+        <v>0.8979799362199007</v>
+      </c>
+      <c r="F31">
+        <v>0.8979799362199007</v>
+      </c>
+      <c r="G31">
+        <v>0.8905407949374713</v>
+      </c>
+      <c r="H31">
+        <v>1.153290655466831</v>
+      </c>
+      <c r="I31">
+        <v>1.334800385754743</v>
+      </c>
+      <c r="J31">
+        <v>0.8575054371784405</v>
+      </c>
+      <c r="K31">
+        <v>0.8979799362199007</v>
+      </c>
+      <c r="L31">
+        <v>0.8575054371784405</v>
+      </c>
+      <c r="M31">
+        <v>1.029486154084811</v>
+      </c>
+      <c r="N31">
+        <v>0.8979799362199007</v>
+      </c>
+      <c r="O31">
+        <v>1.334800385754743</v>
+      </c>
+      <c r="P31">
+        <v>1.096152911466592</v>
+      </c>
+      <c r="Q31">
+        <v>1.112670590346107</v>
+      </c>
+      <c r="R31">
+        <v>1.030095253051028</v>
+      </c>
+      <c r="S31">
+        <v>1.027615539290218</v>
+      </c>
+      <c r="T31">
+        <v>1.030095253051028</v>
+      </c>
+      <c r="U31">
+        <v>0.9952066385226388</v>
+      </c>
+      <c r="V31">
+        <v>0.9757612980620912</v>
+      </c>
+      <c r="W31">
+        <v>0.9934099333116797</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.150611023013699</v>
+      </c>
+      <c r="D32">
+        <v>0.9339312373972601</v>
+      </c>
+      <c r="E32">
+        <v>1.827175682465754</v>
+      </c>
+      <c r="F32">
+        <v>1.827175682465754</v>
+      </c>
+      <c r="G32">
+        <v>0.8770005572602743</v>
+      </c>
+      <c r="H32">
+        <v>1.02620648739726</v>
+      </c>
+      <c r="I32">
+        <v>0.7603326645205484</v>
+      </c>
+      <c r="J32">
+        <v>1.209934584994521</v>
+      </c>
+      <c r="K32">
+        <v>1.827175682465754</v>
+      </c>
+      <c r="L32">
+        <v>1.209934584994521</v>
+      </c>
+      <c r="M32">
+        <v>0.6594259554520545</v>
+      </c>
+      <c r="N32">
+        <v>1.827175682465754</v>
+      </c>
+      <c r="O32">
+        <v>0.7603326645205484</v>
+      </c>
+      <c r="P32">
+        <v>0.9851336247575345</v>
+      </c>
+      <c r="Q32">
+        <v>0.8186666108904113</v>
+      </c>
+      <c r="R32">
+        <v>1.265814310660274</v>
+      </c>
+      <c r="S32">
+        <v>0.9490892689251145</v>
+      </c>
+      <c r="T32">
+        <v>1.265814310660274</v>
+      </c>
+      <c r="U32">
+        <v>1.168610872310274</v>
+      </c>
+      <c r="V32">
+        <v>1.30032383434137</v>
+      </c>
+      <c r="W32">
+        <v>1.055577274062671</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.057789206315789</v>
+      </c>
+      <c r="D33">
+        <v>0.7234640074210527</v>
+      </c>
+      <c r="E33">
+        <v>1.162595613789474</v>
+      </c>
+      <c r="F33">
+        <v>1.162595613789474</v>
+      </c>
+      <c r="G33">
+        <v>0.9684799384210525</v>
+      </c>
+      <c r="H33">
+        <v>1.093438847894737</v>
+      </c>
+      <c r="I33">
+        <v>1.177367331578948</v>
+      </c>
+      <c r="J33">
+        <v>0.3933302183000001</v>
+      </c>
+      <c r="K33">
+        <v>1.162595613789474</v>
+      </c>
+      <c r="L33">
+        <v>0.3933302183000001</v>
+      </c>
+      <c r="M33">
+        <v>1.064730176789474</v>
+      </c>
+      <c r="N33">
+        <v>1.162595613789474</v>
+      </c>
+      <c r="O33">
+        <v>1.177367331578948</v>
+      </c>
+      <c r="P33">
+        <v>0.7853487749394739</v>
+      </c>
+      <c r="Q33">
+        <v>1.072923635</v>
+      </c>
+      <c r="R33">
+        <v>0.9110977212228072</v>
+      </c>
+      <c r="S33">
+        <v>0.8463924961</v>
+      </c>
+      <c r="T33">
+        <v>0.9110977212228072</v>
+      </c>
+      <c r="U33">
+        <v>0.9254432755223685</v>
+      </c>
+      <c r="V33">
+        <v>0.9728737431757896</v>
+      </c>
+      <c r="W33">
+        <v>0.9551494175638159</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.080195077894737</v>
+      </c>
+      <c r="D34">
+        <v>0.3443973900000001</v>
+      </c>
+      <c r="E34">
+        <v>0.8672345984210523</v>
+      </c>
+      <c r="F34">
+        <v>0.8672345984210523</v>
+      </c>
+      <c r="G34">
+        <v>0.7640934242105264</v>
+      </c>
+      <c r="H34">
+        <v>1.536941284210527</v>
+      </c>
+      <c r="I34">
+        <v>1.835661583157895</v>
+      </c>
+      <c r="J34">
+        <v>0.07967040210526316</v>
+      </c>
+      <c r="K34">
+        <v>0.8672345984210523</v>
+      </c>
+      <c r="L34">
+        <v>0.07967040210526316</v>
+      </c>
+      <c r="M34">
+        <v>0.9254137836842103</v>
+      </c>
+      <c r="N34">
+        <v>0.8672345984210523</v>
+      </c>
+      <c r="O34">
+        <v>1.835661583157895</v>
+      </c>
+      <c r="P34">
+        <v>0.9576659926315791</v>
+      </c>
+      <c r="Q34">
+        <v>1.299877503684211</v>
+      </c>
+      <c r="R34">
+        <v>0.9275221945614035</v>
+      </c>
+      <c r="S34">
+        <v>0.8931418031578948</v>
+      </c>
+      <c r="T34">
+        <v>0.9275221945614035</v>
+      </c>
+      <c r="U34">
+        <v>0.8866650019736841</v>
+      </c>
+      <c r="V34">
+        <v>0.8827789212631577</v>
+      </c>
+      <c r="W34">
+        <v>0.9292009429605264</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.6895477908962198</v>
+      </c>
+      <c r="D35">
+        <v>0.5165772658913889</v>
+      </c>
+      <c r="E35">
+        <v>0.5746311198911516</v>
+      </c>
+      <c r="F35">
+        <v>0.5746311198911516</v>
+      </c>
+      <c r="G35">
+        <v>0.6241320123023031</v>
+      </c>
+      <c r="H35">
+        <v>1.558392446575936</v>
+      </c>
+      <c r="I35">
+        <v>2.334488502428642</v>
+      </c>
+      <c r="J35">
+        <v>0.4384009572864001</v>
+      </c>
+      <c r="K35">
+        <v>0.5746311198911516</v>
+      </c>
+      <c r="L35">
+        <v>0.4384009572864001</v>
+      </c>
+      <c r="M35">
+        <v>1.116029633047551</v>
+      </c>
+      <c r="N35">
+        <v>0.5746311198911516</v>
+      </c>
+      <c r="O35">
+        <v>2.334488502428642</v>
+      </c>
+      <c r="P35">
+        <v>1.386444729857521</v>
+      </c>
+      <c r="Q35">
+        <v>1.479310257365473</v>
+      </c>
+      <c r="R35">
+        <v>1.115840193202065</v>
+      </c>
+      <c r="S35">
+        <v>1.132340490672448</v>
+      </c>
+      <c r="T35">
+        <v>1.115840193202065</v>
+      </c>
+      <c r="U35">
+        <v>0.9929131479771242</v>
+      </c>
+      <c r="V35">
+        <v>0.9092567423599297</v>
+      </c>
+      <c r="W35">
+        <v>0.981524966039949</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.9992547141338782</v>
+      </c>
+      <c r="D36">
+        <v>1.000132505570221</v>
+      </c>
+      <c r="E36">
+        <v>1.002568196549281</v>
+      </c>
+      <c r="F36">
+        <v>1.002568196549281</v>
+      </c>
+      <c r="G36">
+        <v>0.9986582262901917</v>
+      </c>
+      <c r="H36">
+        <v>1.000081394997881</v>
+      </c>
+      <c r="I36">
+        <v>0.9999549673962463</v>
+      </c>
+      <c r="J36">
+        <v>1.002569372817762</v>
+      </c>
+      <c r="K36">
+        <v>1.002568196549281</v>
+      </c>
+      <c r="L36">
+        <v>1.002569372817762</v>
+      </c>
+      <c r="M36">
+        <v>0.9995401597421819</v>
+      </c>
+      <c r="N36">
+        <v>1.002568196549281</v>
+      </c>
+      <c r="O36">
+        <v>0.9999549673962463</v>
+      </c>
+      <c r="P36">
+        <v>1.001262170107004</v>
+      </c>
+      <c r="Q36">
+        <v>0.9993065968432191</v>
+      </c>
+      <c r="R36">
+        <v>1.00169751225443</v>
+      </c>
+      <c r="S36">
+        <v>1.000394188834733</v>
+      </c>
+      <c r="T36">
+        <v>1.00169751225443</v>
+      </c>
+      <c r="U36">
+        <v>1.00093769076337</v>
+      </c>
+      <c r="V36">
+        <v>1.001263791920552</v>
+      </c>
+      <c r="W36">
+        <v>1.000344942187205</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9998519917486244</v>
+      </c>
+      <c r="D37">
+        <v>0.998358653397906</v>
+      </c>
+      <c r="E37">
+        <v>0.9942278404790827</v>
+      </c>
+      <c r="F37">
+        <v>0.9942278404790827</v>
+      </c>
+      <c r="G37">
+        <v>1.000481183881084</v>
+      </c>
+      <c r="H37">
+        <v>1.001945830769981</v>
+      </c>
+      <c r="I37">
+        <v>1.004865952439826</v>
+      </c>
+      <c r="J37">
+        <v>0.9950098964396714</v>
+      </c>
+      <c r="K37">
+        <v>0.9942278404790827</v>
+      </c>
+      <c r="L37">
+        <v>0.9950098964396714</v>
+      </c>
+      <c r="M37">
+        <v>1.000998830602612</v>
+      </c>
+      <c r="N37">
+        <v>0.9942278404790827</v>
+      </c>
+      <c r="O37">
+        <v>1.004865952439826</v>
+      </c>
+      <c r="P37">
+        <v>0.9999379244397486</v>
+      </c>
+      <c r="Q37">
+        <v>1.002673568160455</v>
+      </c>
+      <c r="R37">
+        <v>0.9980345631195267</v>
+      </c>
+      <c r="S37">
+        <v>1.000119010920194</v>
+      </c>
+      <c r="T37">
+        <v>0.9980345631195267</v>
+      </c>
+      <c r="U37">
+        <v>0.9986462183099161</v>
+      </c>
+      <c r="V37">
+        <v>0.9977625427437495</v>
+      </c>
+      <c r="W37">
+        <v>0.9994675224698484</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.001003044900531</v>
+      </c>
+      <c r="D38">
+        <v>0.9999602249296138</v>
+      </c>
+      <c r="E38">
+        <v>1.021388714643142</v>
+      </c>
+      <c r="F38">
+        <v>1.021388714643142</v>
+      </c>
+      <c r="G38">
+        <v>0.9952341454814504</v>
+      </c>
+      <c r="H38">
+        <v>0.9987753325336417</v>
+      </c>
+      <c r="I38">
+        <v>0.9932278240663959</v>
+      </c>
+      <c r="J38">
+        <v>1.011349260273075</v>
+      </c>
+      <c r="K38">
+        <v>1.021388714643142</v>
+      </c>
+      <c r="L38">
+        <v>1.011349260273075</v>
+      </c>
+      <c r="M38">
+        <v>0.9939094335057164</v>
+      </c>
+      <c r="N38">
+        <v>1.021388714643142</v>
+      </c>
+      <c r="O38">
+        <v>0.9932278240663959</v>
+      </c>
+      <c r="P38">
+        <v>1.002288542169735</v>
+      </c>
+      <c r="Q38">
+        <v>0.9942309847739231</v>
+      </c>
+      <c r="R38">
+        <v>1.008655266327537</v>
+      </c>
+      <c r="S38">
+        <v>0.9999370766069737</v>
+      </c>
+      <c r="T38">
+        <v>1.008655266327538</v>
+      </c>
+      <c r="U38">
+        <v>1.005299986116016</v>
+      </c>
+      <c r="V38">
+        <v>1.008517731821441</v>
+      </c>
+      <c r="W38">
+        <v>1.001855997541696</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.000944606784274</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.004683622371274</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.07842615036152</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.07842615036152</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>0.9823431695876897</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.9948352657538432</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.969647771447771</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.04871228485737</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.07842615036152</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.04871228485737</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9774084313688234</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.07842615036152</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.969647771447771</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>1.009180028152571</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.9759954705177304</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.032262068888887</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>1.000234408630944</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.032262068888887</v>
       </c>
-      <c r="U23">
+      <c r="U39">
         <v>1.019782344063588</v>
       </c>
-      <c r="V23">
+      <c r="V39">
         <v>1.031511105323174</v>
       </c>
-      <c r="W23">
+      <c r="W39">
         <v>1.007125162816571</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.094179764227114</v>
+      </c>
+      <c r="D40">
+        <v>0.84684098789405</v>
+      </c>
+      <c r="E40">
+        <v>1.393947444614474</v>
+      </c>
+      <c r="F40">
+        <v>1.393947444614474</v>
+      </c>
+      <c r="G40">
+        <v>0.9300622241513122</v>
+      </c>
+      <c r="H40">
+        <v>1.059036676275722</v>
+      </c>
+      <c r="I40">
+        <v>0.9483778949276253</v>
+      </c>
+      <c r="J40">
+        <v>0.8035663353563733</v>
+      </c>
+      <c r="K40">
+        <v>1.393947444614474</v>
+      </c>
+      <c r="L40">
+        <v>0.8035663353563733</v>
+      </c>
+      <c r="M40">
+        <v>0.8929980342817293</v>
+      </c>
+      <c r="N40">
+        <v>1.393947444614474</v>
+      </c>
+      <c r="O40">
+        <v>0.9483778949276253</v>
+      </c>
+      <c r="P40">
+        <v>0.8759721151419992</v>
+      </c>
+      <c r="Q40">
+        <v>0.9392200595394687</v>
+      </c>
+      <c r="R40">
+        <v>1.048630558299491</v>
+      </c>
+      <c r="S40">
+        <v>0.8940021514784369</v>
+      </c>
+      <c r="T40">
+        <v>1.048630558299491</v>
+      </c>
+      <c r="U40">
+        <v>1.018988474762446</v>
+      </c>
+      <c r="V40">
+        <v>1.093980268732852</v>
+      </c>
+      <c r="W40">
+        <v>0.99612617021605</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.002194120414241</v>
+      </c>
+      <c r="D41">
+        <v>1.005817727335506</v>
+      </c>
+      <c r="E41">
+        <v>1.014293070971493</v>
+      </c>
+      <c r="F41">
+        <v>1.014293070971493</v>
+      </c>
+      <c r="G41">
+        <v>0.9989802889368665</v>
+      </c>
+      <c r="H41">
+        <v>0.9973440570089391</v>
+      </c>
+      <c r="I41">
+        <v>0.9905678078521089</v>
+      </c>
+      <c r="J41">
+        <v>1.020024598961413</v>
+      </c>
+      <c r="K41">
+        <v>1.014293070971493</v>
+      </c>
+      <c r="L41">
+        <v>1.020024598961413</v>
+      </c>
+      <c r="M41">
+        <v>0.9909101347300665</v>
+      </c>
+      <c r="N41">
+        <v>1.014293070971493</v>
+      </c>
+      <c r="O41">
+        <v>0.9905678078521089</v>
+      </c>
+      <c r="P41">
+        <v>1.005296203406761</v>
+      </c>
+      <c r="Q41">
+        <v>0.9947740483944877</v>
+      </c>
+      <c r="R41">
+        <v>1.008295159261672</v>
+      </c>
+      <c r="S41">
+        <v>1.003190898583463</v>
+      </c>
+      <c r="T41">
+        <v>1.008295159261671</v>
+      </c>
+      <c r="U41">
+        <v>1.00596644168047</v>
+      </c>
+      <c r="V41">
+        <v>1.007631767538675</v>
+      </c>
+      <c r="W41">
+        <v>1.002516475776329</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.092512156325408</v>
+      </c>
+      <c r="D42">
+        <v>0.8427748302121943</v>
+      </c>
+      <c r="E42">
+        <v>1.376998179955542</v>
+      </c>
+      <c r="F42">
+        <v>1.376998179955542</v>
+      </c>
+      <c r="G42">
+        <v>0.9335399640092266</v>
+      </c>
+      <c r="H42">
+        <v>1.059937708921326</v>
+      </c>
+      <c r="I42">
+        <v>0.9580287454966786</v>
+      </c>
+      <c r="J42">
+        <v>0.7853670744920468</v>
+      </c>
+      <c r="K42">
+        <v>1.376998179955542</v>
+      </c>
+      <c r="L42">
+        <v>0.7853670744920468</v>
+      </c>
+      <c r="M42">
+        <v>0.9021534074366457</v>
+      </c>
+      <c r="N42">
+        <v>1.376998179955542</v>
+      </c>
+      <c r="O42">
+        <v>0.9580287454966786</v>
+      </c>
+      <c r="P42">
+        <v>0.8716979099943627</v>
+      </c>
+      <c r="Q42">
+        <v>0.9457843547529525</v>
+      </c>
+      <c r="R42">
+        <v>1.040131333314756</v>
+      </c>
+      <c r="S42">
+        <v>0.8923119279993174</v>
+      </c>
+      <c r="T42">
+        <v>1.040131333314756</v>
+      </c>
+      <c r="U42">
+        <v>1.013483490988373</v>
+      </c>
+      <c r="V42">
+        <v>1.086186428781807</v>
+      </c>
+      <c r="W42">
+        <v>0.9939140083561335</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/BrassA-HW15.xlsx
+++ b/JupyterNotebooks/AvgHW/BrassA-HW15.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,42 +85,45 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
     <t>[3, 3, 3]</t>
   </si>
   <si>
@@ -95,12 +131,6 @@
   </si>
   <si>
     <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,38 +591,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,100 +600,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -701,70 +671,70 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.034184780817442</v>
+        <v>0.9991176947924765</v>
       </c>
       <c r="D3">
-        <v>1.009782547159598</v>
+        <v>0.9972617752057799</v>
       </c>
       <c r="E3">
-        <v>0.9930400826136377</v>
+        <v>0.9986121978214063</v>
       </c>
       <c r="F3">
-        <v>1.034184780817442</v>
+        <v>0.9986121978214063</v>
       </c>
       <c r="G3">
-        <v>0.9937824735296786</v>
+        <v>0.9982868807539823</v>
       </c>
       <c r="H3">
-        <v>1.002189213657766</v>
+        <v>1.002660429363951</v>
       </c>
       <c r="I3">
-        <v>1.034184780817442</v>
+        <v>1.005589384869923</v>
       </c>
       <c r="J3">
-        <v>1.009782547159598</v>
+        <v>0.9966353316291197</v>
       </c>
       <c r="K3">
-        <v>0.9856143457672772</v>
+        <v>0.9986121978214063</v>
       </c>
       <c r="L3">
-        <v>1.005076639192307</v>
+        <v>0.9966353316291197</v>
       </c>
       <c r="M3">
-        <v>0.9969267494003855</v>
+        <v>1.000330135556602</v>
       </c>
       <c r="N3">
-        <v>1.034184780817442</v>
+        <v>0.9986121978214063</v>
       </c>
       <c r="O3">
-        <v>0.9930400826136377</v>
+        <v>1.005589384869923</v>
       </c>
       <c r="P3">
-        <v>1.001411314886618</v>
+        <v>1.001112358249521</v>
       </c>
       <c r="Q3">
-        <v>0.9934112780716582</v>
+        <v>1.001938132811953</v>
       </c>
       <c r="R3">
-        <v>1.012335803530226</v>
+        <v>1.00027897144015</v>
       </c>
       <c r="S3">
-        <v>0.9988683677676381</v>
+        <v>1.000170532417675</v>
       </c>
       <c r="T3">
-        <v>1.012335803530226</v>
+        <v>1.00027897144015</v>
       </c>
       <c r="U3">
-        <v>1.007697471030089</v>
+        <v>0.9997809487686078</v>
       </c>
       <c r="V3">
-        <v>1.01299493298756</v>
+        <v>0.9995471985791674</v>
       </c>
       <c r="W3">
-        <v>1.002574604017262</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33">
+        <v>0.999811728749155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -772,70 +742,70 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.064648805751204</v>
+        <v>1.094179764227114</v>
       </c>
       <c r="D4">
-        <v>1.016575168863032</v>
+        <v>0.84684098789405</v>
       </c>
       <c r="E4">
-        <v>0.9858652682460139</v>
+        <v>1.393947444614474</v>
       </c>
       <c r="F4">
-        <v>1.064648805751204</v>
+        <v>1.393947444614474</v>
       </c>
       <c r="G4">
-        <v>0.988737153568139</v>
+        <v>0.9300622241513122</v>
       </c>
       <c r="H4">
-        <v>1.003798082228807</v>
+        <v>1.059036676275722</v>
       </c>
       <c r="I4">
-        <v>1.064648805751204</v>
+        <v>0.9483778949276253</v>
       </c>
       <c r="J4">
-        <v>1.016575168863032</v>
+        <v>0.8035663353563733</v>
       </c>
       <c r="K4">
-        <v>0.9732293911935003</v>
+        <v>1.393947444614474</v>
       </c>
       <c r="L4">
-        <v>1.010230300882503</v>
+        <v>0.8035663353563733</v>
       </c>
       <c r="M4">
-        <v>0.9937739662542305</v>
+        <v>0.8929980342817293</v>
       </c>
       <c r="N4">
-        <v>1.064648805751204</v>
+        <v>1.393947444614474</v>
       </c>
       <c r="O4">
-        <v>0.9858652682460139</v>
+        <v>0.9483778949276253</v>
       </c>
       <c r="P4">
-        <v>1.001220218554523</v>
+        <v>0.8759721151419992</v>
       </c>
       <c r="Q4">
-        <v>0.9873012109070765</v>
+        <v>0.9392200595394687</v>
       </c>
       <c r="R4">
-        <v>1.022363080953417</v>
+        <v>1.048630558299491</v>
       </c>
       <c r="S4">
-        <v>0.997059196892395</v>
+        <v>0.8940021514784369</v>
       </c>
       <c r="T4">
-        <v>1.022363080953417</v>
+        <v>1.048630558299491</v>
       </c>
       <c r="U4">
-        <v>1.013956599107097</v>
+        <v>1.018988474762446</v>
       </c>
       <c r="V4">
-        <v>1.024095040435919</v>
+        <v>1.093980268732852</v>
       </c>
       <c r="W4">
-        <v>1.004607267123429</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33">
+        <v>0.99612617021605</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -843,70 +813,70 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.123475943952965</v>
+        <v>0.9496240810951007</v>
       </c>
       <c r="D5">
-        <v>1.033446632919825</v>
+        <v>0.8645862032824198</v>
       </c>
       <c r="E5">
-        <v>0.9774775849464683</v>
+        <v>0.9385587097305502</v>
       </c>
       <c r="F5">
-        <v>1.123475943952965</v>
+        <v>0.9385587097305502</v>
       </c>
       <c r="G5">
-        <v>0.9771458970412681</v>
+        <v>0.9117540568443765</v>
       </c>
       <c r="H5">
-        <v>1.008645229380277</v>
+        <v>1.135859038919303</v>
       </c>
       <c r="I5">
-        <v>1.123475943952965</v>
+        <v>1.281581986397696</v>
       </c>
       <c r="J5">
-        <v>1.033446632919825</v>
+        <v>0.8304988063151272</v>
       </c>
       <c r="K5">
-        <v>0.9484618857258231</v>
+        <v>0.9385587097305502</v>
       </c>
       <c r="L5">
-        <v>1.017829260983971</v>
+        <v>0.8304988063151272</v>
       </c>
       <c r="M5">
-        <v>0.9878219964337852</v>
+        <v>1.016373610005765</v>
       </c>
       <c r="N5">
-        <v>1.123475943952965</v>
+        <v>0.9385587097305502</v>
       </c>
       <c r="O5">
-        <v>0.9774775849464683</v>
+        <v>1.281581986397696</v>
       </c>
       <c r="P5">
-        <v>1.005462108933147</v>
+        <v>1.056040396356412</v>
       </c>
       <c r="Q5">
-        <v>0.9773117409938682</v>
+        <v>1.096668021621036</v>
       </c>
       <c r="R5">
-        <v>1.044800053939753</v>
+        <v>1.016879834147791</v>
       </c>
       <c r="S5">
-        <v>0.9960233716358537</v>
+        <v>1.0079449498524</v>
       </c>
       <c r="T5">
-        <v>1.044800053939753</v>
+        <v>1.016879834147791</v>
       </c>
       <c r="U5">
-        <v>1.027886514715132</v>
+        <v>0.9905983898219376</v>
       </c>
       <c r="V5">
-        <v>1.047004400562698</v>
+        <v>0.9801904538036601</v>
       </c>
       <c r="W5">
-        <v>1.009288053923048</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33">
+        <v>0.9911045615737925</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -914,70 +884,70 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.185230857356069</v>
+        <v>0.6895477908962198</v>
       </c>
       <c r="D6">
-        <v>1.052271550796229</v>
+        <v>0.5165772658913889</v>
       </c>
       <c r="E6">
-        <v>0.9753329499587549</v>
+        <v>0.5746311198911516</v>
       </c>
       <c r="F6">
-        <v>1.185230857356069</v>
+        <v>0.5746311198911516</v>
       </c>
       <c r="G6">
-        <v>0.9714257137736538</v>
+        <v>0.6241320123023031</v>
       </c>
       <c r="H6">
-        <v>1.012551251230057</v>
+        <v>1.558392446575936</v>
       </c>
       <c r="I6">
-        <v>1.185230857356069</v>
+        <v>2.334488502428642</v>
       </c>
       <c r="J6">
-        <v>1.052271550796229</v>
+        <v>0.4384009572864001</v>
       </c>
       <c r="K6">
-        <v>0.9194209674196385</v>
+        <v>0.5746311198911516</v>
       </c>
       <c r="L6">
-        <v>1.025956378605659</v>
+        <v>0.4384009572864001</v>
       </c>
       <c r="M6">
-        <v>0.9837915024782443</v>
+        <v>1.116029633047551</v>
       </c>
       <c r="N6">
-        <v>1.185230857356069</v>
+        <v>0.5746311198911516</v>
       </c>
       <c r="O6">
-        <v>0.9753329499587549</v>
+        <v>2.334488502428642</v>
       </c>
       <c r="P6">
-        <v>1.013802250377492</v>
+        <v>1.386444729857521</v>
       </c>
       <c r="Q6">
-        <v>0.9733793318662043</v>
+        <v>1.479310257365473</v>
       </c>
       <c r="R6">
-        <v>1.070945119370351</v>
+        <v>1.115840193202065</v>
       </c>
       <c r="S6">
-        <v>0.9996767381762125</v>
+        <v>1.132340490672448</v>
       </c>
       <c r="T6">
-        <v>1.070945119370351</v>
+        <v>1.115840193202065</v>
       </c>
       <c r="U6">
-        <v>1.046065267971176</v>
+        <v>0.9929131479771242</v>
       </c>
       <c r="V6">
-        <v>1.073898385848155</v>
+        <v>0.9092567423599297</v>
       </c>
       <c r="W6">
-        <v>1.015747646452288</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33">
+        <v>0.981524966039949</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,70 +955,70 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9993000401394641</v>
+        <v>1.007805160458022</v>
       </c>
       <c r="D7">
-        <v>0.9987886192712012</v>
+        <v>0.9942583551128454</v>
       </c>
       <c r="E7">
-        <v>1.002408384155498</v>
+        <v>1.035452976207047</v>
       </c>
       <c r="F7">
-        <v>0.9993000401394641</v>
+        <v>1.035452976207047</v>
       </c>
       <c r="G7">
-        <v>0.999353572165429</v>
+        <v>0.9942887051879248</v>
       </c>
       <c r="H7">
-        <v>1.001049139524325</v>
+        <v>1.003158958140791</v>
       </c>
       <c r="I7">
-        <v>0.9993000401394641</v>
+        <v>0.9913944059004934</v>
       </c>
       <c r="J7">
-        <v>0.9987886192712012</v>
+        <v>1.004371510512359</v>
       </c>
       <c r="K7">
-        <v>1.000139451642618</v>
+        <v>1.035452976207047</v>
       </c>
       <c r="L7">
-        <v>0.9995557898551972</v>
+        <v>1.004371510512359</v>
       </c>
       <c r="M7">
-        <v>0.999022137664182</v>
+        <v>0.9846619795854696</v>
       </c>
       <c r="N7">
-        <v>0.9993000401394641</v>
+        <v>1.035452976207047</v>
       </c>
       <c r="O7">
-        <v>1.002408384155498</v>
+        <v>0.9913944059004934</v>
       </c>
       <c r="P7">
-        <v>1.00059850171335</v>
+        <v>0.9978829582064259</v>
       </c>
       <c r="Q7">
-        <v>1.000880978160463</v>
+        <v>0.9928415555442092</v>
       </c>
       <c r="R7">
-        <v>1.000165681188721</v>
+        <v>1.010406297539966</v>
       </c>
       <c r="S7">
-        <v>1.000183525197376</v>
+        <v>0.9966848738669256</v>
       </c>
       <c r="T7">
-        <v>1.000165681188721</v>
+        <v>1.010406297539966</v>
       </c>
       <c r="U7">
-        <v>0.9999626539328981</v>
+        <v>1.006376899451956</v>
       </c>
       <c r="V7">
-        <v>0.9998301311742113</v>
+        <v>1.012192114802974</v>
       </c>
       <c r="W7">
-        <v>0.9999521418022391</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33">
+        <v>1.001924006388119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1056,70 +1026,70 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9986121978214065</v>
+        <v>0.9998519917486244</v>
       </c>
       <c r="D8">
-        <v>0.9966353316291208</v>
+        <v>0.998358653397906</v>
       </c>
       <c r="E8">
-        <v>1.005589384869922</v>
+        <v>0.9942278404790827</v>
       </c>
       <c r="F8">
-        <v>0.9986121978214065</v>
+        <v>0.9942278404790827</v>
       </c>
       <c r="G8">
-        <v>0.9982868807539825</v>
+        <v>1.000481183881084</v>
       </c>
       <c r="H8">
-        <v>1.002660429363951</v>
+        <v>1.001945830769981</v>
       </c>
       <c r="I8">
-        <v>0.9986121978214065</v>
+        <v>1.004865952439826</v>
       </c>
       <c r="J8">
-        <v>0.9966353316291208</v>
+        <v>0.9950098964396714</v>
       </c>
       <c r="K8">
-        <v>1.000330135556602</v>
+        <v>0.9942278404790827</v>
       </c>
       <c r="L8">
-        <v>0.9991176947924764</v>
+        <v>0.9950098964396714</v>
       </c>
       <c r="M8">
-        <v>0.9972617752057797</v>
+        <v>1.000998830602612</v>
       </c>
       <c r="N8">
-        <v>0.9986121978214065</v>
+        <v>0.9942278404790827</v>
       </c>
       <c r="O8">
-        <v>1.005589384869922</v>
+        <v>1.004865952439826</v>
       </c>
       <c r="P8">
-        <v>1.001112358249522</v>
+        <v>0.9999379244397486</v>
       </c>
       <c r="Q8">
-        <v>1.001938132811952</v>
+        <v>1.002673568160455</v>
       </c>
       <c r="R8">
-        <v>1.00027897144015</v>
+        <v>0.9980345631195267</v>
       </c>
       <c r="S8">
-        <v>1.000170532417675</v>
+        <v>1.000119010920194</v>
       </c>
       <c r="T8">
-        <v>1.00027897144015</v>
+        <v>0.9980345631195267</v>
       </c>
       <c r="U8">
-        <v>0.999780948768608</v>
+        <v>0.9986462183099161</v>
       </c>
       <c r="V8">
-        <v>0.9995471985791677</v>
+        <v>0.9977625427437495</v>
       </c>
       <c r="W8">
-        <v>0.999811728749155</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33">
+        <v>0.9994675224698484</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1127,70 +1097,70 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9982572635879725</v>
+        <v>1.010230300882503</v>
       </c>
       <c r="D9">
-        <v>0.9951639654324528</v>
+        <v>0.9937739662542305</v>
       </c>
       <c r="E9">
-        <v>1.006751626341229</v>
+        <v>1.064648805751204</v>
       </c>
       <c r="F9">
-        <v>0.9982572635879725</v>
+        <v>1.064648805751204</v>
       </c>
       <c r="G9">
-        <v>0.9982741490395067</v>
+        <v>0.988737153568139</v>
       </c>
       <c r="H9">
-        <v>1.003282713502156</v>
+        <v>1.003798082228807</v>
       </c>
       <c r="I9">
-        <v>0.9982572635879725</v>
+        <v>0.9858652682460139</v>
       </c>
       <c r="J9">
-        <v>0.9951639654324528</v>
+        <v>1.016575168863032</v>
       </c>
       <c r="K9">
-        <v>1.000098393470194</v>
+        <v>1.064648805751204</v>
       </c>
       <c r="L9">
-        <v>0.999491286288444</v>
+        <v>1.016575168863032</v>
       </c>
       <c r="M9">
-        <v>0.9964165383512523</v>
+        <v>0.9732293911935003</v>
       </c>
       <c r="N9">
-        <v>0.9982572635879725</v>
+        <v>1.064648805751204</v>
       </c>
       <c r="O9">
-        <v>1.006751626341229</v>
+        <v>0.9858652682460139</v>
       </c>
       <c r="P9">
-        <v>1.000957795886841</v>
+        <v>1.001220218554523</v>
       </c>
       <c r="Q9">
-        <v>1.002512887690368</v>
+        <v>0.9873012109070765</v>
       </c>
       <c r="R9">
-        <v>1.000057618453885</v>
+        <v>1.022363080953417</v>
       </c>
       <c r="S9">
-        <v>1.00006324693773</v>
+        <v>0.997059196892395</v>
       </c>
       <c r="T9">
-        <v>1.000057618453885</v>
+        <v>1.022363080953417</v>
       </c>
       <c r="U9">
-        <v>0.9996117511002903</v>
+        <v>1.013956599107097</v>
       </c>
       <c r="V9">
-        <v>0.9993408535978269</v>
+        <v>1.024095040435919</v>
       </c>
       <c r="W9">
-        <v>0.9997169920016509</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33">
+        <v>1.004607267123429</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1198,70 +1168,70 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9960206291820484</v>
+        <v>0.6719562618362336</v>
       </c>
       <c r="D10">
-        <v>0.9896957661279998</v>
+        <v>0.5058993253874201</v>
       </c>
       <c r="E10">
-        <v>1.015795417883973</v>
+        <v>0.5598218477453342</v>
       </c>
       <c r="F10">
-        <v>0.9960206291820484</v>
+        <v>0.5598218477453342</v>
       </c>
       <c r="G10">
-        <v>0.9957385993562856</v>
+        <v>0.6048625485251896</v>
       </c>
       <c r="H10">
-        <v>1.00748624948551</v>
+        <v>1.578318720420544</v>
       </c>
       <c r="I10">
-        <v>0.9960206291820484</v>
+        <v>2.381223587597018</v>
       </c>
       <c r="J10">
-        <v>0.9896957661279998</v>
+        <v>0.4432903691184163</v>
       </c>
       <c r="K10">
-        <v>1.000437595087534</v>
+        <v>0.5598218477453342</v>
       </c>
       <c r="L10">
-        <v>0.9982637661936912</v>
+        <v>0.4432903691184163</v>
       </c>
       <c r="M10">
-        <v>0.9921153458270253</v>
+        <v>1.118579266126613</v>
       </c>
       <c r="N10">
-        <v>0.9960206291820484</v>
+        <v>0.5598218477453342</v>
       </c>
       <c r="O10">
-        <v>1.015795417883973</v>
+        <v>2.381223587597018</v>
       </c>
       <c r="P10">
-        <v>1.002745592005986</v>
+        <v>1.412256978357717</v>
       </c>
       <c r="Q10">
-        <v>1.005767008620129</v>
+        <v>1.493043068061104</v>
       </c>
       <c r="R10">
-        <v>1.00050393773134</v>
+        <v>1.128111934820256</v>
       </c>
       <c r="S10">
-        <v>1.000409927789419</v>
+        <v>1.143125501746875</v>
       </c>
       <c r="T10">
-        <v>1.00050393773134</v>
+        <v>1.128111934820256</v>
       </c>
       <c r="U10">
-        <v>0.9993126031375766</v>
+        <v>0.9972995882464897</v>
       </c>
       <c r="V10">
-        <v>0.9986542083464709</v>
+        <v>0.9098040401462585</v>
       </c>
       <c r="W10">
-        <v>0.9994441711430084</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33">
+        <v>0.9829939908445963</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1269,70 +1239,70 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.994714247401444</v>
+        <v>1.097123501974107</v>
       </c>
       <c r="D11">
-        <v>0.9828778802514809</v>
+        <v>0.8525892249866303</v>
       </c>
       <c r="E11">
-        <v>1.022844243876272</v>
+        <v>1.418577533739412</v>
       </c>
       <c r="F11">
-        <v>0.994714247401444</v>
+        <v>1.418577533739412</v>
       </c>
       <c r="G11">
-        <v>0.9936684957399184</v>
+        <v>0.9262804490916212</v>
       </c>
       <c r="H11">
-        <v>1.011435627854949</v>
+        <v>1.057099063546072</v>
       </c>
       <c r="I11">
-        <v>0.994714247401444</v>
+        <v>0.9352747420420978</v>
       </c>
       <c r="J11">
-        <v>0.9828778802514809</v>
+        <v>0.8286653604478859</v>
       </c>
       <c r="K11">
-        <v>1.000287697082143</v>
+        <v>1.418577533739412</v>
       </c>
       <c r="L11">
-        <v>0.9985596438922864</v>
+        <v>0.8286653604478859</v>
       </c>
       <c r="M11">
-        <v>0.9871307092222511</v>
+        <v>0.879741488245887</v>
       </c>
       <c r="N11">
-        <v>0.994714247401444</v>
+        <v>1.418577533739412</v>
       </c>
       <c r="O11">
-        <v>1.022844243876272</v>
+        <v>0.9352747420420978</v>
       </c>
       <c r="P11">
-        <v>1.002861062063876</v>
+        <v>0.8819700512449918</v>
       </c>
       <c r="Q11">
-        <v>1.008256369808095</v>
+        <v>0.9307775955668596</v>
       </c>
       <c r="R11">
-        <v>1.000145457176399</v>
+        <v>1.060839212076465</v>
       </c>
       <c r="S11">
-        <v>0.9997968732892238</v>
+        <v>0.896740183860535</v>
       </c>
       <c r="T11">
-        <v>1.000145457176399</v>
+        <v>1.060839212076465</v>
       </c>
       <c r="U11">
-        <v>0.9985262168172789</v>
+        <v>1.027199521330254</v>
       </c>
       <c r="V11">
-        <v>0.9977638229341119</v>
+        <v>1.105475123812086</v>
       </c>
       <c r="W11">
-        <v>0.9989398181650931</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33">
+        <v>0.999418920509214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1340,70 +1310,70 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.570472381390284</v>
+        <v>0.9002812279263153</v>
       </c>
       <c r="D12">
-        <v>1.712027806894615</v>
+        <v>0.8402683013263151</v>
       </c>
       <c r="E12">
-        <v>0.434572478115562</v>
+        <v>0.8549998841515815</v>
       </c>
       <c r="F12">
-        <v>1.570472381390284</v>
+        <v>0.8549998841515815</v>
       </c>
       <c r="G12">
-        <v>0.9972596984654541</v>
+        <v>0.8756672451578918</v>
       </c>
       <c r="H12">
-        <v>0.7820284194240963</v>
+        <v>1.183137951178944</v>
       </c>
       <c r="I12">
-        <v>1.570472381390284</v>
+        <v>1.415916382157898</v>
       </c>
       <c r="J12">
-        <v>1.712027806894615</v>
+        <v>0.8194645293968411</v>
       </c>
       <c r="K12">
-        <v>0.7748624597106963</v>
+        <v>0.8549998841515815</v>
       </c>
       <c r="L12">
-        <v>1.066535999356658</v>
+        <v>0.8194645293968411</v>
       </c>
       <c r="M12">
-        <v>1.281828405173791</v>
+        <v>1.041322647094737</v>
       </c>
       <c r="N12">
-        <v>1.570472381390284</v>
+        <v>0.8549998841515815</v>
       </c>
       <c r="O12">
-        <v>0.434572478115562</v>
+        <v>1.415916382157898</v>
       </c>
       <c r="P12">
-        <v>1.073300142505088</v>
+        <v>1.117690455777369</v>
       </c>
       <c r="Q12">
-        <v>0.7159160882905081</v>
+        <v>1.145791813657895</v>
       </c>
       <c r="R12">
-        <v>1.239024222133487</v>
+        <v>1.030126931902107</v>
       </c>
       <c r="S12">
-        <v>1.04795332782521</v>
+        <v>1.037016052237544</v>
       </c>
       <c r="T12">
-        <v>1.239024222133487</v>
+        <v>1.030126931902107</v>
       </c>
       <c r="U12">
-        <v>1.178583091216479</v>
+        <v>0.9915120102160531</v>
       </c>
       <c r="V12">
-        <v>1.25696094925124</v>
+        <v>0.9642095850031588</v>
       </c>
       <c r="W12">
-        <v>1.077448456066395</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33">
+        <v>0.9913822710488154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1411,70 +1381,70 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.5878682905610632</v>
+        <v>0.9726770473208149</v>
       </c>
       <c r="D13">
-        <v>0.7468720463360872</v>
+        <v>1.067659377690279</v>
       </c>
       <c r="E13">
-        <v>1.135409884884489</v>
+        <v>0.9865068463743681</v>
       </c>
       <c r="F13">
-        <v>0.5878682905610632</v>
+        <v>0.9865068463743681</v>
       </c>
       <c r="G13">
-        <v>1.111690867589363</v>
+        <v>0.9983094285822801</v>
       </c>
       <c r="H13">
-        <v>1.013773015973161</v>
+        <v>0.9689384937561577</v>
       </c>
       <c r="I13">
-        <v>0.5878682905610632</v>
+        <v>0.9629961491122336</v>
       </c>
       <c r="J13">
-        <v>0.7468720463360872</v>
+        <v>1.155379805272518</v>
       </c>
       <c r="K13">
-        <v>1.121567671481623</v>
+        <v>0.9865068463743681</v>
       </c>
       <c r="L13">
-        <v>1.005941962080059</v>
+        <v>1.155379805272518</v>
       </c>
       <c r="M13">
-        <v>0.9729919748266308</v>
+        <v>0.9952545880622586</v>
       </c>
       <c r="N13">
-        <v>0.5878682905610632</v>
+        <v>0.9865068463743681</v>
       </c>
       <c r="O13">
-        <v>1.135409884884489</v>
+        <v>0.9629961491122336</v>
       </c>
       <c r="P13">
-        <v>0.9411409656102879</v>
+        <v>1.059187977192376</v>
       </c>
       <c r="Q13">
-        <v>1.123550376236926</v>
+        <v>0.9806527888472569</v>
       </c>
       <c r="R13">
-        <v>0.8233834072605464</v>
+        <v>1.034960933586373</v>
       </c>
       <c r="S13">
-        <v>0.9979909329366462</v>
+        <v>1.038895127655677</v>
       </c>
       <c r="T13">
-        <v>0.8233834072605463</v>
+        <v>1.034960933586373</v>
       </c>
       <c r="U13">
-        <v>0.8954602723427503</v>
+        <v>1.02579805733535</v>
       </c>
       <c r="V13">
-        <v>0.8339418759864129</v>
+        <v>1.017939815143154</v>
       </c>
       <c r="W13">
-        <v>0.9620144642165596</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33">
+        <v>1.013465217021364</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1482,70 +1452,70 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.5180737303226072</v>
+        <v>0.4216041200000005</v>
       </c>
       <c r="D14">
-        <v>1.414592299260681</v>
+        <v>0.1424155799999999</v>
       </c>
       <c r="E14">
-        <v>0.6412291295253981</v>
+        <v>0.2138068799999999</v>
       </c>
       <c r="F14">
-        <v>0.5180737303226072</v>
+        <v>0.2138068799999999</v>
       </c>
       <c r="G14">
-        <v>1.283954946091435</v>
+        <v>0.31618718</v>
       </c>
       <c r="H14">
-        <v>0.6607143973049976</v>
+        <v>2.008686600000002</v>
       </c>
       <c r="I14">
-        <v>0.5180737303226072</v>
+        <v>3.442862200000002</v>
       </c>
       <c r="J14">
-        <v>1.414592299260681</v>
+        <v>0.02330075600000002</v>
       </c>
       <c r="K14">
-        <v>1.170067800750828</v>
+        <v>0.2138068799999999</v>
       </c>
       <c r="L14">
-        <v>0.9666321048364052</v>
+        <v>0.02330075600000002</v>
       </c>
       <c r="M14">
-        <v>1.424708597885408</v>
+        <v>1.209990899999999</v>
       </c>
       <c r="N14">
-        <v>0.5180737303226072</v>
+        <v>0.2138068799999999</v>
       </c>
       <c r="O14">
-        <v>0.6412291295253981</v>
+        <v>3.442862200000002</v>
       </c>
       <c r="P14">
-        <v>1.02791071439304</v>
+        <v>1.733081478000001</v>
       </c>
       <c r="Q14">
-        <v>0.9625920378084167</v>
+        <v>1.879524690000001</v>
       </c>
       <c r="R14">
-        <v>0.8579650530362288</v>
+        <v>1.226656612000001</v>
       </c>
       <c r="S14">
-        <v>1.113258791625838</v>
+        <v>1.260783378666667</v>
       </c>
       <c r="T14">
-        <v>0.8579650530362288</v>
+        <v>1.226656612000001</v>
       </c>
       <c r="U14">
-        <v>0.9644625263000305</v>
+        <v>0.9990392540000006</v>
       </c>
       <c r="V14">
-        <v>0.8751847671045458</v>
+        <v>0.8419927792000005</v>
       </c>
       <c r="W14">
-        <v>1.00999662574722</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33">
+        <v>0.9723567770000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1553,70 +1523,70 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.988250631918999</v>
+        <v>1.8268372</v>
       </c>
       <c r="D15">
-        <v>1.4684885838724</v>
+        <v>0.57118725</v>
       </c>
       <c r="E15">
-        <v>1.160614125541454</v>
+        <v>1.6024769</v>
       </c>
       <c r="F15">
-        <v>0.988250631918999</v>
+        <v>1.6024769</v>
       </c>
       <c r="G15">
-        <v>0.8493945629815767</v>
+        <v>1.2882547</v>
       </c>
       <c r="H15">
-        <v>1.045033107348854</v>
+        <v>0.9614322199999999</v>
       </c>
       <c r="I15">
-        <v>0.988250631918999</v>
+        <v>0.42160409</v>
       </c>
       <c r="J15">
-        <v>1.4684885838724</v>
+        <v>0.14231852</v>
       </c>
       <c r="K15">
-        <v>0.9866067471742133</v>
+        <v>1.6024769</v>
       </c>
       <c r="L15">
-        <v>0.8046703395088916</v>
+        <v>0.14231852</v>
       </c>
       <c r="M15">
-        <v>1.10612888525521</v>
+        <v>0.58090771</v>
       </c>
       <c r="N15">
-        <v>0.988250631918999</v>
+        <v>1.6024769</v>
       </c>
       <c r="O15">
-        <v>1.160614125541454</v>
+        <v>0.42160409</v>
       </c>
       <c r="P15">
-        <v>1.314551354706927</v>
+        <v>0.281961305</v>
       </c>
       <c r="Q15">
-        <v>1.005004344261515</v>
+        <v>0.854929395</v>
       </c>
       <c r="R15">
-        <v>1.205784447110951</v>
+        <v>0.7221331700000001</v>
       </c>
       <c r="S15">
-        <v>1.159499090798477</v>
+        <v>0.6173924366666667</v>
       </c>
       <c r="T15">
-        <v>1.205784447110951</v>
+        <v>0.7221331699999999</v>
       </c>
       <c r="U15">
-        <v>1.116686976078607</v>
+        <v>0.8636635524999999</v>
       </c>
       <c r="V15">
-        <v>1.090999707246686</v>
+        <v>1.011426222</v>
       </c>
       <c r="W15">
-        <v>1.0511483729502</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33">
+        <v>0.9243773237499999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1624,67 +1594,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.002568196549281</v>
+        <v>1.6025524</v>
       </c>
       <c r="D16">
-        <v>1.002569372817762</v>
+        <v>0.044891432</v>
       </c>
       <c r="E16">
-        <v>0.9999549673962461</v>
+        <v>5.1660044</v>
       </c>
       <c r="F16">
-        <v>1.002568196549281</v>
+        <v>5.1660044</v>
       </c>
       <c r="G16">
-        <v>0.9986582262901917</v>
+        <v>0.34611211</v>
       </c>
       <c r="H16">
-        <v>1.000081394997881</v>
+        <v>1.1595382</v>
       </c>
       <c r="I16">
-        <v>1.002568196549281</v>
+        <v>0.21380688</v>
       </c>
       <c r="J16">
-        <v>1.002569372817762</v>
+        <v>0.0017993233</v>
       </c>
       <c r="K16">
-        <v>0.9995401597421818</v>
+        <v>5.1660044</v>
       </c>
       <c r="L16">
-        <v>0.9992547141338782</v>
+        <v>0.0017993233</v>
       </c>
       <c r="M16">
-        <v>1.000132505570221</v>
+        <v>0.082419669</v>
       </c>
       <c r="N16">
-        <v>1.002568196549281</v>
+        <v>5.1660044</v>
       </c>
       <c r="O16">
-        <v>0.9999549673962461</v>
+        <v>0.21380688</v>
       </c>
       <c r="P16">
-        <v>1.001262170107004</v>
+        <v>0.10780310165</v>
       </c>
       <c r="Q16">
-        <v>0.9993065968432189</v>
+        <v>0.279959495</v>
       </c>
       <c r="R16">
-        <v>1.001697512254429</v>
+        <v>1.7938702011</v>
       </c>
       <c r="S16">
-        <v>1.000394188834733</v>
+        <v>0.1872394377666667</v>
       </c>
       <c r="T16">
-        <v>1.001697512254429</v>
+        <v>1.7938702011</v>
       </c>
       <c r="U16">
-        <v>1.00093769076337</v>
+        <v>1.431930678325</v>
       </c>
       <c r="V16">
-        <v>1.001263791920552</v>
+        <v>2.17874542266</v>
       </c>
       <c r="W16">
-        <v>1.000344942187205</v>
+        <v>1.0771405517875</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1695,67 +1665,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.994227840479083</v>
+        <v>0.8764151200000001</v>
       </c>
       <c r="D17">
-        <v>0.9950098964396709</v>
+        <v>0.75391861</v>
       </c>
       <c r="E17">
-        <v>1.004865952439825</v>
+        <v>0.32250095</v>
       </c>
       <c r="F17">
-        <v>0.994227840479083</v>
+        <v>0.32250095</v>
       </c>
       <c r="G17">
-        <v>1.000481183881084</v>
+        <v>1.0291422</v>
       </c>
       <c r="H17">
-        <v>1.001945830769981</v>
+        <v>1.0839669</v>
       </c>
       <c r="I17">
-        <v>0.994227840479083</v>
+        <v>1.4420139</v>
       </c>
       <c r="J17">
-        <v>0.9950098964396709</v>
+        <v>0.3206147400000001</v>
       </c>
       <c r="K17">
-        <v>1.000998830602612</v>
+        <v>0.32250095</v>
       </c>
       <c r="L17">
-        <v>0.9998519917486244</v>
+        <v>0.3206147400000001</v>
       </c>
       <c r="M17">
-        <v>0.998358653397906</v>
+        <v>1.4215018</v>
       </c>
       <c r="N17">
-        <v>0.994227840479083</v>
+        <v>0.32250095</v>
       </c>
       <c r="O17">
-        <v>1.004865952439825</v>
+        <v>1.4420139</v>
       </c>
       <c r="P17">
-        <v>0.9999379244397482</v>
+        <v>0.8813143200000001</v>
       </c>
       <c r="Q17">
-        <v>1.002673568160455</v>
+        <v>1.23557805</v>
       </c>
       <c r="R17">
-        <v>0.9980345631195263</v>
+        <v>0.6950431966666667</v>
       </c>
       <c r="S17">
-        <v>1.000119010920194</v>
+        <v>0.93059028</v>
       </c>
       <c r="T17">
-        <v>0.9980345631195263</v>
+        <v>0.6950431966666667</v>
       </c>
       <c r="U17">
-        <v>0.9986462183099158</v>
+        <v>0.7785679475</v>
       </c>
       <c r="V17">
-        <v>0.9977625427437493</v>
+        <v>0.6873545480000001</v>
       </c>
       <c r="W17">
-        <v>0.9994675224698483</v>
+        <v>0.9062592775</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1766,67 +1736,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.021388714643141</v>
+        <v>1.150611023013699</v>
       </c>
       <c r="D18">
-        <v>1.011349260273075</v>
+        <v>0.9339312373972601</v>
       </c>
       <c r="E18">
-        <v>0.9932278240663961</v>
+        <v>1.827175682465754</v>
       </c>
       <c r="F18">
-        <v>1.021388714643141</v>
+        <v>1.827175682465754</v>
       </c>
       <c r="G18">
-        <v>0.9952341454814503</v>
+        <v>0.8770005572602743</v>
       </c>
       <c r="H18">
-        <v>0.998775332533642</v>
+        <v>1.02620648739726</v>
       </c>
       <c r="I18">
-        <v>1.021388714643141</v>
+        <v>0.7603326645205484</v>
       </c>
       <c r="J18">
-        <v>1.011349260273075</v>
+        <v>1.209934584994521</v>
       </c>
       <c r="K18">
-        <v>0.9939094335057166</v>
+        <v>1.827175682465754</v>
       </c>
       <c r="L18">
-        <v>1.001003044900531</v>
+        <v>1.209934584994521</v>
       </c>
       <c r="M18">
-        <v>0.999960224929614</v>
+        <v>0.6594259554520545</v>
       </c>
       <c r="N18">
-        <v>1.021388714643141</v>
+        <v>1.827175682465754</v>
       </c>
       <c r="O18">
-        <v>0.9932278240663961</v>
+        <v>0.7603326645205484</v>
       </c>
       <c r="P18">
-        <v>1.002288542169735</v>
+        <v>0.9851336247575345</v>
       </c>
       <c r="Q18">
-        <v>0.9942309847739232</v>
+        <v>0.8186666108904113</v>
       </c>
       <c r="R18">
-        <v>1.008655266327537</v>
+        <v>1.265814310660274</v>
       </c>
       <c r="S18">
-        <v>0.9999370766069737</v>
+        <v>0.9490892689251145</v>
       </c>
       <c r="T18">
-        <v>1.008655266327537</v>
+        <v>1.265814310660274</v>
       </c>
       <c r="U18">
-        <v>1.005299986116015</v>
+        <v>1.168610872310274</v>
       </c>
       <c r="V18">
-        <v>1.008517731821441</v>
+        <v>1.30032383434137</v>
       </c>
       <c r="W18">
-        <v>1.001855997541696</v>
+        <v>1.055577274062671</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1837,67 +1807,777 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.07842615036152</v>
+        <v>1.057789206315789</v>
       </c>
       <c r="D19">
-        <v>1.04871228485737</v>
+        <v>0.7234640074210527</v>
       </c>
       <c r="E19">
-        <v>0.969647771447771</v>
+        <v>1.162595613789474</v>
       </c>
       <c r="F19">
-        <v>1.07842615036152</v>
+        <v>1.162595613789474</v>
       </c>
       <c r="G19">
-        <v>0.9823431695876897</v>
+        <v>0.9684799384210525</v>
       </c>
       <c r="H19">
-        <v>0.9948352657538432</v>
+        <v>1.093438847894737</v>
       </c>
       <c r="I19">
-        <v>1.07842615036152</v>
+        <v>1.177367331578948</v>
       </c>
       <c r="J19">
-        <v>1.04871228485737</v>
+        <v>0.3933302183000001</v>
       </c>
       <c r="K19">
-        <v>0.9774084313688234</v>
+        <v>1.162595613789474</v>
       </c>
       <c r="L19">
-        <v>1.000944606784274</v>
+        <v>0.3933302183000001</v>
       </c>
       <c r="M19">
-        <v>1.004683622371274</v>
+        <v>1.064730176789474</v>
       </c>
       <c r="N19">
-        <v>1.07842615036152</v>
+        <v>1.162595613789474</v>
       </c>
       <c r="O19">
-        <v>0.969647771447771</v>
+        <v>1.177367331578948</v>
       </c>
       <c r="P19">
-        <v>1.009180028152571</v>
+        <v>0.7853487749394739</v>
       </c>
       <c r="Q19">
-        <v>0.9759954705177304</v>
+        <v>1.072923635</v>
       </c>
       <c r="R19">
-        <v>1.032262068888887</v>
+        <v>0.9110977212228072</v>
       </c>
       <c r="S19">
-        <v>1.000234408630944</v>
+        <v>0.8463924961</v>
       </c>
       <c r="T19">
-        <v>1.032262068888887</v>
+        <v>0.9110977212228072</v>
       </c>
       <c r="U19">
-        <v>1.019782344063588</v>
+        <v>0.9254432755223685</v>
       </c>
       <c r="V19">
-        <v>1.031511105323174</v>
+        <v>0.9728737431757896</v>
       </c>
       <c r="W19">
-        <v>1.007125162816571</v>
+        <v>0.9551494175638159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.080195077894737</v>
+      </c>
+      <c r="D20">
+        <v>0.3443973900000001</v>
+      </c>
+      <c r="E20">
+        <v>0.8672345984210523</v>
+      </c>
+      <c r="F20">
+        <v>0.8672345984210523</v>
+      </c>
+      <c r="G20">
+        <v>0.7640934242105264</v>
+      </c>
+      <c r="H20">
+        <v>1.536941284210527</v>
+      </c>
+      <c r="I20">
+        <v>1.835661583157895</v>
+      </c>
+      <c r="J20">
+        <v>0.07967040210526316</v>
+      </c>
+      <c r="K20">
+        <v>0.8672345984210523</v>
+      </c>
+      <c r="L20">
+        <v>0.07967040210526316</v>
+      </c>
+      <c r="M20">
+        <v>0.9254137836842103</v>
+      </c>
+      <c r="N20">
+        <v>0.8672345984210523</v>
+      </c>
+      <c r="O20">
+        <v>1.835661583157895</v>
+      </c>
+      <c r="P20">
+        <v>0.9576659926315791</v>
+      </c>
+      <c r="Q20">
+        <v>1.299877503684211</v>
+      </c>
+      <c r="R20">
+        <v>0.9275221945614035</v>
+      </c>
+      <c r="S20">
+        <v>0.8931418031578948</v>
+      </c>
+      <c r="T20">
+        <v>0.9275221945614035</v>
+      </c>
+      <c r="U20">
+        <v>0.8866650019736841</v>
+      </c>
+      <c r="V20">
+        <v>0.8827789212631577</v>
+      </c>
+      <c r="W20">
+        <v>0.9292009429605264</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9666321048364052</v>
+      </c>
+      <c r="D21">
+        <v>1.424708597885408</v>
+      </c>
+      <c r="E21">
+        <v>0.5180737303226071</v>
+      </c>
+      <c r="F21">
+        <v>0.5180737303226071</v>
+      </c>
+      <c r="G21">
+        <v>1.283954946091436</v>
+      </c>
+      <c r="H21">
+        <v>0.6607143973049976</v>
+      </c>
+      <c r="I21">
+        <v>0.641229129525398</v>
+      </c>
+      <c r="J21">
+        <v>1.414592299260681</v>
+      </c>
+      <c r="K21">
+        <v>0.5180737303226071</v>
+      </c>
+      <c r="L21">
+        <v>1.414592299260681</v>
+      </c>
+      <c r="M21">
+        <v>1.170067800750828</v>
+      </c>
+      <c r="N21">
+        <v>0.5180737303226071</v>
+      </c>
+      <c r="O21">
+        <v>0.641229129525398</v>
+      </c>
+      <c r="P21">
+        <v>1.02791071439304</v>
+      </c>
+      <c r="Q21">
+        <v>0.962592037808417</v>
+      </c>
+      <c r="R21">
+        <v>0.8579650530362288</v>
+      </c>
+      <c r="S21">
+        <v>1.113258791625839</v>
+      </c>
+      <c r="T21">
+        <v>0.8579650530362288</v>
+      </c>
+      <c r="U21">
+        <v>0.9644625263000306</v>
+      </c>
+      <c r="V21">
+        <v>0.8751847671045458</v>
+      </c>
+      <c r="W21">
+        <v>1.00999662574722</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.8046703395088916</v>
+      </c>
+      <c r="D22">
+        <v>1.10612888525521</v>
+      </c>
+      <c r="E22">
+        <v>0.988250631918999</v>
+      </c>
+      <c r="F22">
+        <v>0.988250631918999</v>
+      </c>
+      <c r="G22">
+        <v>0.8493945629815766</v>
+      </c>
+      <c r="H22">
+        <v>1.045033107348854</v>
+      </c>
+      <c r="I22">
+        <v>1.160614125541454</v>
+      </c>
+      <c r="J22">
+        <v>1.4684885838724</v>
+      </c>
+      <c r="K22">
+        <v>0.988250631918999</v>
+      </c>
+      <c r="L22">
+        <v>1.4684885838724</v>
+      </c>
+      <c r="M22">
+        <v>0.9866067471742133</v>
+      </c>
+      <c r="N22">
+        <v>0.988250631918999</v>
+      </c>
+      <c r="O22">
+        <v>1.160614125541454</v>
+      </c>
+      <c r="P22">
+        <v>1.314551354706927</v>
+      </c>
+      <c r="Q22">
+        <v>1.005004344261515</v>
+      </c>
+      <c r="R22">
+        <v>1.205784447110951</v>
+      </c>
+      <c r="S22">
+        <v>1.159499090798477</v>
+      </c>
+      <c r="T22">
+        <v>1.205784447110951</v>
+      </c>
+      <c r="U22">
+        <v>1.116686976078607</v>
+      </c>
+      <c r="V22">
+        <v>1.090999707246686</v>
+      </c>
+      <c r="W22">
+        <v>1.0511483729502</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.066535999356658</v>
+      </c>
+      <c r="D23">
+        <v>1.281828405173791</v>
+      </c>
+      <c r="E23">
+        <v>1.570472381390285</v>
+      </c>
+      <c r="F23">
+        <v>1.570472381390285</v>
+      </c>
+      <c r="G23">
+        <v>0.9972596984654541</v>
+      </c>
+      <c r="H23">
+        <v>0.7820284194240961</v>
+      </c>
+      <c r="I23">
+        <v>0.4345724781155619</v>
+      </c>
+      <c r="J23">
+        <v>1.712027806894615</v>
+      </c>
+      <c r="K23">
+        <v>1.570472381390285</v>
+      </c>
+      <c r="L23">
+        <v>1.712027806894615</v>
+      </c>
+      <c r="M23">
+        <v>0.774862459710696</v>
+      </c>
+      <c r="N23">
+        <v>1.570472381390285</v>
+      </c>
+      <c r="O23">
+        <v>0.4345724781155619</v>
+      </c>
+      <c r="P23">
+        <v>1.073300142505088</v>
+      </c>
+      <c r="Q23">
+        <v>0.715916088290508</v>
+      </c>
+      <c r="R23">
+        <v>1.239024222133487</v>
+      </c>
+      <c r="S23">
+        <v>1.04795332782521</v>
+      </c>
+      <c r="T23">
+        <v>1.239024222133487</v>
+      </c>
+      <c r="U23">
+        <v>1.178583091216479</v>
+      </c>
+      <c r="V23">
+        <v>1.25696094925124</v>
+      </c>
+      <c r="W23">
+        <v>1.077448456066395</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.005941962080059</v>
+      </c>
+      <c r="D24">
+        <v>0.9729919748266307</v>
+      </c>
+      <c r="E24">
+        <v>0.5878682905610633</v>
+      </c>
+      <c r="F24">
+        <v>0.5878682905610633</v>
+      </c>
+      <c r="G24">
+        <v>1.111690867589363</v>
+      </c>
+      <c r="H24">
+        <v>1.013773015973161</v>
+      </c>
+      <c r="I24">
+        <v>1.135409884884489</v>
+      </c>
+      <c r="J24">
+        <v>0.7468720463360872</v>
+      </c>
+      <c r="K24">
+        <v>0.5878682905610633</v>
+      </c>
+      <c r="L24">
+        <v>0.7468720463360872</v>
+      </c>
+      <c r="M24">
+        <v>1.121567671481623</v>
+      </c>
+      <c r="N24">
+        <v>0.5878682905610633</v>
+      </c>
+      <c r="O24">
+        <v>1.135409884884489</v>
+      </c>
+      <c r="P24">
+        <v>0.941140965610288</v>
+      </c>
+      <c r="Q24">
+        <v>1.123550376236926</v>
+      </c>
+      <c r="R24">
+        <v>0.8233834072605465</v>
+      </c>
+      <c r="S24">
+        <v>0.9979909329366462</v>
+      </c>
+      <c r="T24">
+        <v>0.8233834072605465</v>
+      </c>
+      <c r="U24">
+        <v>0.8954602723427505</v>
+      </c>
+      <c r="V24">
+        <v>0.8339418759864131</v>
+      </c>
+      <c r="W24">
+        <v>0.9620144642165596</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.292593454922492</v>
+      </c>
+      <c r="D25">
+        <v>0.6434061667072565</v>
+      </c>
+      <c r="E25">
+        <v>1.562087086984737</v>
+      </c>
+      <c r="F25">
+        <v>1.562087086984737</v>
+      </c>
+      <c r="G25">
+        <v>0.9870964894955678</v>
+      </c>
+      <c r="H25">
+        <v>1.131346129275396</v>
+      </c>
+      <c r="I25">
+        <v>0.8649429867460039</v>
+      </c>
+      <c r="J25">
+        <v>0.3350133986750451</v>
+      </c>
+      <c r="K25">
+        <v>1.562087086984737</v>
+      </c>
+      <c r="L25">
+        <v>0.3350133986750451</v>
+      </c>
+      <c r="M25">
+        <v>0.8083612603442594</v>
+      </c>
+      <c r="N25">
+        <v>1.562087086984737</v>
+      </c>
+      <c r="O25">
+        <v>0.8649429867460039</v>
+      </c>
+      <c r="P25">
+        <v>0.5999781927105245</v>
+      </c>
+      <c r="Q25">
+        <v>0.9260197381207859</v>
+      </c>
+      <c r="R25">
+        <v>0.9206811574685952</v>
+      </c>
+      <c r="S25">
+        <v>0.7290176249722057</v>
+      </c>
+      <c r="T25">
+        <v>0.9206811574685952</v>
+      </c>
+      <c r="U25">
+        <v>0.9372849904753384</v>
+      </c>
+      <c r="V25">
+        <v>1.062245409777218</v>
+      </c>
+      <c r="W25">
+        <v>0.9531058716438447</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9002207596408386</v>
+      </c>
+      <c r="D26">
+        <v>0.8663972785426576</v>
+      </c>
+      <c r="E26">
+        <v>1.152418627749718</v>
+      </c>
+      <c r="F26">
+        <v>1.152418627749718</v>
+      </c>
+      <c r="G26">
+        <v>0.8160485933543844</v>
+      </c>
+      <c r="H26">
+        <v>1.132138713642904</v>
+      </c>
+      <c r="I26">
+        <v>1.247976692325702</v>
+      </c>
+      <c r="J26">
+        <v>0.9355214699840861</v>
+      </c>
+      <c r="K26">
+        <v>1.152418627749718</v>
+      </c>
+      <c r="L26">
+        <v>0.9355214699840861</v>
+      </c>
+      <c r="M26">
+        <v>1.004736427665287</v>
+      </c>
+      <c r="N26">
+        <v>1.152418627749718</v>
+      </c>
+      <c r="O26">
+        <v>1.247976692325702</v>
+      </c>
+      <c r="P26">
+        <v>1.091749081154894</v>
+      </c>
+      <c r="Q26">
+        <v>1.032012642840043</v>
+      </c>
+      <c r="R26">
+        <v>1.111972263353169</v>
+      </c>
+      <c r="S26">
+        <v>0.9998489185547242</v>
+      </c>
+      <c r="T26">
+        <v>1.111972263353169</v>
+      </c>
+      <c r="U26">
+        <v>1.037991345853473</v>
+      </c>
+      <c r="V26">
+        <v>1.060876802232722</v>
+      </c>
+      <c r="W26">
+        <v>1.006932320363197</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.091101855832896</v>
+      </c>
+      <c r="D27">
+        <v>0.9908728048061516</v>
+      </c>
+      <c r="E27">
+        <v>1.040356808914096</v>
+      </c>
+      <c r="F27">
+        <v>1.040356808914096</v>
+      </c>
+      <c r="G27">
+        <v>1.101040992441357</v>
+      </c>
+      <c r="H27">
+        <v>0.9472120219986168</v>
+      </c>
+      <c r="I27">
+        <v>0.916226832961227</v>
+      </c>
+      <c r="J27">
+        <v>0.7977424790355716</v>
+      </c>
+      <c r="K27">
+        <v>1.040356808914096</v>
+      </c>
+      <c r="L27">
+        <v>0.7977424790355716</v>
+      </c>
+      <c r="M27">
+        <v>0.9945643469399215</v>
+      </c>
+      <c r="N27">
+        <v>1.040356808914096</v>
+      </c>
+      <c r="O27">
+        <v>0.916226832961227</v>
+      </c>
+      <c r="P27">
+        <v>0.8569846559983993</v>
+      </c>
+      <c r="Q27">
+        <v>1.008633912701292</v>
+      </c>
+      <c r="R27">
+        <v>0.9181087069702981</v>
+      </c>
+      <c r="S27">
+        <v>0.9383367681460518</v>
+      </c>
+      <c r="T27">
+        <v>0.9181087069702981</v>
+      </c>
+      <c r="U27">
+        <v>0.9638417783380628</v>
+      </c>
+      <c r="V27">
+        <v>0.9791447844532695</v>
+      </c>
+      <c r="W27">
+        <v>0.9848897678662296</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.016295824429901</v>
+      </c>
+      <c r="D28">
+        <v>0.9654542430965291</v>
+      </c>
+      <c r="E28">
+        <v>1.219309973461084</v>
+      </c>
+      <c r="F28">
+        <v>1.219309973461084</v>
+      </c>
+      <c r="G28">
+        <v>0.9370967086254398</v>
+      </c>
+      <c r="H28">
+        <v>0.998819389092375</v>
+      </c>
+      <c r="I28">
+        <v>0.9946143676409611</v>
+      </c>
+      <c r="J28">
+        <v>1.031103038224906</v>
+      </c>
+      <c r="K28">
+        <v>1.219309973461084</v>
+      </c>
+      <c r="L28">
+        <v>1.031103038224906</v>
+      </c>
+      <c r="M28">
+        <v>0.9511557004959679</v>
+      </c>
+      <c r="N28">
+        <v>1.219309973461084</v>
+      </c>
+      <c r="O28">
+        <v>0.9946143676409611</v>
+      </c>
+      <c r="P28">
+        <v>1.012858702932934</v>
+      </c>
+      <c r="Q28">
+        <v>0.9658555381332005</v>
+      </c>
+      <c r="R28">
+        <v>1.081675793108984</v>
+      </c>
+      <c r="S28">
+        <v>0.9876047048304356</v>
+      </c>
+      <c r="T28">
+        <v>1.081675793108984</v>
+      </c>
+      <c r="U28">
+        <v>1.045531021988098</v>
+      </c>
+      <c r="V28">
+        <v>1.080286812282695</v>
+      </c>
+      <c r="W28">
+        <v>1.014231155633396</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.191687310758099</v>
+      </c>
+      <c r="D29">
+        <v>1.059221275951837</v>
+      </c>
+      <c r="E29">
+        <v>1.001494936160393</v>
+      </c>
+      <c r="F29">
+        <v>1.001494936160393</v>
+      </c>
+      <c r="G29">
+        <v>1.190239624430895</v>
+      </c>
+      <c r="H29">
+        <v>0.7867043650784379</v>
+      </c>
+      <c r="I29">
+        <v>0.6423377271186645</v>
+      </c>
+      <c r="J29">
+        <v>0.8662607198167838</v>
+      </c>
+      <c r="K29">
+        <v>1.001494936160393</v>
+      </c>
+      <c r="L29">
+        <v>0.8662607198167838</v>
+      </c>
+      <c r="M29">
+        <v>1.047503623290052</v>
+      </c>
+      <c r="N29">
+        <v>1.001494936160393</v>
+      </c>
+      <c r="O29">
+        <v>0.6423377271186645</v>
+      </c>
+      <c r="P29">
+        <v>0.7542992234677242</v>
+      </c>
+      <c r="Q29">
+        <v>0.9162886757747799</v>
+      </c>
+      <c r="R29">
+        <v>0.8366977943652804</v>
+      </c>
+      <c r="S29">
+        <v>0.8996126904554478</v>
+      </c>
+      <c r="T29">
+        <v>0.8366977943652804</v>
+      </c>
+      <c r="U29">
+        <v>0.9250832518816841</v>
+      </c>
+      <c r="V29">
+        <v>0.9403655887374258</v>
+      </c>
+      <c r="W29">
+        <v>0.9731811978256452</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/BrassA-HW15.xlsx
+++ b/JupyterNotebooks/AvgHW/BrassA-HW15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -518,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,67 +606,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="U2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -742,67 +748,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.094179764227114</v>
+        <v>0.9539899986505764</v>
       </c>
       <c r="D4">
-        <v>0.84684098789405</v>
+        <v>0.8896894784488477</v>
       </c>
       <c r="E4">
-        <v>1.393947444614474</v>
+        <v>0.932528329546136</v>
       </c>
       <c r="F4">
-        <v>1.393947444614474</v>
+        <v>0.932528329546136</v>
       </c>
       <c r="G4">
-        <v>0.9300622241513122</v>
+        <v>0.9288932083418887</v>
       </c>
       <c r="H4">
-        <v>1.059036676275722</v>
+        <v>1.11118444556523</v>
       </c>
       <c r="I4">
-        <v>0.9483778949276253</v>
+        <v>1.233681166663249</v>
       </c>
       <c r="J4">
-        <v>0.8035663353563733</v>
+        <v>0.8555653734401524</v>
       </c>
       <c r="K4">
-        <v>1.393947444614474</v>
+        <v>0.932528329546136</v>
       </c>
       <c r="L4">
-        <v>0.8035663353563733</v>
+        <v>0.8555653734401524</v>
       </c>
       <c r="M4">
-        <v>0.8929980342817293</v>
+        <v>1.022726567861131</v>
       </c>
       <c r="N4">
-        <v>1.393947444614474</v>
+        <v>0.932528329546136</v>
       </c>
       <c r="O4">
-        <v>0.9483778949276253</v>
+        <v>1.233681166663249</v>
       </c>
       <c r="P4">
-        <v>0.8759721151419992</v>
+        <v>1.044623270051701</v>
       </c>
       <c r="Q4">
-        <v>0.9392200595394687</v>
+        <v>1.081287187502569</v>
       </c>
       <c r="R4">
-        <v>1.048630558299491</v>
+        <v>1.007258289883179</v>
       </c>
       <c r="S4">
-        <v>0.8940021514784369</v>
+        <v>1.006046582815097</v>
       </c>
       <c r="T4">
-        <v>1.048630558299491</v>
+        <v>1.007258289883179</v>
       </c>
       <c r="U4">
-        <v>1.018988474762446</v>
+        <v>0.9876670194978566</v>
       </c>
       <c r="V4">
-        <v>1.093980268732852</v>
+        <v>0.9766392815075126</v>
       </c>
       <c r="W4">
-        <v>0.99612617021605</v>
+        <v>0.9910323210646514</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -813,67 +819,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9496240810951007</v>
+        <v>1.112301569619424</v>
       </c>
       <c r="D5">
-        <v>0.8645862032824198</v>
+        <v>0.3542867342258888</v>
       </c>
       <c r="E5">
-        <v>0.9385587097305502</v>
+        <v>0.8991977359961684</v>
       </c>
       <c r="F5">
-        <v>0.9385587097305502</v>
+        <v>0.8991977359961684</v>
       </c>
       <c r="G5">
-        <v>0.9117540568443765</v>
+        <v>0.7856098455972622</v>
       </c>
       <c r="H5">
-        <v>1.135859038919303</v>
+        <v>1.514736521595773</v>
       </c>
       <c r="I5">
-        <v>1.281581986397696</v>
+        <v>1.749360039300939</v>
       </c>
       <c r="J5">
-        <v>0.8304988063151272</v>
+        <v>0.08244289652139057</v>
       </c>
       <c r="K5">
-        <v>0.9385587097305502</v>
+        <v>0.8991977359961684</v>
       </c>
       <c r="L5">
-        <v>0.8304988063151272</v>
+        <v>0.08244289652139057</v>
       </c>
       <c r="M5">
-        <v>1.016373610005765</v>
+        <v>0.9119668882074533</v>
       </c>
       <c r="N5">
-        <v>0.9385587097305502</v>
+        <v>0.8991977359961684</v>
       </c>
       <c r="O5">
-        <v>1.281581986397696</v>
+        <v>1.749360039300939</v>
       </c>
       <c r="P5">
-        <v>1.056040396356412</v>
+        <v>0.9159014679111647</v>
       </c>
       <c r="Q5">
-        <v>1.096668021621036</v>
+        <v>1.267484942449101</v>
       </c>
       <c r="R5">
-        <v>1.016879834147791</v>
+        <v>0.9103335572728325</v>
       </c>
       <c r="S5">
-        <v>1.0079449498524</v>
+        <v>0.8724709271398638</v>
       </c>
       <c r="T5">
-        <v>1.016879834147791</v>
+        <v>0.9103335572728325</v>
       </c>
       <c r="U5">
-        <v>0.9905983898219376</v>
+        <v>0.87915262935394</v>
       </c>
       <c r="V5">
-        <v>0.9801904538036601</v>
+        <v>0.8831616506823856</v>
       </c>
       <c r="W5">
-        <v>0.9911045615737925</v>
+        <v>0.9262377788830374</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -884,67 +890,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.6895477908962198</v>
+        <v>1.094179764227114</v>
       </c>
       <c r="D6">
-        <v>0.5165772658913889</v>
+        <v>0.84684098789405</v>
       </c>
       <c r="E6">
-        <v>0.5746311198911516</v>
+        <v>1.393947444614474</v>
       </c>
       <c r="F6">
-        <v>0.5746311198911516</v>
+        <v>1.393947444614474</v>
       </c>
       <c r="G6">
-        <v>0.6241320123023031</v>
+        <v>0.9300622241513122</v>
       </c>
       <c r="H6">
-        <v>1.558392446575936</v>
+        <v>1.059036676275722</v>
       </c>
       <c r="I6">
-        <v>2.334488502428642</v>
+        <v>0.9483778949276253</v>
       </c>
       <c r="J6">
-        <v>0.4384009572864001</v>
+        <v>0.8035663353563733</v>
       </c>
       <c r="K6">
-        <v>0.5746311198911516</v>
+        <v>1.393947444614474</v>
       </c>
       <c r="L6">
-        <v>0.4384009572864001</v>
+        <v>0.8035663353563733</v>
       </c>
       <c r="M6">
-        <v>1.116029633047551</v>
+        <v>0.8929980342817293</v>
       </c>
       <c r="N6">
-        <v>0.5746311198911516</v>
+        <v>1.393947444614474</v>
       </c>
       <c r="O6">
-        <v>2.334488502428642</v>
+        <v>0.9483778949276253</v>
       </c>
       <c r="P6">
-        <v>1.386444729857521</v>
+        <v>0.8759721151419992</v>
       </c>
       <c r="Q6">
-        <v>1.479310257365473</v>
+        <v>0.9392200595394687</v>
       </c>
       <c r="R6">
-        <v>1.115840193202065</v>
+        <v>1.048630558299491</v>
       </c>
       <c r="S6">
-        <v>1.132340490672448</v>
+        <v>0.8940021514784369</v>
       </c>
       <c r="T6">
-        <v>1.115840193202065</v>
+        <v>1.048630558299491</v>
       </c>
       <c r="U6">
-        <v>0.9929131479771242</v>
+        <v>1.018988474762446</v>
       </c>
       <c r="V6">
-        <v>0.9092567423599297</v>
+        <v>1.093980268732852</v>
       </c>
       <c r="W6">
-        <v>0.981524966039949</v>
+        <v>0.99612617021605</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -955,67 +961,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.007805160458022</v>
+        <v>0.9496240810951007</v>
       </c>
       <c r="D7">
-        <v>0.9942583551128454</v>
+        <v>0.8645862032824198</v>
       </c>
       <c r="E7">
-        <v>1.035452976207047</v>
+        <v>0.9385587097305502</v>
       </c>
       <c r="F7">
-        <v>1.035452976207047</v>
+        <v>0.9385587097305502</v>
       </c>
       <c r="G7">
-        <v>0.9942887051879248</v>
+        <v>0.9117540568443765</v>
       </c>
       <c r="H7">
-        <v>1.003158958140791</v>
+        <v>1.135859038919303</v>
       </c>
       <c r="I7">
-        <v>0.9913944059004934</v>
+        <v>1.281581986397696</v>
       </c>
       <c r="J7">
-        <v>1.004371510512359</v>
+        <v>0.8304988063151272</v>
       </c>
       <c r="K7">
-        <v>1.035452976207047</v>
+        <v>0.9385587097305502</v>
       </c>
       <c r="L7">
-        <v>1.004371510512359</v>
+        <v>0.8304988063151272</v>
       </c>
       <c r="M7">
-        <v>0.9846619795854696</v>
+        <v>1.016373610005765</v>
       </c>
       <c r="N7">
-        <v>1.035452976207047</v>
+        <v>0.9385587097305502</v>
       </c>
       <c r="O7">
-        <v>0.9913944059004934</v>
+        <v>1.281581986397696</v>
       </c>
       <c r="P7">
-        <v>0.9978829582064259</v>
+        <v>1.056040396356412</v>
       </c>
       <c r="Q7">
-        <v>0.9928415555442092</v>
+        <v>1.096668021621036</v>
       </c>
       <c r="R7">
-        <v>1.010406297539966</v>
+        <v>1.016879834147791</v>
       </c>
       <c r="S7">
-        <v>0.9966848738669256</v>
+        <v>1.0079449498524</v>
       </c>
       <c r="T7">
-        <v>1.010406297539966</v>
+        <v>1.016879834147791</v>
       </c>
       <c r="U7">
-        <v>1.006376899451956</v>
+        <v>0.9905983898219376</v>
       </c>
       <c r="V7">
-        <v>1.012192114802974</v>
+        <v>0.9801904538036601</v>
       </c>
       <c r="W7">
-        <v>1.001924006388119</v>
+        <v>0.9911045615737925</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1026,67 +1032,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9998519917486244</v>
+        <v>0.6895477908962198</v>
       </c>
       <c r="D8">
-        <v>0.998358653397906</v>
+        <v>0.5165772658913889</v>
       </c>
       <c r="E8">
-        <v>0.9942278404790827</v>
+        <v>0.5746311198911516</v>
       </c>
       <c r="F8">
-        <v>0.9942278404790827</v>
+        <v>0.5746311198911516</v>
       </c>
       <c r="G8">
-        <v>1.000481183881084</v>
+        <v>0.6241320123023031</v>
       </c>
       <c r="H8">
-        <v>1.001945830769981</v>
+        <v>1.558392446575936</v>
       </c>
       <c r="I8">
-        <v>1.004865952439826</v>
+        <v>2.334488502428642</v>
       </c>
       <c r="J8">
-        <v>0.9950098964396714</v>
+        <v>0.4384009572864001</v>
       </c>
       <c r="K8">
-        <v>0.9942278404790827</v>
+        <v>0.5746311198911516</v>
       </c>
       <c r="L8">
-        <v>0.9950098964396714</v>
+        <v>0.4384009572864001</v>
       </c>
       <c r="M8">
-        <v>1.000998830602612</v>
+        <v>1.116029633047551</v>
       </c>
       <c r="N8">
-        <v>0.9942278404790827</v>
+        <v>0.5746311198911516</v>
       </c>
       <c r="O8">
-        <v>1.004865952439826</v>
+        <v>2.334488502428642</v>
       </c>
       <c r="P8">
-        <v>0.9999379244397486</v>
+        <v>1.386444729857521</v>
       </c>
       <c r="Q8">
-        <v>1.002673568160455</v>
+        <v>1.479310257365473</v>
       </c>
       <c r="R8">
-        <v>0.9980345631195267</v>
+        <v>1.115840193202065</v>
       </c>
       <c r="S8">
-        <v>1.000119010920194</v>
+        <v>1.132340490672448</v>
       </c>
       <c r="T8">
-        <v>0.9980345631195267</v>
+        <v>1.115840193202065</v>
       </c>
       <c r="U8">
-        <v>0.9986462183099161</v>
+        <v>0.9929131479771242</v>
       </c>
       <c r="V8">
-        <v>0.9977625427437495</v>
+        <v>0.9092567423599297</v>
       </c>
       <c r="W8">
-        <v>0.9994675224698484</v>
+        <v>0.981524966039949</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1097,67 +1103,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.010230300882503</v>
+        <v>1.007805160458022</v>
       </c>
       <c r="D9">
-        <v>0.9937739662542305</v>
+        <v>0.9942583551128454</v>
       </c>
       <c r="E9">
-        <v>1.064648805751204</v>
+        <v>1.035452976207047</v>
       </c>
       <c r="F9">
-        <v>1.064648805751204</v>
+        <v>1.035452976207047</v>
       </c>
       <c r="G9">
-        <v>0.988737153568139</v>
+        <v>0.9942887051879248</v>
       </c>
       <c r="H9">
-        <v>1.003798082228807</v>
+        <v>1.003158958140791</v>
       </c>
       <c r="I9">
-        <v>0.9858652682460139</v>
+        <v>0.9913944059004934</v>
       </c>
       <c r="J9">
-        <v>1.016575168863032</v>
+        <v>1.004371510512359</v>
       </c>
       <c r="K9">
-        <v>1.064648805751204</v>
+        <v>1.035452976207047</v>
       </c>
       <c r="L9">
-        <v>1.016575168863032</v>
+        <v>1.004371510512359</v>
       </c>
       <c r="M9">
-        <v>0.9732293911935003</v>
+        <v>0.9846619795854696</v>
       </c>
       <c r="N9">
-        <v>1.064648805751204</v>
+        <v>1.035452976207047</v>
       </c>
       <c r="O9">
-        <v>0.9858652682460139</v>
+        <v>0.9913944059004934</v>
       </c>
       <c r="P9">
-        <v>1.001220218554523</v>
+        <v>0.9978829582064259</v>
       </c>
       <c r="Q9">
-        <v>0.9873012109070765</v>
+        <v>0.9928415555442092</v>
       </c>
       <c r="R9">
-        <v>1.022363080953417</v>
+        <v>1.010406297539966</v>
       </c>
       <c r="S9">
-        <v>0.997059196892395</v>
+        <v>0.9966848738669256</v>
       </c>
       <c r="T9">
-        <v>1.022363080953417</v>
+        <v>1.010406297539966</v>
       </c>
       <c r="U9">
-        <v>1.013956599107097</v>
+        <v>1.006376899451956</v>
       </c>
       <c r="V9">
-        <v>1.024095040435919</v>
+        <v>1.012192114802974</v>
       </c>
       <c r="W9">
-        <v>1.004607267123429</v>
+        <v>1.001924006388119</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1168,67 +1174,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.6719562618362336</v>
+        <v>0.9998519917486244</v>
       </c>
       <c r="D10">
-        <v>0.5058993253874201</v>
+        <v>0.998358653397906</v>
       </c>
       <c r="E10">
-        <v>0.5598218477453342</v>
+        <v>0.9942278404790827</v>
       </c>
       <c r="F10">
-        <v>0.5598218477453342</v>
+        <v>0.9942278404790827</v>
       </c>
       <c r="G10">
-        <v>0.6048625485251896</v>
+        <v>1.000481183881084</v>
       </c>
       <c r="H10">
-        <v>1.578318720420544</v>
+        <v>1.001945830769981</v>
       </c>
       <c r="I10">
-        <v>2.381223587597018</v>
+        <v>1.004865952439826</v>
       </c>
       <c r="J10">
-        <v>0.4432903691184163</v>
+        <v>0.9950098964396714</v>
       </c>
       <c r="K10">
-        <v>0.5598218477453342</v>
+        <v>0.9942278404790827</v>
       </c>
       <c r="L10">
-        <v>0.4432903691184163</v>
+        <v>0.9950098964396714</v>
       </c>
       <c r="M10">
-        <v>1.118579266126613</v>
+        <v>1.000998830602612</v>
       </c>
       <c r="N10">
-        <v>0.5598218477453342</v>
+        <v>0.9942278404790827</v>
       </c>
       <c r="O10">
-        <v>2.381223587597018</v>
+        <v>1.004865952439826</v>
       </c>
       <c r="P10">
-        <v>1.412256978357717</v>
+        <v>0.9999379244397486</v>
       </c>
       <c r="Q10">
-        <v>1.493043068061104</v>
+        <v>1.002673568160455</v>
       </c>
       <c r="R10">
-        <v>1.128111934820256</v>
+        <v>0.9980345631195267</v>
       </c>
       <c r="S10">
-        <v>1.143125501746875</v>
+        <v>1.000119010920194</v>
       </c>
       <c r="T10">
-        <v>1.128111934820256</v>
+        <v>0.9980345631195267</v>
       </c>
       <c r="U10">
-        <v>0.9972995882464897</v>
+        <v>0.9986462183099161</v>
       </c>
       <c r="V10">
-        <v>0.9098040401462585</v>
+        <v>0.9977625427437495</v>
       </c>
       <c r="W10">
-        <v>0.9829939908445963</v>
+        <v>0.9994675224698484</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1239,67 +1245,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.097123501974107</v>
+        <v>1.010230300882503</v>
       </c>
       <c r="D11">
-        <v>0.8525892249866303</v>
+        <v>0.9937739662542305</v>
       </c>
       <c r="E11">
-        <v>1.418577533739412</v>
+        <v>1.064648805751204</v>
       </c>
       <c r="F11">
-        <v>1.418577533739412</v>
+        <v>1.064648805751204</v>
       </c>
       <c r="G11">
-        <v>0.9262804490916212</v>
+        <v>0.988737153568139</v>
       </c>
       <c r="H11">
-        <v>1.057099063546072</v>
+        <v>1.003798082228807</v>
       </c>
       <c r="I11">
-        <v>0.9352747420420978</v>
+        <v>0.9858652682460139</v>
       </c>
       <c r="J11">
-        <v>0.8286653604478859</v>
+        <v>1.016575168863032</v>
       </c>
       <c r="K11">
-        <v>1.418577533739412</v>
+        <v>1.064648805751204</v>
       </c>
       <c r="L11">
-        <v>0.8286653604478859</v>
+        <v>1.016575168863032</v>
       </c>
       <c r="M11">
-        <v>0.879741488245887</v>
+        <v>0.9732293911935003</v>
       </c>
       <c r="N11">
-        <v>1.418577533739412</v>
+        <v>1.064648805751204</v>
       </c>
       <c r="O11">
-        <v>0.9352747420420978</v>
+        <v>0.9858652682460139</v>
       </c>
       <c r="P11">
-        <v>0.8819700512449918</v>
+        <v>1.001220218554523</v>
       </c>
       <c r="Q11">
-        <v>0.9307775955668596</v>
+        <v>0.9873012109070765</v>
       </c>
       <c r="R11">
-        <v>1.060839212076465</v>
+        <v>1.022363080953417</v>
       </c>
       <c r="S11">
-        <v>0.896740183860535</v>
+        <v>0.997059196892395</v>
       </c>
       <c r="T11">
-        <v>1.060839212076465</v>
+        <v>1.022363080953417</v>
       </c>
       <c r="U11">
-        <v>1.027199521330254</v>
+        <v>1.013956599107097</v>
       </c>
       <c r="V11">
-        <v>1.105475123812086</v>
+        <v>1.024095040435919</v>
       </c>
       <c r="W11">
-        <v>0.999418920509214</v>
+        <v>1.004607267123429</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1310,67 +1316,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9002812279263153</v>
+        <v>0.6719562618362336</v>
       </c>
       <c r="D12">
-        <v>0.8402683013263151</v>
+        <v>0.5058993253874201</v>
       </c>
       <c r="E12">
-        <v>0.8549998841515815</v>
+        <v>0.5598218477453342</v>
       </c>
       <c r="F12">
-        <v>0.8549998841515815</v>
+        <v>0.5598218477453342</v>
       </c>
       <c r="G12">
-        <v>0.8756672451578918</v>
+        <v>0.6048625485251896</v>
       </c>
       <c r="H12">
-        <v>1.183137951178944</v>
+        <v>1.578318720420544</v>
       </c>
       <c r="I12">
-        <v>1.415916382157898</v>
+        <v>2.381223587597018</v>
       </c>
       <c r="J12">
-        <v>0.8194645293968411</v>
+        <v>0.4432903691184163</v>
       </c>
       <c r="K12">
-        <v>0.8549998841515815</v>
+        <v>0.5598218477453342</v>
       </c>
       <c r="L12">
-        <v>0.8194645293968411</v>
+        <v>0.4432903691184163</v>
       </c>
       <c r="M12">
-        <v>1.041322647094737</v>
+        <v>1.118579266126613</v>
       </c>
       <c r="N12">
-        <v>0.8549998841515815</v>
+        <v>0.5598218477453342</v>
       </c>
       <c r="O12">
-        <v>1.415916382157898</v>
+        <v>2.381223587597018</v>
       </c>
       <c r="P12">
-        <v>1.117690455777369</v>
+        <v>1.412256978357717</v>
       </c>
       <c r="Q12">
-        <v>1.145791813657895</v>
+        <v>1.493043068061104</v>
       </c>
       <c r="R12">
-        <v>1.030126931902107</v>
+        <v>1.128111934820256</v>
       </c>
       <c r="S12">
-        <v>1.037016052237544</v>
+        <v>1.143125501746875</v>
       </c>
       <c r="T12">
-        <v>1.030126931902107</v>
+        <v>1.128111934820256</v>
       </c>
       <c r="U12">
-        <v>0.9915120102160531</v>
+        <v>0.9972995882464897</v>
       </c>
       <c r="V12">
-        <v>0.9642095850031588</v>
+        <v>0.9098040401462585</v>
       </c>
       <c r="W12">
-        <v>0.9913822710488154</v>
+        <v>0.9829939908445963</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1381,67 +1387,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9726770473208149</v>
+        <v>1.097123501974107</v>
       </c>
       <c r="D13">
-        <v>1.067659377690279</v>
+        <v>0.8525892249866303</v>
       </c>
       <c r="E13">
-        <v>0.9865068463743681</v>
+        <v>1.418577533739412</v>
       </c>
       <c r="F13">
-        <v>0.9865068463743681</v>
+        <v>1.418577533739412</v>
       </c>
       <c r="G13">
-        <v>0.9983094285822801</v>
+        <v>0.9262804490916212</v>
       </c>
       <c r="H13">
-        <v>0.9689384937561577</v>
+        <v>1.057099063546072</v>
       </c>
       <c r="I13">
-        <v>0.9629961491122336</v>
+        <v>0.9352747420420978</v>
       </c>
       <c r="J13">
-        <v>1.155379805272518</v>
+        <v>0.8286653604478859</v>
       </c>
       <c r="K13">
-        <v>0.9865068463743681</v>
+        <v>1.418577533739412</v>
       </c>
       <c r="L13">
-        <v>1.155379805272518</v>
+        <v>0.8286653604478859</v>
       </c>
       <c r="M13">
-        <v>0.9952545880622586</v>
+        <v>0.879741488245887</v>
       </c>
       <c r="N13">
-        <v>0.9865068463743681</v>
+        <v>1.418577533739412</v>
       </c>
       <c r="O13">
-        <v>0.9629961491122336</v>
+        <v>0.9352747420420978</v>
       </c>
       <c r="P13">
-        <v>1.059187977192376</v>
+        <v>0.8819700512449918</v>
       </c>
       <c r="Q13">
-        <v>0.9806527888472569</v>
+        <v>0.9307775955668596</v>
       </c>
       <c r="R13">
-        <v>1.034960933586373</v>
+        <v>1.060839212076465</v>
       </c>
       <c r="S13">
-        <v>1.038895127655677</v>
+        <v>0.896740183860535</v>
       </c>
       <c r="T13">
-        <v>1.034960933586373</v>
+        <v>1.060839212076465</v>
       </c>
       <c r="U13">
-        <v>1.02579805733535</v>
+        <v>1.027199521330254</v>
       </c>
       <c r="V13">
-        <v>1.017939815143154</v>
+        <v>1.105475123812086</v>
       </c>
       <c r="W13">
-        <v>1.013465217021364</v>
+        <v>0.999418920509214</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1452,67 +1458,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.4216041200000005</v>
+        <v>0.9002812279263153</v>
       </c>
       <c r="D14">
-        <v>0.1424155799999999</v>
+        <v>0.8402683013263151</v>
       </c>
       <c r="E14">
-        <v>0.2138068799999999</v>
+        <v>0.8549998841515815</v>
       </c>
       <c r="F14">
-        <v>0.2138068799999999</v>
+        <v>0.8549998841515815</v>
       </c>
       <c r="G14">
-        <v>0.31618718</v>
+        <v>0.8756672451578918</v>
       </c>
       <c r="H14">
-        <v>2.008686600000002</v>
+        <v>1.183137951178944</v>
       </c>
       <c r="I14">
-        <v>3.442862200000002</v>
+        <v>1.415916382157898</v>
       </c>
       <c r="J14">
-        <v>0.02330075600000002</v>
+        <v>0.8194645293968411</v>
       </c>
       <c r="K14">
-        <v>0.2138068799999999</v>
+        <v>0.8549998841515815</v>
       </c>
       <c r="L14">
-        <v>0.02330075600000002</v>
+        <v>0.8194645293968411</v>
       </c>
       <c r="M14">
-        <v>1.209990899999999</v>
+        <v>1.041322647094737</v>
       </c>
       <c r="N14">
-        <v>0.2138068799999999</v>
+        <v>0.8549998841515815</v>
       </c>
       <c r="O14">
-        <v>3.442862200000002</v>
+        <v>1.415916382157898</v>
       </c>
       <c r="P14">
-        <v>1.733081478000001</v>
+        <v>1.117690455777369</v>
       </c>
       <c r="Q14">
-        <v>1.879524690000001</v>
+        <v>1.145791813657895</v>
       </c>
       <c r="R14">
-        <v>1.226656612000001</v>
+        <v>1.030126931902107</v>
       </c>
       <c r="S14">
-        <v>1.260783378666667</v>
+        <v>1.037016052237544</v>
       </c>
       <c r="T14">
-        <v>1.226656612000001</v>
+        <v>1.030126931902107</v>
       </c>
       <c r="U14">
-        <v>0.9990392540000006</v>
+        <v>0.9915120102160531</v>
       </c>
       <c r="V14">
-        <v>0.8419927792000005</v>
+        <v>0.9642095850031588</v>
       </c>
       <c r="W14">
-        <v>0.9723567770000004</v>
+        <v>0.9913822710488154</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1523,67 +1529,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.8268372</v>
+        <v>0.9726770473208149</v>
       </c>
       <c r="D15">
-        <v>0.57118725</v>
+        <v>1.067659377690279</v>
       </c>
       <c r="E15">
-        <v>1.6024769</v>
+        <v>0.9865068463743681</v>
       </c>
       <c r="F15">
-        <v>1.6024769</v>
+        <v>0.9865068463743681</v>
       </c>
       <c r="G15">
-        <v>1.2882547</v>
+        <v>0.9983094285822801</v>
       </c>
       <c r="H15">
-        <v>0.9614322199999999</v>
+        <v>0.9689384937561577</v>
       </c>
       <c r="I15">
-        <v>0.42160409</v>
+        <v>0.9629961491122336</v>
       </c>
       <c r="J15">
-        <v>0.14231852</v>
+        <v>1.155379805272518</v>
       </c>
       <c r="K15">
-        <v>1.6024769</v>
+        <v>0.9865068463743681</v>
       </c>
       <c r="L15">
-        <v>0.14231852</v>
+        <v>1.155379805272518</v>
       </c>
       <c r="M15">
-        <v>0.58090771</v>
+        <v>0.9952545880622586</v>
       </c>
       <c r="N15">
-        <v>1.6024769</v>
+        <v>0.9865068463743681</v>
       </c>
       <c r="O15">
-        <v>0.42160409</v>
+        <v>0.9629961491122336</v>
       </c>
       <c r="P15">
-        <v>0.281961305</v>
+        <v>1.059187977192376</v>
       </c>
       <c r="Q15">
-        <v>0.854929395</v>
+        <v>0.9806527888472569</v>
       </c>
       <c r="R15">
-        <v>0.7221331700000001</v>
+        <v>1.034960933586373</v>
       </c>
       <c r="S15">
-        <v>0.6173924366666667</v>
+        <v>1.038895127655677</v>
       </c>
       <c r="T15">
-        <v>0.7221331699999999</v>
+        <v>1.034960933586373</v>
       </c>
       <c r="U15">
-        <v>0.8636635524999999</v>
+        <v>1.02579805733535</v>
       </c>
       <c r="V15">
-        <v>1.011426222</v>
+        <v>1.017939815143154</v>
       </c>
       <c r="W15">
-        <v>0.9243773237499999</v>
+        <v>1.013465217021364</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1594,67 +1600,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.6025524</v>
+        <v>0.4216041200000005</v>
       </c>
       <c r="D16">
-        <v>0.044891432</v>
+        <v>0.1424155799999999</v>
       </c>
       <c r="E16">
-        <v>5.1660044</v>
+        <v>0.2138068799999999</v>
       </c>
       <c r="F16">
-        <v>5.1660044</v>
+        <v>0.2138068799999999</v>
       </c>
       <c r="G16">
-        <v>0.34611211</v>
+        <v>0.31618718</v>
       </c>
       <c r="H16">
-        <v>1.1595382</v>
+        <v>2.008686600000002</v>
       </c>
       <c r="I16">
-        <v>0.21380688</v>
+        <v>3.442862200000002</v>
       </c>
       <c r="J16">
-        <v>0.0017993233</v>
+        <v>0.02330075600000002</v>
       </c>
       <c r="K16">
-        <v>5.1660044</v>
+        <v>0.2138068799999999</v>
       </c>
       <c r="L16">
-        <v>0.0017993233</v>
+        <v>0.02330075600000002</v>
       </c>
       <c r="M16">
-        <v>0.082419669</v>
+        <v>1.209990899999999</v>
       </c>
       <c r="N16">
-        <v>5.1660044</v>
+        <v>0.2138068799999999</v>
       </c>
       <c r="O16">
-        <v>0.21380688</v>
+        <v>3.442862200000002</v>
       </c>
       <c r="P16">
-        <v>0.10780310165</v>
+        <v>1.733081478000001</v>
       </c>
       <c r="Q16">
-        <v>0.279959495</v>
+        <v>1.879524690000001</v>
       </c>
       <c r="R16">
-        <v>1.7938702011</v>
+        <v>1.226656612000001</v>
       </c>
       <c r="S16">
-        <v>0.1872394377666667</v>
+        <v>1.260783378666667</v>
       </c>
       <c r="T16">
-        <v>1.7938702011</v>
+        <v>1.226656612000001</v>
       </c>
       <c r="U16">
-        <v>1.431930678325</v>
+        <v>0.9990392540000006</v>
       </c>
       <c r="V16">
-        <v>2.17874542266</v>
+        <v>0.8419927792000005</v>
       </c>
       <c r="W16">
-        <v>1.0771405517875</v>
+        <v>0.9723567770000004</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1665,67 +1671,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.8764151200000001</v>
+        <v>1.8268372</v>
       </c>
       <c r="D17">
-        <v>0.75391861</v>
+        <v>0.57118725</v>
       </c>
       <c r="E17">
-        <v>0.32250095</v>
+        <v>1.6024769</v>
       </c>
       <c r="F17">
-        <v>0.32250095</v>
+        <v>1.6024769</v>
       </c>
       <c r="G17">
-        <v>1.0291422</v>
+        <v>1.2882547</v>
       </c>
       <c r="H17">
-        <v>1.0839669</v>
+        <v>0.9614322199999999</v>
       </c>
       <c r="I17">
-        <v>1.4420139</v>
+        <v>0.42160409</v>
       </c>
       <c r="J17">
-        <v>0.3206147400000001</v>
+        <v>0.14231852</v>
       </c>
       <c r="K17">
-        <v>0.32250095</v>
+        <v>1.6024769</v>
       </c>
       <c r="L17">
-        <v>0.3206147400000001</v>
+        <v>0.14231852</v>
       </c>
       <c r="M17">
-        <v>1.4215018</v>
+        <v>0.58090771</v>
       </c>
       <c r="N17">
-        <v>0.32250095</v>
+        <v>1.6024769</v>
       </c>
       <c r="O17">
-        <v>1.4420139</v>
+        <v>0.42160409</v>
       </c>
       <c r="P17">
-        <v>0.8813143200000001</v>
+        <v>0.281961305</v>
       </c>
       <c r="Q17">
-        <v>1.23557805</v>
+        <v>0.854929395</v>
       </c>
       <c r="R17">
-        <v>0.6950431966666667</v>
+        <v>0.7221331700000001</v>
       </c>
       <c r="S17">
-        <v>0.93059028</v>
+        <v>0.6173924366666667</v>
       </c>
       <c r="T17">
-        <v>0.6950431966666667</v>
+        <v>0.7221331699999999</v>
       </c>
       <c r="U17">
-        <v>0.7785679475</v>
+        <v>0.8636635524999999</v>
       </c>
       <c r="V17">
-        <v>0.6873545480000001</v>
+        <v>1.011426222</v>
       </c>
       <c r="W17">
-        <v>0.9062592775</v>
+        <v>0.9243773237499999</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1736,67 +1742,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.150611023013699</v>
+        <v>1.6025524</v>
       </c>
       <c r="D18">
-        <v>0.9339312373972601</v>
+        <v>0.044891432</v>
       </c>
       <c r="E18">
-        <v>1.827175682465754</v>
+        <v>5.1660044</v>
       </c>
       <c r="F18">
-        <v>1.827175682465754</v>
+        <v>5.1660044</v>
       </c>
       <c r="G18">
-        <v>0.8770005572602743</v>
+        <v>0.34611211</v>
       </c>
       <c r="H18">
-        <v>1.02620648739726</v>
+        <v>1.1595382</v>
       </c>
       <c r="I18">
-        <v>0.7603326645205484</v>
+        <v>0.21380688</v>
       </c>
       <c r="J18">
-        <v>1.209934584994521</v>
+        <v>0.0017993233</v>
       </c>
       <c r="K18">
-        <v>1.827175682465754</v>
+        <v>5.1660044</v>
       </c>
       <c r="L18">
-        <v>1.209934584994521</v>
+        <v>0.0017993233</v>
       </c>
       <c r="M18">
-        <v>0.6594259554520545</v>
+        <v>0.082419669</v>
       </c>
       <c r="N18">
-        <v>1.827175682465754</v>
+        <v>5.1660044</v>
       </c>
       <c r="O18">
-        <v>0.7603326645205484</v>
+        <v>0.21380688</v>
       </c>
       <c r="P18">
-        <v>0.9851336247575345</v>
+        <v>0.10780310165</v>
       </c>
       <c r="Q18">
-        <v>0.8186666108904113</v>
+        <v>0.279959495</v>
       </c>
       <c r="R18">
-        <v>1.265814310660274</v>
+        <v>1.7938702011</v>
       </c>
       <c r="S18">
-        <v>0.9490892689251145</v>
+        <v>0.1872394377666667</v>
       </c>
       <c r="T18">
-        <v>1.265814310660274</v>
+        <v>1.7938702011</v>
       </c>
       <c r="U18">
-        <v>1.168610872310274</v>
+        <v>1.431930678325</v>
       </c>
       <c r="V18">
-        <v>1.30032383434137</v>
+        <v>2.17874542266</v>
       </c>
       <c r="W18">
-        <v>1.055577274062671</v>
+        <v>1.0771405517875</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1807,67 +1813,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.057789206315789</v>
+        <v>0.8764151200000001</v>
       </c>
       <c r="D19">
-        <v>0.7234640074210527</v>
+        <v>0.75391861</v>
       </c>
       <c r="E19">
-        <v>1.162595613789474</v>
+        <v>0.32250095</v>
       </c>
       <c r="F19">
-        <v>1.162595613789474</v>
+        <v>0.32250095</v>
       </c>
       <c r="G19">
-        <v>0.9684799384210525</v>
+        <v>1.0291422</v>
       </c>
       <c r="H19">
-        <v>1.093438847894737</v>
+        <v>1.0839669</v>
       </c>
       <c r="I19">
-        <v>1.177367331578948</v>
+        <v>1.4420139</v>
       </c>
       <c r="J19">
-        <v>0.3933302183000001</v>
+        <v>0.3206147400000001</v>
       </c>
       <c r="K19">
-        <v>1.162595613789474</v>
+        <v>0.32250095</v>
       </c>
       <c r="L19">
-        <v>0.3933302183000001</v>
+        <v>0.3206147400000001</v>
       </c>
       <c r="M19">
-        <v>1.064730176789474</v>
+        <v>1.4215018</v>
       </c>
       <c r="N19">
-        <v>1.162595613789474</v>
+        <v>0.32250095</v>
       </c>
       <c r="O19">
-        <v>1.177367331578948</v>
+        <v>1.4420139</v>
       </c>
       <c r="P19">
-        <v>0.7853487749394739</v>
+        <v>0.8813143200000001</v>
       </c>
       <c r="Q19">
-        <v>1.072923635</v>
+        <v>1.23557805</v>
       </c>
       <c r="R19">
-        <v>0.9110977212228072</v>
+        <v>0.6950431966666667</v>
       </c>
       <c r="S19">
-        <v>0.8463924961</v>
+        <v>0.93059028</v>
       </c>
       <c r="T19">
-        <v>0.9110977212228072</v>
+        <v>0.6950431966666667</v>
       </c>
       <c r="U19">
-        <v>0.9254432755223685</v>
+        <v>0.7785679475</v>
       </c>
       <c r="V19">
-        <v>0.9728737431757896</v>
+        <v>0.6873545480000001</v>
       </c>
       <c r="W19">
-        <v>0.9551494175638159</v>
+        <v>0.9062592775</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1878,67 +1884,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.080195077894737</v>
+        <v>1.150611023013699</v>
       </c>
       <c r="D20">
-        <v>0.3443973900000001</v>
+        <v>0.9339312373972601</v>
       </c>
       <c r="E20">
-        <v>0.8672345984210523</v>
+        <v>1.827175682465754</v>
       </c>
       <c r="F20">
-        <v>0.8672345984210523</v>
+        <v>1.827175682465754</v>
       </c>
       <c r="G20">
-        <v>0.7640934242105264</v>
+        <v>0.8770005572602743</v>
       </c>
       <c r="H20">
-        <v>1.536941284210527</v>
+        <v>1.02620648739726</v>
       </c>
       <c r="I20">
-        <v>1.835661583157895</v>
+        <v>0.7603326645205484</v>
       </c>
       <c r="J20">
-        <v>0.07967040210526316</v>
+        <v>1.209934584994521</v>
       </c>
       <c r="K20">
-        <v>0.8672345984210523</v>
+        <v>1.827175682465754</v>
       </c>
       <c r="L20">
-        <v>0.07967040210526316</v>
+        <v>1.209934584994521</v>
       </c>
       <c r="M20">
-        <v>0.9254137836842103</v>
+        <v>0.6594259554520545</v>
       </c>
       <c r="N20">
-        <v>0.8672345984210523</v>
+        <v>1.827175682465754</v>
       </c>
       <c r="O20">
-        <v>1.835661583157895</v>
+        <v>0.7603326645205484</v>
       </c>
       <c r="P20">
-        <v>0.9576659926315791</v>
+        <v>0.9851336247575345</v>
       </c>
       <c r="Q20">
-        <v>1.299877503684211</v>
+        <v>0.8186666108904113</v>
       </c>
       <c r="R20">
-        <v>0.9275221945614035</v>
+        <v>1.265814310660274</v>
       </c>
       <c r="S20">
-        <v>0.8931418031578948</v>
+        <v>0.9490892689251145</v>
       </c>
       <c r="T20">
-        <v>0.9275221945614035</v>
+        <v>1.265814310660274</v>
       </c>
       <c r="U20">
-        <v>0.8866650019736841</v>
+        <v>1.168610872310274</v>
       </c>
       <c r="V20">
-        <v>0.8827789212631577</v>
+        <v>1.30032383434137</v>
       </c>
       <c r="W20">
-        <v>0.9292009429605264</v>
+        <v>1.055577274062671</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1949,67 +1955,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9666321048364052</v>
+        <v>1.057789206315789</v>
       </c>
       <c r="D21">
-        <v>1.424708597885408</v>
+        <v>0.7234640074210527</v>
       </c>
       <c r="E21">
-        <v>0.5180737303226071</v>
+        <v>1.162595613789474</v>
       </c>
       <c r="F21">
-        <v>0.5180737303226071</v>
+        <v>1.162595613789474</v>
       </c>
       <c r="G21">
-        <v>1.283954946091436</v>
+        <v>0.9684799384210525</v>
       </c>
       <c r="H21">
-        <v>0.6607143973049976</v>
+        <v>1.093438847894737</v>
       </c>
       <c r="I21">
-        <v>0.641229129525398</v>
+        <v>1.177367331578948</v>
       </c>
       <c r="J21">
-        <v>1.414592299260681</v>
+        <v>0.3933302183000001</v>
       </c>
       <c r="K21">
-        <v>0.5180737303226071</v>
+        <v>1.162595613789474</v>
       </c>
       <c r="L21">
-        <v>1.414592299260681</v>
+        <v>0.3933302183000001</v>
       </c>
       <c r="M21">
-        <v>1.170067800750828</v>
+        <v>1.064730176789474</v>
       </c>
       <c r="N21">
-        <v>0.5180737303226071</v>
+        <v>1.162595613789474</v>
       </c>
       <c r="O21">
-        <v>0.641229129525398</v>
+        <v>1.177367331578948</v>
       </c>
       <c r="P21">
-        <v>1.02791071439304</v>
+        <v>0.7853487749394739</v>
       </c>
       <c r="Q21">
-        <v>0.962592037808417</v>
+        <v>1.072923635</v>
       </c>
       <c r="R21">
-        <v>0.8579650530362288</v>
+        <v>0.9110977212228072</v>
       </c>
       <c r="S21">
-        <v>1.113258791625839</v>
+        <v>0.8463924961</v>
       </c>
       <c r="T21">
-        <v>0.8579650530362288</v>
+        <v>0.9110977212228072</v>
       </c>
       <c r="U21">
-        <v>0.9644625263000306</v>
+        <v>0.9254432755223685</v>
       </c>
       <c r="V21">
-        <v>0.8751847671045458</v>
+        <v>0.9728737431757896</v>
       </c>
       <c r="W21">
-        <v>1.00999662574722</v>
+        <v>0.9551494175638159</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2020,67 +2026,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.8046703395088916</v>
+        <v>1.080195077894737</v>
       </c>
       <c r="D22">
-        <v>1.10612888525521</v>
+        <v>0.3443973900000001</v>
       </c>
       <c r="E22">
-        <v>0.988250631918999</v>
+        <v>0.8672345984210523</v>
       </c>
       <c r="F22">
-        <v>0.988250631918999</v>
+        <v>0.8672345984210523</v>
       </c>
       <c r="G22">
-        <v>0.8493945629815766</v>
+        <v>0.7640934242105264</v>
       </c>
       <c r="H22">
-        <v>1.045033107348854</v>
+        <v>1.536941284210527</v>
       </c>
       <c r="I22">
-        <v>1.160614125541454</v>
+        <v>1.835661583157895</v>
       </c>
       <c r="J22">
-        <v>1.4684885838724</v>
+        <v>0.07967040210526316</v>
       </c>
       <c r="K22">
-        <v>0.988250631918999</v>
+        <v>0.8672345984210523</v>
       </c>
       <c r="L22">
-        <v>1.4684885838724</v>
+        <v>0.07967040210526316</v>
       </c>
       <c r="M22">
-        <v>0.9866067471742133</v>
+        <v>0.9254137836842103</v>
       </c>
       <c r="N22">
-        <v>0.988250631918999</v>
+        <v>0.8672345984210523</v>
       </c>
       <c r="O22">
-        <v>1.160614125541454</v>
+        <v>1.835661583157895</v>
       </c>
       <c r="P22">
-        <v>1.314551354706927</v>
+        <v>0.9576659926315791</v>
       </c>
       <c r="Q22">
-        <v>1.005004344261515</v>
+        <v>1.299877503684211</v>
       </c>
       <c r="R22">
-        <v>1.205784447110951</v>
+        <v>0.9275221945614035</v>
       </c>
       <c r="S22">
-        <v>1.159499090798477</v>
+        <v>0.8931418031578948</v>
       </c>
       <c r="T22">
-        <v>1.205784447110951</v>
+        <v>0.9275221945614035</v>
       </c>
       <c r="U22">
-        <v>1.116686976078607</v>
+        <v>0.8866650019736841</v>
       </c>
       <c r="V22">
-        <v>1.090999707246686</v>
+        <v>0.8827789212631577</v>
       </c>
       <c r="W22">
-        <v>1.0511483729502</v>
+        <v>0.9292009429605264</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2091,67 +2097,67 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.066535999356658</v>
+        <v>0.9666321048364052</v>
       </c>
       <c r="D23">
-        <v>1.281828405173791</v>
+        <v>1.424708597885408</v>
       </c>
       <c r="E23">
-        <v>1.570472381390285</v>
+        <v>0.5180737303226071</v>
       </c>
       <c r="F23">
-        <v>1.570472381390285</v>
+        <v>0.5180737303226071</v>
       </c>
       <c r="G23">
-        <v>0.9972596984654541</v>
+        <v>1.283954946091436</v>
       </c>
       <c r="H23">
-        <v>0.7820284194240961</v>
+        <v>0.6607143973049976</v>
       </c>
       <c r="I23">
-        <v>0.4345724781155619</v>
+        <v>0.641229129525398</v>
       </c>
       <c r="J23">
-        <v>1.712027806894615</v>
+        <v>1.414592299260681</v>
       </c>
       <c r="K23">
-        <v>1.570472381390285</v>
+        <v>0.5180737303226071</v>
       </c>
       <c r="L23">
-        <v>1.712027806894615</v>
+        <v>1.414592299260681</v>
       </c>
       <c r="M23">
-        <v>0.774862459710696</v>
+        <v>1.170067800750828</v>
       </c>
       <c r="N23">
-        <v>1.570472381390285</v>
+        <v>0.5180737303226071</v>
       </c>
       <c r="O23">
-        <v>0.4345724781155619</v>
+        <v>0.641229129525398</v>
       </c>
       <c r="P23">
-        <v>1.073300142505088</v>
+        <v>1.02791071439304</v>
       </c>
       <c r="Q23">
-        <v>0.715916088290508</v>
+        <v>0.962592037808417</v>
       </c>
       <c r="R23">
-        <v>1.239024222133487</v>
+        <v>0.8579650530362288</v>
       </c>
       <c r="S23">
-        <v>1.04795332782521</v>
+        <v>1.113258791625839</v>
       </c>
       <c r="T23">
-        <v>1.239024222133487</v>
+        <v>0.8579650530362288</v>
       </c>
       <c r="U23">
-        <v>1.178583091216479</v>
+        <v>0.9644625263000306</v>
       </c>
       <c r="V23">
-        <v>1.25696094925124</v>
+        <v>0.8751847671045458</v>
       </c>
       <c r="W23">
-        <v>1.077448456066395</v>
+        <v>1.00999662574722</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2162,67 +2168,67 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.005941962080059</v>
+        <v>0.8046703395088916</v>
       </c>
       <c r="D24">
-        <v>0.9729919748266307</v>
+        <v>1.10612888525521</v>
       </c>
       <c r="E24">
-        <v>0.5878682905610633</v>
+        <v>0.988250631918999</v>
       </c>
       <c r="F24">
-        <v>0.5878682905610633</v>
+        <v>0.988250631918999</v>
       </c>
       <c r="G24">
-        <v>1.111690867589363</v>
+        <v>0.8493945629815766</v>
       </c>
       <c r="H24">
-        <v>1.013773015973161</v>
+        <v>1.045033107348854</v>
       </c>
       <c r="I24">
-        <v>1.135409884884489</v>
+        <v>1.160614125541454</v>
       </c>
       <c r="J24">
-        <v>0.7468720463360872</v>
+        <v>1.4684885838724</v>
       </c>
       <c r="K24">
-        <v>0.5878682905610633</v>
+        <v>0.988250631918999</v>
       </c>
       <c r="L24">
-        <v>0.7468720463360872</v>
+        <v>1.4684885838724</v>
       </c>
       <c r="M24">
-        <v>1.121567671481623</v>
+        <v>0.9866067471742133</v>
       </c>
       <c r="N24">
-        <v>0.5878682905610633</v>
+        <v>0.988250631918999</v>
       </c>
       <c r="O24">
-        <v>1.135409884884489</v>
+        <v>1.160614125541454</v>
       </c>
       <c r="P24">
-        <v>0.941140965610288</v>
+        <v>1.314551354706927</v>
       </c>
       <c r="Q24">
-        <v>1.123550376236926</v>
+        <v>1.005004344261515</v>
       </c>
       <c r="R24">
-        <v>0.8233834072605465</v>
+        <v>1.205784447110951</v>
       </c>
       <c r="S24">
-        <v>0.9979909329366462</v>
+        <v>1.159499090798477</v>
       </c>
       <c r="T24">
-        <v>0.8233834072605465</v>
+        <v>1.205784447110951</v>
       </c>
       <c r="U24">
-        <v>0.8954602723427505</v>
+        <v>1.116686976078607</v>
       </c>
       <c r="V24">
-        <v>0.8339418759864131</v>
+        <v>1.090999707246686</v>
       </c>
       <c r="W24">
-        <v>0.9620144642165596</v>
+        <v>1.0511483729502</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2233,67 +2239,67 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.292593454922492</v>
+        <v>1.066535999356658</v>
       </c>
       <c r="D25">
-        <v>0.6434061667072565</v>
+        <v>1.281828405173791</v>
       </c>
       <c r="E25">
-        <v>1.562087086984737</v>
+        <v>1.570472381390285</v>
       </c>
       <c r="F25">
-        <v>1.562087086984737</v>
+        <v>1.570472381390285</v>
       </c>
       <c r="G25">
-        <v>0.9870964894955678</v>
+        <v>0.9972596984654541</v>
       </c>
       <c r="H25">
-        <v>1.131346129275396</v>
+        <v>0.7820284194240961</v>
       </c>
       <c r="I25">
-        <v>0.8649429867460039</v>
+        <v>0.4345724781155619</v>
       </c>
       <c r="J25">
-        <v>0.3350133986750451</v>
+        <v>1.712027806894615</v>
       </c>
       <c r="K25">
-        <v>1.562087086984737</v>
+        <v>1.570472381390285</v>
       </c>
       <c r="L25">
-        <v>0.3350133986750451</v>
+        <v>1.712027806894615</v>
       </c>
       <c r="M25">
-        <v>0.8083612603442594</v>
+        <v>0.774862459710696</v>
       </c>
       <c r="N25">
-        <v>1.562087086984737</v>
+        <v>1.570472381390285</v>
       </c>
       <c r="O25">
-        <v>0.8649429867460039</v>
+        <v>0.4345724781155619</v>
       </c>
       <c r="P25">
-        <v>0.5999781927105245</v>
+        <v>1.073300142505088</v>
       </c>
       <c r="Q25">
-        <v>0.9260197381207859</v>
+        <v>0.715916088290508</v>
       </c>
       <c r="R25">
-        <v>0.9206811574685952</v>
+        <v>1.239024222133487</v>
       </c>
       <c r="S25">
-        <v>0.7290176249722057</v>
+        <v>1.04795332782521</v>
       </c>
       <c r="T25">
-        <v>0.9206811574685952</v>
+        <v>1.239024222133487</v>
       </c>
       <c r="U25">
-        <v>0.9372849904753384</v>
+        <v>1.178583091216479</v>
       </c>
       <c r="V25">
-        <v>1.062245409777218</v>
+        <v>1.25696094925124</v>
       </c>
       <c r="W25">
-        <v>0.9531058716438447</v>
+        <v>1.077448456066395</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2304,67 +2310,67 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.9002207596408386</v>
+        <v>1.005941962080059</v>
       </c>
       <c r="D26">
-        <v>0.8663972785426576</v>
+        <v>0.9729919748266307</v>
       </c>
       <c r="E26">
-        <v>1.152418627749718</v>
+        <v>0.5878682905610633</v>
       </c>
       <c r="F26">
-        <v>1.152418627749718</v>
+        <v>0.5878682905610633</v>
       </c>
       <c r="G26">
-        <v>0.8160485933543844</v>
+        <v>1.111690867589363</v>
       </c>
       <c r="H26">
-        <v>1.132138713642904</v>
+        <v>1.013773015973161</v>
       </c>
       <c r="I26">
-        <v>1.247976692325702</v>
+        <v>1.135409884884489</v>
       </c>
       <c r="J26">
-        <v>0.9355214699840861</v>
+        <v>0.7468720463360872</v>
       </c>
       <c r="K26">
-        <v>1.152418627749718</v>
+        <v>0.5878682905610633</v>
       </c>
       <c r="L26">
-        <v>0.9355214699840861</v>
+        <v>0.7468720463360872</v>
       </c>
       <c r="M26">
-        <v>1.004736427665287</v>
+        <v>1.121567671481623</v>
       </c>
       <c r="N26">
-        <v>1.152418627749718</v>
+        <v>0.5878682905610633</v>
       </c>
       <c r="O26">
-        <v>1.247976692325702</v>
+        <v>1.135409884884489</v>
       </c>
       <c r="P26">
-        <v>1.091749081154894</v>
+        <v>0.941140965610288</v>
       </c>
       <c r="Q26">
-        <v>1.032012642840043</v>
+        <v>1.123550376236926</v>
       </c>
       <c r="R26">
-        <v>1.111972263353169</v>
+        <v>0.8233834072605465</v>
       </c>
       <c r="S26">
-        <v>0.9998489185547242</v>
+        <v>0.9979909329366462</v>
       </c>
       <c r="T26">
-        <v>1.111972263353169</v>
+        <v>0.8233834072605465</v>
       </c>
       <c r="U26">
-        <v>1.037991345853473</v>
+        <v>0.8954602723427505</v>
       </c>
       <c r="V26">
-        <v>1.060876802232722</v>
+        <v>0.8339418759864131</v>
       </c>
       <c r="W26">
-        <v>1.006932320363197</v>
+        <v>0.9620144642165596</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2375,67 +2381,67 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.091101855832896</v>
+        <v>1.292593454922492</v>
       </c>
       <c r="D27">
-        <v>0.9908728048061516</v>
+        <v>0.6434061667072565</v>
       </c>
       <c r="E27">
-        <v>1.040356808914096</v>
+        <v>1.562087086984737</v>
       </c>
       <c r="F27">
-        <v>1.040356808914096</v>
+        <v>1.562087086984737</v>
       </c>
       <c r="G27">
-        <v>1.101040992441357</v>
+        <v>0.9870964894955678</v>
       </c>
       <c r="H27">
-        <v>0.9472120219986168</v>
+        <v>1.131346129275396</v>
       </c>
       <c r="I27">
-        <v>0.916226832961227</v>
+        <v>0.8649429867460039</v>
       </c>
       <c r="J27">
-        <v>0.7977424790355716</v>
+        <v>0.3350133986750451</v>
       </c>
       <c r="K27">
-        <v>1.040356808914096</v>
+        <v>1.562087086984737</v>
       </c>
       <c r="L27">
-        <v>0.7977424790355716</v>
+        <v>0.3350133986750451</v>
       </c>
       <c r="M27">
-        <v>0.9945643469399215</v>
+        <v>0.8083612603442594</v>
       </c>
       <c r="N27">
-        <v>1.040356808914096</v>
+        <v>1.562087086984737</v>
       </c>
       <c r="O27">
-        <v>0.916226832961227</v>
+        <v>0.8649429867460039</v>
       </c>
       <c r="P27">
-        <v>0.8569846559983993</v>
+        <v>0.5999781927105245</v>
       </c>
       <c r="Q27">
-        <v>1.008633912701292</v>
+        <v>0.9260197381207859</v>
       </c>
       <c r="R27">
-        <v>0.9181087069702981</v>
+        <v>0.9206811574685952</v>
       </c>
       <c r="S27">
-        <v>0.9383367681460518</v>
+        <v>0.7290176249722057</v>
       </c>
       <c r="T27">
-        <v>0.9181087069702981</v>
+        <v>0.9206811574685952</v>
       </c>
       <c r="U27">
-        <v>0.9638417783380628</v>
+        <v>0.9372849904753384</v>
       </c>
       <c r="V27">
-        <v>0.9791447844532695</v>
+        <v>1.062245409777218</v>
       </c>
       <c r="W27">
-        <v>0.9848897678662296</v>
+        <v>0.9531058716438447</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2446,67 +2452,67 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.016295824429901</v>
+        <v>0.9002207596408386</v>
       </c>
       <c r="D28">
-        <v>0.9654542430965291</v>
+        <v>0.8663972785426576</v>
       </c>
       <c r="E28">
-        <v>1.219309973461084</v>
+        <v>1.152418627749718</v>
       </c>
       <c r="F28">
-        <v>1.219309973461084</v>
+        <v>1.152418627749718</v>
       </c>
       <c r="G28">
-        <v>0.9370967086254398</v>
+        <v>0.8160485933543844</v>
       </c>
       <c r="H28">
-        <v>0.998819389092375</v>
+        <v>1.132138713642904</v>
       </c>
       <c r="I28">
-        <v>0.9946143676409611</v>
+        <v>1.247976692325702</v>
       </c>
       <c r="J28">
-        <v>1.031103038224906</v>
+        <v>0.9355214699840861</v>
       </c>
       <c r="K28">
-        <v>1.219309973461084</v>
+        <v>1.152418627749718</v>
       </c>
       <c r="L28">
-        <v>1.031103038224906</v>
+        <v>0.9355214699840861</v>
       </c>
       <c r="M28">
-        <v>0.9511557004959679</v>
+        <v>1.004736427665287</v>
       </c>
       <c r="N28">
-        <v>1.219309973461084</v>
+        <v>1.152418627749718</v>
       </c>
       <c r="O28">
-        <v>0.9946143676409611</v>
+        <v>1.247976692325702</v>
       </c>
       <c r="P28">
-        <v>1.012858702932934</v>
+        <v>1.091749081154894</v>
       </c>
       <c r="Q28">
-        <v>0.9658555381332005</v>
+        <v>1.032012642840043</v>
       </c>
       <c r="R28">
-        <v>1.081675793108984</v>
+        <v>1.111972263353169</v>
       </c>
       <c r="S28">
-        <v>0.9876047048304356</v>
+        <v>0.9998489185547242</v>
       </c>
       <c r="T28">
-        <v>1.081675793108984</v>
+        <v>1.111972263353169</v>
       </c>
       <c r="U28">
-        <v>1.045531021988098</v>
+        <v>1.037991345853473</v>
       </c>
       <c r="V28">
-        <v>1.080286812282695</v>
+        <v>1.060876802232722</v>
       </c>
       <c r="W28">
-        <v>1.014231155633396</v>
+        <v>1.006932320363197</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2517,66 +2523,208 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>1.091101855832896</v>
+      </c>
+      <c r="D29">
+        <v>0.9908728048061516</v>
+      </c>
+      <c r="E29">
+        <v>1.040356808914096</v>
+      </c>
+      <c r="F29">
+        <v>1.040356808914096</v>
+      </c>
+      <c r="G29">
+        <v>1.101040992441357</v>
+      </c>
+      <c r="H29">
+        <v>0.9472120219986168</v>
+      </c>
+      <c r="I29">
+        <v>0.916226832961227</v>
+      </c>
+      <c r="J29">
+        <v>0.7977424790355716</v>
+      </c>
+      <c r="K29">
+        <v>1.040356808914096</v>
+      </c>
+      <c r="L29">
+        <v>0.7977424790355716</v>
+      </c>
+      <c r="M29">
+        <v>0.9945643469399215</v>
+      </c>
+      <c r="N29">
+        <v>1.040356808914096</v>
+      </c>
+      <c r="O29">
+        <v>0.916226832961227</v>
+      </c>
+      <c r="P29">
+        <v>0.8569846559983993</v>
+      </c>
+      <c r="Q29">
+        <v>1.008633912701292</v>
+      </c>
+      <c r="R29">
+        <v>0.9181087069702981</v>
+      </c>
+      <c r="S29">
+        <v>0.9383367681460518</v>
+      </c>
+      <c r="T29">
+        <v>0.9181087069702981</v>
+      </c>
+      <c r="U29">
+        <v>0.9638417783380628</v>
+      </c>
+      <c r="V29">
+        <v>0.9791447844532695</v>
+      </c>
+      <c r="W29">
+        <v>0.9848897678662296</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.016295824429901</v>
+      </c>
+      <c r="D30">
+        <v>0.9654542430965291</v>
+      </c>
+      <c r="E30">
+        <v>1.219309973461084</v>
+      </c>
+      <c r="F30">
+        <v>1.219309973461084</v>
+      </c>
+      <c r="G30">
+        <v>0.9370967086254398</v>
+      </c>
+      <c r="H30">
+        <v>0.998819389092375</v>
+      </c>
+      <c r="I30">
+        <v>0.9946143676409611</v>
+      </c>
+      <c r="J30">
+        <v>1.031103038224906</v>
+      </c>
+      <c r="K30">
+        <v>1.219309973461084</v>
+      </c>
+      <c r="L30">
+        <v>1.031103038224906</v>
+      </c>
+      <c r="M30">
+        <v>0.9511557004959679</v>
+      </c>
+      <c r="N30">
+        <v>1.219309973461084</v>
+      </c>
+      <c r="O30">
+        <v>0.9946143676409611</v>
+      </c>
+      <c r="P30">
+        <v>1.012858702932934</v>
+      </c>
+      <c r="Q30">
+        <v>0.9658555381332005</v>
+      </c>
+      <c r="R30">
+        <v>1.081675793108984</v>
+      </c>
+      <c r="S30">
+        <v>0.9876047048304356</v>
+      </c>
+      <c r="T30">
+        <v>1.081675793108984</v>
+      </c>
+      <c r="U30">
+        <v>1.045531021988098</v>
+      </c>
+      <c r="V30">
+        <v>1.080286812282695</v>
+      </c>
+      <c r="W30">
+        <v>1.014231155633396</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>1.191687310758099</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.059221275951837</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>1.001494936160393</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>1.001494936160393</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>1.190239624430895</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.7867043650784379</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.6423377271186645</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.8662607198167838</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>1.001494936160393</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.8662607198167838</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.047503623290052</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>1.001494936160393</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.6423377271186645</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>0.7542992234677242</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.9162886757747799</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>0.8366977943652804</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>0.8996126904554478</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>0.8366977943652804</v>
       </c>
-      <c r="U29">
+      <c r="U31">
         <v>0.9250832518816841</v>
       </c>
-      <c r="V29">
+      <c r="V31">
         <v>0.9403655887374258</v>
       </c>
-      <c r="W29">
+      <c r="W31">
         <v>0.9731811978256452</v>
       </c>
     </row>
